--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://levi-my.sharepoint.com/personal/bhn_levi_com/Documents/Desktop/WMS_Henderson/WMS_Henderson/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="14_{BCC70CF2-D4DE-4554-A1CF-6EE4EC3FCD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{913C85D2-8F6B-4973-8427-1FFD003A1EB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEC94E-3CE4-438D-862D-DF7AA18C839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="237">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -461,9 +461,6 @@
     <t>CARTKEY2</t>
   </si>
   <si>
-    <t>SGC1230724102131</t>
-  </si>
-  <si>
     <t>SGC1230724102129</t>
   </si>
   <si>
@@ -479,12 +476,6 @@
     <t>SGC5230724102137</t>
   </si>
   <si>
-    <t>SCB8230724210553</t>
-  </si>
-  <si>
-    <t>SCB8230724210551</t>
-  </si>
-  <si>
     <t>KILL0520230006</t>
   </si>
   <si>
@@ -531,12 +522,6 @@
   </si>
   <si>
     <t>CARTAE79</t>
-  </si>
-  <si>
-    <t>SBA8230808113344</t>
-  </si>
-  <si>
-    <t>SBA8230808113342</t>
   </si>
   <si>
     <t>SBA5230808130119</t>
@@ -546,264 +531,262 @@
 SBA5230808130117</t>
   </si>
   <si>
-    <t>SBA1230808130053</t>
-  </si>
-  <si>
-    <t>SBA1230808130051</t>
-  </si>
-  <si>
-    <t>SBA1230808130049</t>
-  </si>
-  <si>
-    <t>SBA1230808130046</t>
-  </si>
-  <si>
-    <t>SBA1230808113325</t>
-  </si>
-  <si>
-    <t>SBA1230808113323</t>
+    <t>SCB1230808130432</t>
+  </si>
+  <si>
+    <t>SCB1230808130430</t>
+  </si>
+  <si>
+    <t>MEB5230808130333</t>
+  </si>
+  <si>
+    <t>MEB5230808130331</t>
+  </si>
+  <si>
+    <t>SCB1230808130428</t>
+  </si>
+  <si>
+    <t>SCB1230808130426</t>
+  </si>
+  <si>
+    <t>SGW5230808113437</t>
+  </si>
+  <si>
+    <t>SGW5230808113439</t>
+  </si>
+  <si>
+    <t>TOTEAH17</t>
+  </si>
+  <si>
+    <t>TOTEAH18</t>
+  </si>
+  <si>
+    <t>CARTAH17</t>
+  </si>
+  <si>
+    <t>TOTEH19</t>
+  </si>
+  <si>
+    <t>TOTEAH20</t>
+  </si>
+  <si>
+    <t>CARTAH20</t>
+  </si>
+  <si>
+    <t>MDCpk27230001</t>
+  </si>
+  <si>
+    <t>MDCpk27230002</t>
+  </si>
+  <si>
+    <t>TOTEAH21</t>
+  </si>
+  <si>
+    <t>TOTEAH22</t>
+  </si>
+  <si>
+    <t>TOTEAH23</t>
+  </si>
+  <si>
+    <t>CARTAH21</t>
+  </si>
+  <si>
+    <t>CARTAH22</t>
+  </si>
+  <si>
+    <t>TOTEAH24</t>
+  </si>
+  <si>
+    <t>TOTEAH25</t>
+  </si>
+  <si>
+    <t>CARTAH25</t>
+  </si>
+  <si>
+    <t>TOTEAH26</t>
+  </si>
+  <si>
+    <t>CARTAH26</t>
+  </si>
+  <si>
+    <t>TOTEAH27</t>
+  </si>
+  <si>
+    <t>CARTAH27</t>
+  </si>
+  <si>
+    <t>TOTEAH28</t>
+  </si>
+  <si>
+    <t>CARTAH28</t>
+  </si>
+  <si>
+    <t>TOTEAH29</t>
+  </si>
+  <si>
+    <t>CARTAH29</t>
+  </si>
+  <si>
+    <t>SBB8230726121616</t>
+  </si>
+  <si>
+    <t>SBB8230726121614</t>
+  </si>
+  <si>
+    <t>TOTEAJ01</t>
+  </si>
+  <si>
+    <t>TOTEAJ02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTAJ01                      </t>
+  </si>
+  <si>
+    <t>CARTAJ03</t>
+  </si>
+  <si>
+    <t>TOTEAJ04</t>
+  </si>
+  <si>
+    <t>TOTEAJ03</t>
+  </si>
+  <si>
+    <t>SCB8230817150005</t>
   </si>
   <si>
     <t xml:space="preserve">
-SCB1230808130131</t>
+SCB8230817150003</t>
+  </si>
+  <si>
+    <t>SEB8230817145803</t>
+  </si>
+  <si>
+    <t>SEB8230817145801</t>
+  </si>
+  <si>
+    <t>TOTEAJ05</t>
+  </si>
+  <si>
+    <t>TOTEAJ06</t>
+  </si>
+  <si>
+    <t>CARTEAJ05</t>
+  </si>
+  <si>
+    <t>SBA1230821055940</t>
+  </si>
+  <si>
+    <t>SBA1230821055939</t>
+  </si>
+  <si>
+    <t>CARTAJ01</t>
+  </si>
+  <si>
+    <t>CARTAJ02</t>
+  </si>
+  <si>
+    <t>SBA5230821055950</t>
+  </si>
+  <si>
+    <t>SBA5230821055949</t>
+  </si>
+  <si>
+    <t>SBA5230821055941</t>
+  </si>
+  <si>
+    <t>SBA5230821055942</t>
+  </si>
+  <si>
+    <t>CARTAJ04</t>
+  </si>
+  <si>
+    <t>SBA1230821055936</t>
+  </si>
+  <si>
+    <t>SCB5230821055957</t>
+  </si>
+  <si>
+    <t>SCB5230821055958
+SCB1230808130129</t>
+  </si>
+  <si>
+    <t>SGW5230821060011</t>
+  </si>
+  <si>
+    <t>SGW5230821060010</t>
+  </si>
+  <si>
+    <t>TOTEAJ07</t>
+  </si>
+  <si>
+    <t>CARTAJ07</t>
+  </si>
+  <si>
+    <t>CARTAJ05</t>
+  </si>
+  <si>
+    <t>SEB1230821060020</t>
+  </si>
+  <si>
+    <t>SEB1230821060021</t>
+  </si>
+  <si>
+    <t>TOTEAJ08</t>
+  </si>
+  <si>
+    <t>CARTAJ08</t>
+  </si>
+  <si>
+    <t>CARTAJ10</t>
+  </si>
+  <si>
+    <t>TOTEAJ09</t>
+  </si>
+  <si>
+    <t>TOTEAJ10</t>
+  </si>
+  <si>
+    <t>MEB4230821060038</t>
+  </si>
+  <si>
+    <t>MEB4230821060037</t>
+  </si>
+  <si>
+    <t>CARTAJ11</t>
+  </si>
+  <si>
+    <t>TOTEAJ11</t>
+  </si>
+  <si>
+    <t>TOTEAJ12</t>
+  </si>
+  <si>
+    <t>TOTEAJ13</t>
+  </si>
+  <si>
+    <t>TOTEAJ14</t>
+  </si>
+  <si>
+    <t>MGW4230821060046</t>
+  </si>
+  <si>
+    <t>MGW4230821060045</t>
+  </si>
+  <si>
+    <t>CARTAJ15</t>
+  </si>
+  <si>
+    <t>TOTEAJ16</t>
+  </si>
+  <si>
+    <t>TOTEJH15</t>
+  </si>
+  <si>
+    <t>MGC4230821060052</t>
   </si>
   <si>
     <t xml:space="preserve">
-SCB1230808130129</t>
-  </si>
-  <si>
-    <t>SGW5230808130209</t>
-  </si>
-  <si>
-    <t>SGW5230808130207</t>
-  </si>
-  <si>
-    <t>SEB8230808130255</t>
-  </si>
-  <si>
-    <t>SEB8230808130253</t>
-  </si>
-  <si>
-    <t>SEB5230808130251</t>
-  </si>
-  <si>
-    <t>SEB5230808130249</t>
-  </si>
-  <si>
-    <t>MEB5230808130337</t>
-  </si>
-  <si>
-    <t>MEB5230808130335</t>
-  </si>
-  <si>
-    <t>MGW5230808130354</t>
-  </si>
-  <si>
-    <t>MGW5230808130352</t>
-  </si>
-  <si>
-    <t>MGC25082300016</t>
-  </si>
-  <si>
-    <t>MGC25082300015</t>
-  </si>
-  <si>
-    <t>SCB1230808130432</t>
-  </si>
-  <si>
-    <t>SCB1230808130430</t>
-  </si>
-  <si>
-    <t>MEB5230808130333</t>
-  </si>
-  <si>
-    <t>MEB5230808130331</t>
-  </si>
-  <si>
-    <t>SCB1230808130428</t>
-  </si>
-  <si>
-    <t>SCB1230808130426</t>
-  </si>
-  <si>
-    <t>SGW5230808113437</t>
-  </si>
-  <si>
-    <t>SGW5230808113439</t>
-  </si>
-  <si>
-    <t>TOTEAH01</t>
-  </si>
-  <si>
-    <t>CARTAH01</t>
-  </si>
-  <si>
-    <t>TOTEAH02</t>
-  </si>
-  <si>
-    <t>CARTAH02</t>
-  </si>
-  <si>
-    <t>TOTEAH03</t>
-  </si>
-  <si>
-    <t>CARTAH03</t>
-  </si>
-  <si>
-    <t>TOTEAH04</t>
-  </si>
-  <si>
-    <t>CARTAH04</t>
-  </si>
-  <si>
-    <t>TOTEAH05</t>
-  </si>
-  <si>
-    <t>CARTAH05</t>
-  </si>
-  <si>
-    <t>TOTEAH07</t>
-  </si>
-  <si>
-    <t>CARTAH07</t>
-  </si>
-  <si>
-    <t>TOTEAH08</t>
-  </si>
-  <si>
-    <t>CARTAH08</t>
-  </si>
-  <si>
-    <t>TOTEAH09</t>
-  </si>
-  <si>
-    <t>TOTEAH10</t>
-  </si>
-  <si>
-    <t>CARTAH10</t>
-  </si>
-  <si>
-    <t>TOTEAH11</t>
-  </si>
-  <si>
-    <t>TOTEAH12</t>
-  </si>
-  <si>
-    <t>TOTEAH13</t>
-  </si>
-  <si>
-    <t>TOTEAH14</t>
-  </si>
-  <si>
-    <t>CARTAH11</t>
-  </si>
-  <si>
-    <t>TOTEAH15</t>
-  </si>
-  <si>
-    <t>TOTEAH16</t>
-  </si>
-  <si>
-    <t>CARTAH15</t>
-  </si>
-  <si>
-    <t>TOTEAH17</t>
-  </si>
-  <si>
-    <t>TOTEAH18</t>
-  </si>
-  <si>
-    <t>CARTAH17</t>
-  </si>
-  <si>
-    <t>TOTEH19</t>
-  </si>
-  <si>
-    <t>TOTEAH20</t>
-  </si>
-  <si>
-    <t>CARTAH20</t>
-  </si>
-  <si>
-    <t>MDCpk27230001</t>
-  </si>
-  <si>
-    <t>MDCpk27230002</t>
-  </si>
-  <si>
-    <t>TOTEAH21</t>
-  </si>
-  <si>
-    <t>TOTEAH22</t>
-  </si>
-  <si>
-    <t>TOTEAH23</t>
-  </si>
-  <si>
-    <t>CARTAH21</t>
-  </si>
-  <si>
-    <t>CARTAH22</t>
-  </si>
-  <si>
-    <t>TOTEAH24</t>
-  </si>
-  <si>
-    <t>TOTEAH25</t>
-  </si>
-  <si>
-    <t>CARTAH25</t>
-  </si>
-  <si>
-    <t>TOTEAH26</t>
-  </si>
-  <si>
-    <t>CARTAH26</t>
-  </si>
-  <si>
-    <t>TOTEAH27</t>
-  </si>
-  <si>
-    <t>CARTAH27</t>
-  </si>
-  <si>
-    <t>TOTEAH28</t>
-  </si>
-  <si>
-    <t>CARTAH28</t>
-  </si>
-  <si>
-    <t>TOTEAH29</t>
-  </si>
-  <si>
-    <t>CARTAH29</t>
-  </si>
-  <si>
-    <t>TOTEAH30</t>
-  </si>
-  <si>
-    <t>TOTEAH31</t>
-  </si>
-  <si>
-    <t>CARTAH31</t>
-  </si>
-  <si>
-    <t>TOTEAH32</t>
-  </si>
-  <si>
-    <t>TOTEAH33</t>
-  </si>
-  <si>
-    <t>CARTAH32</t>
-  </si>
-  <si>
-    <t>TOTEAH37</t>
-  </si>
-  <si>
-    <t>TOTEAH38</t>
-  </si>
-  <si>
-    <t>CARTAH38</t>
+MGC4230821060053</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,10 +1328,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1372,13 +1355,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1400,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1473,12 +1456,12 @@
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1502,16 +1485,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1534,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,10 +1591,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1635,16 +1618,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1741,10 +1724,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1768,16 +1751,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1873,10 +1856,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1900,22 +1883,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -2010,10 +1993,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2037,16 +2020,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2147,10 +2130,10 @@
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2174,13 +2157,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2285,10 +2268,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2312,13 +2295,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2423,10 +2406,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2450,13 +2433,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2564,10 +2547,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2591,13 +2574,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2634,7 +2617,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2708,10 +2691,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2735,16 +2718,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2767,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2835,10 +2818,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2868,7 +2851,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2890,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2952,12 +2935,12 @@
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2981,16 +2964,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3016,8 +2999,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3094,10 +3077,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3121,16 +3104,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3212,10 +3195,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3239,13 +3222,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3298,10 +3281,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3344,7 +3327,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3391,7 +3374,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3472,10 +3455,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3499,13 +3482,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3550,10 +3533,10 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3576,7 +3559,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3584,10 +3567,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3726,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3796,10 +3779,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3823,13 +3806,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5218,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5290,10 +5273,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5317,13 +5300,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5345,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5416,10 +5399,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5443,13 +5426,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5471,8 +5454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5542,10 +5525,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5569,13 +5552,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5597,8 +5580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5669,10 +5652,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5696,13 +5679,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5724,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5800,10 +5783,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5827,16 +5810,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5859,8 +5842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5940,10 +5923,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5967,22 +5950,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEC94E-3CE4-438D-862D-DF7AA18C839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD2DAF4-EC5D-4C19-BD92-8AF641305F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="243">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>CARTKEY2</t>
-  </si>
-  <si>
-    <t>SGC1230724102129</t>
   </si>
   <si>
     <t>MCB5230724102225</t>
@@ -627,21 +624,12 @@
     <t>CARTAH29</t>
   </si>
   <si>
-    <t>SBB8230726121616</t>
-  </si>
-  <si>
-    <t>SBB8230726121614</t>
-  </si>
-  <si>
     <t>TOTEAJ01</t>
   </si>
   <si>
     <t>TOTEAJ02</t>
   </si>
   <si>
-    <t xml:space="preserve">CARTAJ01                      </t>
-  </si>
-  <si>
     <t>CARTAJ03</t>
   </si>
   <si>
@@ -651,28 +639,6 @@
     <t>TOTEAJ03</t>
   </si>
   <si>
-    <t>SCB8230817150005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SCB8230817150003</t>
-  </si>
-  <si>
-    <t>SEB8230817145803</t>
-  </si>
-  <si>
-    <t>SEB8230817145801</t>
-  </si>
-  <si>
-    <t>TOTEAJ05</t>
-  </si>
-  <si>
-    <t>TOTEAJ06</t>
-  </si>
-  <si>
-    <t>CARTEAJ05</t>
-  </si>
-  <si>
     <t>SBA1230821055940</t>
   </si>
   <si>
@@ -703,13 +669,6 @@
     <t>SBA1230821055936</t>
   </si>
   <si>
-    <t>SCB5230821055957</t>
-  </si>
-  <si>
-    <t>SCB5230821055958
-SCB1230808130129</t>
-  </si>
-  <si>
     <t>SGW5230821060011</t>
   </si>
   <si>
@@ -720,9 +679,6 @@
   </si>
   <si>
     <t>CARTAJ07</t>
-  </si>
-  <si>
-    <t>CARTAJ05</t>
   </si>
   <si>
     <t>SEB1230821060020</t>
@@ -787,6 +743,66 @@
   <si>
     <t xml:space="preserve">
 MGC4230821060053</t>
+  </si>
+  <si>
+    <t>SBA1230821055938</t>
+  </si>
+  <si>
+    <t>TOTEAJ51</t>
+  </si>
+  <si>
+    <t>TOTEAJ52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTAJ51                      </t>
+  </si>
+  <si>
+    <t>SEB8230821141033</t>
+  </si>
+  <si>
+    <t>SEB8230821141029</t>
+  </si>
+  <si>
+    <t>TOTEAJ53</t>
+  </si>
+  <si>
+    <t>TOTEAJ54</t>
+  </si>
+  <si>
+    <t>CARTEAJ53</t>
+  </si>
+  <si>
+    <t>SBA1230821140549</t>
+  </si>
+  <si>
+    <t>SBA1230821140544</t>
+  </si>
+  <si>
+    <t>TOTEAJ55</t>
+  </si>
+  <si>
+    <t>TOTEAJ56</t>
+  </si>
+  <si>
+    <t>CARTAJ55</t>
+  </si>
+  <si>
+    <t>SB202308210003</t>
+  </si>
+  <si>
+    <t>SB202308210004</t>
+  </si>
+  <si>
+    <t>SGC202321080001</t>
+  </si>
+  <si>
+    <t>SGC202321080002</t>
+  </si>
+  <si>
+    <t>TOTEAJ57</t>
+  </si>
+  <si>
+    <t>CARTAJ57</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1328,10 +1344,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1355,13 +1371,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1458,10 +1474,10 @@
     </row>
     <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1485,16 +1501,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1517,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1591,10 +1607,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1618,16 +1634,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1724,10 +1740,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1751,16 +1767,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1856,10 +1872,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1883,22 +1899,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>170</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1993,10 +2009,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2020,16 +2036,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2130,10 +2146,10 @@
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2157,13 +2173,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2268,10 +2284,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2295,13 +2311,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2406,10 +2422,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2433,13 +2449,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2547,10 +2563,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2574,13 +2590,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2616,8 +2632,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2691,10 +2707,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2718,16 +2734,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2750,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2818,10 +2834,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2845,13 +2861,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2874,7 +2890,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2935,12 +2951,12 @@
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2964,16 +2980,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2999,8 +3015,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" activeCellId="1" sqref="A2:B2 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3077,10 +3093,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3104,16 +3120,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3195,10 +3211,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3222,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3281,10 +3297,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3327,7 +3343,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3374,7 +3390,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3455,10 +3471,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3482,13 +3498,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3533,10 +3549,10 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3559,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3567,10 +3583,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3709,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3779,10 +3795,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3806,13 +3822,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5201,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5273,10 +5289,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5300,13 +5316,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5329,7 +5345,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5399,10 +5415,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5426,13 +5442,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5455,7 +5471,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5525,10 +5541,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5552,13 +5568,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5580,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5652,10 +5668,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5679,13 +5695,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5783,10 +5799,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5810,16 +5826,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5923,10 +5939,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5950,22 +5966,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD2DAF4-EC5D-4C19-BD92-8AF641305F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79138655-6965-49F5-AF67-C9EB219EE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -651,12 +651,6 @@
     <t>CARTAJ02</t>
   </si>
   <si>
-    <t>SBA5230821055950</t>
-  </si>
-  <si>
-    <t>SBA5230821055949</t>
-  </si>
-  <si>
     <t>SBA5230821055941</t>
   </si>
   <si>
@@ -664,15 +658,6 @@
   </si>
   <si>
     <t>CARTAJ04</t>
-  </si>
-  <si>
-    <t>SBA1230821055936</t>
-  </si>
-  <si>
-    <t>SGW5230821060011</t>
-  </si>
-  <si>
-    <t>SGW5230821060010</t>
   </si>
   <si>
     <t>TOTEAJ07</t>
@@ -745,9 +730,6 @@
 MGC4230821060053</t>
   </si>
   <si>
-    <t>SBA1230821055938</t>
-  </si>
-  <si>
     <t>TOTEAJ51</t>
   </si>
   <si>
@@ -803,6 +785,24 @@
   </si>
   <si>
     <t>CARTAJ57</t>
+  </si>
+  <si>
+    <t>SB202308210006</t>
+  </si>
+  <si>
+    <t>SB202308210005</t>
+  </si>
+  <si>
+    <t>SGW5230821124320</t>
+  </si>
+  <si>
+    <t>SGW5230821124321</t>
+  </si>
+  <si>
+    <t>SBA1230821124252</t>
+  </si>
+  <si>
+    <t>SBA1230821124251</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1501,16 +1501,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2734,16 +2734,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2766,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2980,16 +2980,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3120,16 +3120,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -5217,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5322,7 +5322,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5442,13 +5442,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5471,7 +5471,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5541,10 +5541,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5568,13 +5568,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5596,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5695,13 +5695,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5826,16 +5826,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5966,22 +5966,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79138655-6965-49F5-AF67-C9EB219EE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB37BCC3-CEDC-44ED-89CB-F27FD733B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -467,12 +467,6 @@
     <t>MCB5230724102223</t>
   </si>
   <si>
-    <t>SGC5230724102139</t>
-  </si>
-  <si>
-    <t>SGC5230724102137</t>
-  </si>
-  <si>
     <t>KILL0520230006</t>
   </si>
   <si>
@@ -521,46 +515,12 @@
     <t>CARTAE79</t>
   </si>
   <si>
-    <t>SBA5230808130119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA5230808130117</t>
-  </si>
-  <si>
     <t>SCB1230808130432</t>
   </si>
   <si>
     <t>SCB1230808130430</t>
   </si>
   <si>
-    <t>MEB5230808130333</t>
-  </si>
-  <si>
-    <t>MEB5230808130331</t>
-  </si>
-  <si>
-    <t>SCB1230808130428</t>
-  </si>
-  <si>
-    <t>SCB1230808130426</t>
-  </si>
-  <si>
-    <t>SGW5230808113437</t>
-  </si>
-  <si>
-    <t>SGW5230808113439</t>
-  </si>
-  <si>
-    <t>TOTEAH17</t>
-  </si>
-  <si>
-    <t>TOTEAH18</t>
-  </si>
-  <si>
-    <t>CARTAH17</t>
-  </si>
-  <si>
     <t>TOTEH19</t>
   </si>
   <si>
@@ -570,60 +530,6 @@
     <t>CARTAH20</t>
   </si>
   <si>
-    <t>MDCpk27230001</t>
-  </si>
-  <si>
-    <t>MDCpk27230002</t>
-  </si>
-  <si>
-    <t>TOTEAH21</t>
-  </si>
-  <si>
-    <t>TOTEAH22</t>
-  </si>
-  <si>
-    <t>TOTEAH23</t>
-  </si>
-  <si>
-    <t>CARTAH21</t>
-  </si>
-  <si>
-    <t>CARTAH22</t>
-  </si>
-  <si>
-    <t>TOTEAH24</t>
-  </si>
-  <si>
-    <t>TOTEAH25</t>
-  </si>
-  <si>
-    <t>CARTAH25</t>
-  </si>
-  <si>
-    <t>TOTEAH26</t>
-  </si>
-  <si>
-    <t>CARTAH26</t>
-  </si>
-  <si>
-    <t>TOTEAH27</t>
-  </si>
-  <si>
-    <t>CARTAH27</t>
-  </si>
-  <si>
-    <t>TOTEAH28</t>
-  </si>
-  <si>
-    <t>CARTAH28</t>
-  </si>
-  <si>
-    <t>TOTEAH29</t>
-  </si>
-  <si>
-    <t>CARTAH29</t>
-  </si>
-  <si>
     <t>TOTEAJ01</t>
   </si>
   <si>
@@ -720,61 +626,9 @@
     <t>TOTEAJ16</t>
   </si>
   <si>
-    <t>TOTEJH15</t>
-  </si>
-  <si>
     <t>MGC4230821060052</t>
   </si>
   <si>
-    <t xml:space="preserve">
-MGC4230821060053</t>
-  </si>
-  <si>
-    <t>TOTEAJ51</t>
-  </si>
-  <si>
-    <t>TOTEAJ52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTAJ51                      </t>
-  </si>
-  <si>
-    <t>SEB8230821141033</t>
-  </si>
-  <si>
-    <t>SEB8230821141029</t>
-  </si>
-  <si>
-    <t>TOTEAJ53</t>
-  </si>
-  <si>
-    <t>TOTEAJ54</t>
-  </si>
-  <si>
-    <t>CARTEAJ53</t>
-  </si>
-  <si>
-    <t>SBA1230821140549</t>
-  </si>
-  <si>
-    <t>SBA1230821140544</t>
-  </si>
-  <si>
-    <t>TOTEAJ55</t>
-  </si>
-  <si>
-    <t>TOTEAJ56</t>
-  </si>
-  <si>
-    <t>CARTAJ55</t>
-  </si>
-  <si>
-    <t>SB202308210003</t>
-  </si>
-  <si>
-    <t>SB202308210004</t>
-  </si>
-  <si>
     <t>SGC202321080001</t>
   </si>
   <si>
@@ -803,6 +657,150 @@
   </si>
   <si>
     <t>SBA1230821124251</t>
+  </si>
+  <si>
+    <t>SB202308210001</t>
+  </si>
+  <si>
+    <t>SB202308210002</t>
+  </si>
+  <si>
+    <t>TOTEAJ58</t>
+  </si>
+  <si>
+    <t>TOTEAJ59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTAJ59                   </t>
+  </si>
+  <si>
+    <t>TOTEAJ73</t>
+  </si>
+  <si>
+    <t>TOTEAJ74</t>
+  </si>
+  <si>
+    <t>SEB5230821141026</t>
+  </si>
+  <si>
+    <t>SEB5230821141024</t>
+  </si>
+  <si>
+    <t>CARTAJ73</t>
+  </si>
+  <si>
+    <t>MGC4230821060053</t>
+  </si>
+  <si>
+    <t>TOTEAJ15</t>
+  </si>
+  <si>
+    <t>TOTEAJ17</t>
+  </si>
+  <si>
+    <t>TOTEAJ18</t>
+  </si>
+  <si>
+    <t>CARTAJ17</t>
+  </si>
+  <si>
+    <t>MBC08020230022</t>
+  </si>
+  <si>
+    <t>MBC08020230021</t>
+  </si>
+  <si>
+    <t>TOTEAJ31</t>
+  </si>
+  <si>
+    <t>TOTEAJ32</t>
+  </si>
+  <si>
+    <t>TOTEAJ33</t>
+  </si>
+  <si>
+    <t>CARTAJ31</t>
+  </si>
+  <si>
+    <t>CARTAJ32</t>
+  </si>
+  <si>
+    <t>MEB4230822111404</t>
+  </si>
+  <si>
+    <t>MEB4230822111403</t>
+  </si>
+  <si>
+    <t>TOTEAJ35</t>
+  </si>
+  <si>
+    <t>TOTEAJ34</t>
+  </si>
+  <si>
+    <t>CARTAJ35</t>
+  </si>
+  <si>
+    <t>SBA1230822111307</t>
+  </si>
+  <si>
+    <t>SBA1230822111308</t>
+  </si>
+  <si>
+    <t>TOTEAJ36</t>
+  </si>
+  <si>
+    <t>CARTAJ36</t>
+  </si>
+  <si>
+    <t>TOTEAJ37</t>
+  </si>
+  <si>
+    <t>CARTAJ37</t>
+  </si>
+  <si>
+    <t>SCB1230822111426</t>
+  </si>
+  <si>
+    <t>SCB1230822111425</t>
+  </si>
+  <si>
+    <t>SGW5230822111337</t>
+  </si>
+  <si>
+    <t>SGW5230822111336</t>
+  </si>
+  <si>
+    <t>TOTEAJ38</t>
+  </si>
+  <si>
+    <t>CARTAJ38</t>
+  </si>
+  <si>
+    <t>SGC202321080005</t>
+  </si>
+  <si>
+    <t>SGC202321080006</t>
+  </si>
+  <si>
+    <t>TOTEAJ39</t>
+  </si>
+  <si>
+    <t>CARTAJ39</t>
+  </si>
+  <si>
+    <t>SCB1230822111320</t>
+  </si>
+  <si>
+    <t>SCB1230822111321</t>
+  </si>
+  <si>
+    <t>TOTEAJ99</t>
+  </si>
+  <si>
+    <t>TOTEAJ98</t>
+  </si>
+  <si>
+    <t>CARTAJ98</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1342,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1371,13 +1369,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1399,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,12 +1470,12 @@
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1501,16 +1499,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1533,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,10 +1605,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1634,16 +1632,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1666,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,16 +1765,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1799,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1872,10 +1870,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1899,22 +1897,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1936,7 +1934,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2009,10 +2007,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2036,16 +2034,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2068,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2144,12 +2142,12 @@
       </c>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2173,13 +2171,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2208,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2284,10 +2282,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2311,13 +2309,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2346,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2422,10 +2420,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2449,13 +2447,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2486,8 +2484,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2563,10 +2561,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2590,13 +2588,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2632,8 +2630,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2707,10 +2705,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2734,16 +2732,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2767,7 +2765,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2834,10 +2832,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2861,13 +2859,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2889,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2953,10 +2951,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2980,16 +2978,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3015,8 +3013,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" activeCellId="1" sqref="A2:B2 D11"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3093,10 +3091,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3120,16 +3118,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3211,10 +3209,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3238,13 +3236,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3297,10 +3295,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3343,7 +3341,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3390,7 +3388,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3471,10 +3469,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3498,13 +3496,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3549,10 +3547,10 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3575,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3583,10 +3581,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3795,10 +3793,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3822,13 +3820,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5289,10 +5287,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5316,13 +5314,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5415,10 +5413,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5442,13 +5440,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5541,10 +5539,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5568,13 +5566,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5596,7 +5594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -5668,10 +5666,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5695,13 +5693,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5723,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5799,10 +5797,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5826,16 +5824,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5859,7 +5857,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5939,10 +5937,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5966,22 +5964,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB37BCC3-CEDC-44ED-89CB-F27FD733B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C4725-3221-49AD-ABAB-7CDD878C892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -704,27 +704,6 @@
     <t>CARTAJ17</t>
   </si>
   <si>
-    <t>MBC08020230022</t>
-  </si>
-  <si>
-    <t>MBC08020230021</t>
-  </si>
-  <si>
-    <t>TOTEAJ31</t>
-  </si>
-  <si>
-    <t>TOTEAJ32</t>
-  </si>
-  <si>
-    <t>TOTEAJ33</t>
-  </si>
-  <si>
-    <t>CARTAJ31</t>
-  </si>
-  <si>
-    <t>CARTAJ32</t>
-  </si>
-  <si>
     <t>MEB4230822111404</t>
   </si>
   <si>
@@ -740,18 +719,6 @@
     <t>CARTAJ35</t>
   </si>
   <si>
-    <t>SBA1230822111307</t>
-  </si>
-  <si>
-    <t>SBA1230822111308</t>
-  </si>
-  <si>
-    <t>TOTEAJ36</t>
-  </si>
-  <si>
-    <t>CARTAJ36</t>
-  </si>
-  <si>
     <t>TOTEAJ37</t>
   </si>
   <si>
@@ -764,30 +731,6 @@
     <t>SCB1230822111425</t>
   </si>
   <si>
-    <t>SGW5230822111337</t>
-  </si>
-  <si>
-    <t>SGW5230822111336</t>
-  </si>
-  <si>
-    <t>TOTEAJ38</t>
-  </si>
-  <si>
-    <t>CARTAJ38</t>
-  </si>
-  <si>
-    <t>SGC202321080005</t>
-  </si>
-  <si>
-    <t>SGC202321080006</t>
-  </si>
-  <si>
-    <t>TOTEAJ39</t>
-  </si>
-  <si>
-    <t>CARTAJ39</t>
-  </si>
-  <si>
     <t>SCB1230822111320</t>
   </si>
   <si>
@@ -801,6 +744,63 @@
   </si>
   <si>
     <t>CARTAJ98</t>
+  </si>
+  <si>
+    <t>TOTEAJ40</t>
+  </si>
+  <si>
+    <t>CARTAJ41</t>
+  </si>
+  <si>
+    <t>SBA1230821140327</t>
+  </si>
+  <si>
+    <t>SBA1230821140324</t>
+  </si>
+  <si>
+    <t>TOTEAJ43</t>
+  </si>
+  <si>
+    <t>CARTAJ43</t>
+  </si>
+  <si>
+    <t>TOTEAJ46</t>
+  </si>
+  <si>
+    <t>CARTAJ46</t>
+  </si>
+  <si>
+    <t>SGC202321080004</t>
+  </si>
+  <si>
+    <t>SGC202321080003</t>
+  </si>
+  <si>
+    <t>SGW5230823143759</t>
+  </si>
+  <si>
+    <t>SGW5230823143758</t>
+  </si>
+  <si>
+    <t>MB2407230001</t>
+  </si>
+  <si>
+    <t>MB2407230002</t>
+  </si>
+  <si>
+    <t>TOTEAJ90</t>
+  </si>
+  <si>
+    <t>TOTEAJ91</t>
+  </si>
+  <si>
+    <t>TOTEAJ92</t>
+  </si>
+  <si>
+    <t>CARTAJ91</t>
+  </si>
+  <si>
+    <t>CARTAJ92</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1897,22 +1897,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1926,6 +1926,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2007,10 +2008,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2034,16 +2035,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2066,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2144,10 +2145,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2282,10 +2283,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2309,13 +2310,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2344,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2420,10 +2421,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2447,13 +2448,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2484,8 +2485,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2561,10 +2562,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2588,13 +2589,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2887,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -2951,10 +2952,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2978,16 +2979,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C4725-3221-49AD-ABAB-7CDD878C892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07013367-7CD8-4E9B-BF5E-B0E1627F2A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -515,12 +515,6 @@
     <t>CARTAE79</t>
   </si>
   <si>
-    <t>SCB1230808130432</t>
-  </si>
-  <si>
-    <t>SCB1230808130430</t>
-  </si>
-  <si>
     <t>TOTEH19</t>
   </si>
   <si>
@@ -593,12 +587,6 @@
     <t>TOTEAJ10</t>
   </si>
   <si>
-    <t>MEB4230821060038</t>
-  </si>
-  <si>
-    <t>MEB4230821060037</t>
-  </si>
-  <si>
     <t>CARTAJ11</t>
   </si>
   <si>
@@ -620,15 +608,6 @@
     <t>MGW4230821060045</t>
   </si>
   <si>
-    <t>CARTAJ15</t>
-  </si>
-  <si>
-    <t>TOTEAJ16</t>
-  </si>
-  <si>
-    <t>MGC4230821060052</t>
-  </si>
-  <si>
     <t>SGC202321080001</t>
   </si>
   <si>
@@ -689,21 +668,6 @@
     <t>CARTAJ73</t>
   </si>
   <si>
-    <t>MGC4230821060053</t>
-  </si>
-  <si>
-    <t>TOTEAJ15</t>
-  </si>
-  <si>
-    <t>TOTEAJ17</t>
-  </si>
-  <si>
-    <t>TOTEAJ18</t>
-  </si>
-  <si>
-    <t>CARTAJ17</t>
-  </si>
-  <si>
     <t>MEB4230822111404</t>
   </si>
   <si>
@@ -770,24 +734,12 @@
     <t>CARTAJ46</t>
   </si>
   <si>
-    <t>SGC202321080004</t>
-  </si>
-  <si>
-    <t>SGC202321080003</t>
-  </si>
-  <si>
     <t>SGW5230823143759</t>
   </si>
   <si>
     <t>SGW5230823143758</t>
   </si>
   <si>
-    <t>MB2407230001</t>
-  </si>
-  <si>
-    <t>MB2407230002</t>
-  </si>
-  <si>
     <t>TOTEAJ90</t>
   </si>
   <si>
@@ -801,6 +753,54 @@
   </si>
   <si>
     <t>CARTAJ92</t>
+  </si>
+  <si>
+    <t>SGW230823001</t>
+  </si>
+  <si>
+    <t>SGW230823002</t>
+  </si>
+  <si>
+    <t>MBC2308230016</t>
+  </si>
+  <si>
+    <t>MBC2308230015</t>
+  </si>
+  <si>
+    <t>MBC2308230020</t>
+  </si>
+  <si>
+    <t>MBC2308230019</t>
+  </si>
+  <si>
+    <t>TOTEAJ94</t>
+  </si>
+  <si>
+    <t>TOTEAJ95</t>
+  </si>
+  <si>
+    <t>CARTAJ94</t>
+  </si>
+  <si>
+    <t>MGC23240800014</t>
+  </si>
+  <si>
+    <t>MGC23240800013</t>
+  </si>
+  <si>
+    <t>TOTEAJ96</t>
+  </si>
+  <si>
+    <t>TOTEAJ97</t>
+  </si>
+  <si>
+    <t>CARTAJ97</t>
+  </si>
+  <si>
+    <t>EXPICK23824004</t>
+  </si>
+  <si>
+    <t>EXPICK23824003</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1369,13 +1369,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1499,16 +1499,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1632,16 +1632,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1765,16 +1765,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1897,22 +1897,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2035,16 +2035,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2172,13 +2172,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2310,13 +2310,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2448,13 +2448,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2485,8 +2485,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2589,13 +2589,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2860,13 +2860,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2979,16 +2979,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3119,16 +3119,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3794,10 +3794,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3821,13 +3821,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5288,10 +5288,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5315,13 +5315,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5441,13 +5441,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5540,10 +5540,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5567,13 +5567,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5694,13 +5694,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5722,8 +5722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5825,16 +5825,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5965,22 +5965,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\Henderson 2017-QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F32F256-8C76-41AA-BB6A-370430ADE59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960763B-E4A9-4C87-9936-4BBAF043B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="244">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -191,6 +191,12 @@
     <t>3/01/2022</t>
   </si>
   <si>
+    <t>CARTFA21</t>
+  </si>
+  <si>
+    <t>TOTEFA21</t>
+  </si>
+  <si>
     <t>AAMGCTEST20</t>
   </si>
   <si>
@@ -200,6 +206,18 @@
     <t>BBMGCTEST15</t>
   </si>
   <si>
+    <t>TOTEFA34</t>
+  </si>
+  <si>
+    <t>TOTEFA35</t>
+  </si>
+  <si>
+    <t>TOTEFA36</t>
+  </si>
+  <si>
+    <t>CARTZA34</t>
+  </si>
+  <si>
     <t>ASMTESTDRPT0300</t>
   </si>
   <si>
@@ -218,6 +236,12 @@
     <t>test7112024012</t>
   </si>
   <si>
+    <t>TOTEGA21</t>
+  </si>
+  <si>
+    <t>CARTGA21</t>
+  </si>
+  <si>
     <t>TOTKEY4</t>
   </si>
   <si>
@@ -233,6 +257,9 @@
     <t>CartUserKey</t>
   </si>
   <si>
+    <t>SEPA2022100302</t>
+  </si>
+  <si>
     <t>CompleteSpecs1</t>
   </si>
   <si>
@@ -305,19 +332,97 @@
     <t>CARTAZ01</t>
   </si>
   <si>
+    <t>SBLSGD221212183259</t>
+  </si>
+  <si>
+    <t>SBDHEP221212183256</t>
+  </si>
+  <si>
+    <t>BMGC22120621</t>
+  </si>
+  <si>
+    <t>BMGC22120622</t>
+  </si>
+  <si>
+    <t>TOTEZA01</t>
+  </si>
+  <si>
+    <t>TOTEZA02</t>
+  </si>
+  <si>
+    <t>TOTEZA03</t>
+  </si>
+  <si>
+    <t>TOTEZA04</t>
+  </si>
+  <si>
     <t>CARTZA01</t>
   </si>
   <si>
+    <t>CARTZA02</t>
+  </si>
+  <si>
+    <t>MGWO221206215003</t>
+  </si>
+  <si>
+    <t>MGWO221206215040</t>
+  </si>
+  <si>
+    <t>TOTEZA11</t>
+  </si>
+  <si>
+    <t>TOTEZA12</t>
+  </si>
+  <si>
+    <t>TOTEZA13</t>
+  </si>
+  <si>
+    <t>TOTEZA14</t>
+  </si>
+  <si>
+    <t>CARTZA11</t>
+  </si>
+  <si>
+    <t>CARTZA12</t>
+  </si>
+  <si>
     <t>SBC221207000040</t>
   </si>
   <si>
     <t>SBC221207000041</t>
   </si>
   <si>
-    <t>MCHS00103C03</t>
-  </si>
-  <si>
-    <t>MCHS00103C04</t>
+    <t>TOTEZA28</t>
+  </si>
+  <si>
+    <t>TOTEZA29</t>
+  </si>
+  <si>
+    <t>CARTZA28</t>
+  </si>
+  <si>
+    <t>MGWO221206215305</t>
+  </si>
+  <si>
+    <t>MGWO221206215203</t>
+  </si>
+  <si>
+    <t>TOTEPL21</t>
+  </si>
+  <si>
+    <t>TOTEPL22</t>
+  </si>
+  <si>
+    <t>TOTEPL23</t>
+  </si>
+  <si>
+    <t>TOTEPL24</t>
+  </si>
+  <si>
+    <t>CARTPL15</t>
+  </si>
+  <si>
+    <t>CARTPL16</t>
   </si>
   <si>
     <t>CARTKEY1</t>
@@ -326,6 +431,12 @@
     <t>CARTKEY2</t>
   </si>
   <si>
+    <t>MCB5230724102225</t>
+  </si>
+  <si>
+    <t>MCB5230724102223</t>
+  </si>
+  <si>
     <t>KILL0520230006</t>
   </si>
   <si>
@@ -338,499 +449,370 @@
     <t>OnTrac</t>
   </si>
   <si>
-    <t>07/25/2023</t>
-  </si>
-  <si>
-    <t>SB202308210001</t>
-  </si>
-  <si>
-    <t>SB202308210002</t>
-  </si>
-  <si>
-    <t>SEB5230821141026</t>
-  </si>
-  <si>
-    <t>SEB5230821141024</t>
-  </si>
-  <si>
-    <t>SCB1230822111320</t>
-  </si>
-  <si>
-    <t>SCB1230822111321</t>
+    <t>TOTEH19</t>
+  </si>
+  <si>
+    <t>TOTEAH20</t>
+  </si>
+  <si>
+    <t>CARTAH20</t>
+  </si>
+  <si>
+    <t>MGW4230821060046</t>
+  </si>
+  <si>
+    <t>MGW4230821060045</t>
+  </si>
+  <si>
+    <t>MGC23240800014</t>
+  </si>
+  <si>
+    <t>MGC23240800013</t>
+  </si>
+  <si>
+    <t>EXPICK23824004</t>
+  </si>
+  <si>
+    <t>EXPICK23824003</t>
+  </si>
+  <si>
+    <t>MCHS00101A04</t>
+  </si>
+  <si>
+    <t>MCHS00102A02</t>
+  </si>
+  <si>
+    <t>MCB1230901115904</t>
+  </si>
+  <si>
+    <t>MCB1230901115906</t>
+  </si>
+  <si>
+    <t>TOTEBJ05</t>
+  </si>
+  <si>
+    <t>TOTEBJ06</t>
+  </si>
+  <si>
+    <t>CARTBJ03</t>
+  </si>
+  <si>
+    <t>CARTBJ04</t>
+  </si>
+  <si>
+    <t>TOTEBJ07</t>
+  </si>
+  <si>
+    <t>TOTEBJ08</t>
+  </si>
+  <si>
+    <t>MCB1230831105323</t>
+  </si>
+  <si>
+    <t>MCB1230831105321</t>
+  </si>
+  <si>
+    <t>MCB1230831105314</t>
+  </si>
+  <si>
+    <t>MCB1230831105315</t>
+  </si>
+  <si>
+    <t>TOTEBJ17</t>
+  </si>
+  <si>
+    <t>CARTBJ17</t>
+  </si>
+  <si>
+    <t>SBA1230905112945</t>
+  </si>
+  <si>
+    <t>SBA1230905112943</t>
+  </si>
+  <si>
+    <t>SB202304090019</t>
+  </si>
+  <si>
+    <t>EXP0109230002</t>
+  </si>
+  <si>
+    <t>MGWCS20230109002</t>
+  </si>
+  <si>
+    <t>SBC240824002</t>
+  </si>
+  <si>
+    <t>TOTEBJ18</t>
+  </si>
+  <si>
+    <t>CARTBJ18</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>USSG230904113223</t>
+  </si>
+  <si>
+    <t>USSG230904113225</t>
+  </si>
+  <si>
+    <t>EXPICK00623003</t>
+  </si>
+  <si>
+    <t>EXPICK00623004</t>
+  </si>
+  <si>
+    <t>TOTCJ01</t>
+  </si>
+  <si>
+    <t>CARTCJ01</t>
+  </si>
+  <si>
+    <t>TOTECJ02</t>
+  </si>
+  <si>
+    <t>CARTCJ02</t>
+  </si>
+  <si>
+    <t>TOTECJ03</t>
+  </si>
+  <si>
+    <t>CARTCJ03</t>
+  </si>
+  <si>
+    <t>TOTECJ04</t>
+  </si>
+  <si>
+    <t>CARTCJ04</t>
+  </si>
+  <si>
+    <t>TOTECJ05</t>
+  </si>
+  <si>
+    <t>CARTCJ05</t>
+  </si>
+  <si>
+    <t>TOTECJ06</t>
+  </si>
+  <si>
+    <t>CARTCJ06</t>
+  </si>
+  <si>
+    <t>TOTECJ07</t>
+  </si>
+  <si>
+    <t>CARTCJ07</t>
+  </si>
+  <si>
+    <t>TOTECJ08</t>
+  </si>
+  <si>
+    <t>TOTECJ09</t>
+  </si>
+  <si>
+    <t>CARTCJ09</t>
+  </si>
+  <si>
+    <t>CARTCJ10</t>
+  </si>
+  <si>
+    <t>TOTECJ10</t>
+  </si>
+  <si>
+    <t>TOTECJ11</t>
+  </si>
+  <si>
+    <t>TOTECJ12</t>
+  </si>
+  <si>
+    <t>TOTECJ13</t>
+  </si>
+  <si>
+    <t>TOTECJ14</t>
+  </si>
+  <si>
+    <t>TOTECJ15</t>
+  </si>
+  <si>
+    <t>CARTCJ15</t>
+  </si>
+  <si>
+    <t>TOTECJ16</t>
+  </si>
+  <si>
+    <t>TOTECJ17</t>
+  </si>
+  <si>
+    <t>CARTCJ17</t>
+  </si>
+  <si>
+    <t>TOTECJ18</t>
+  </si>
+  <si>
+    <t>TOTECJ19</t>
+  </si>
+  <si>
+    <t>TOTECJ20</t>
+  </si>
+  <si>
+    <t>CARTCJ18</t>
+  </si>
+  <si>
+    <t>CARTCJ19</t>
+  </si>
+  <si>
+    <t>TOTECJ21</t>
+  </si>
+  <si>
+    <t>TOTECJ22</t>
+  </si>
+  <si>
+    <t>CARTCJ22</t>
+  </si>
+  <si>
+    <t>TOTECJ23</t>
+  </si>
+  <si>
+    <t>CARTCJ23</t>
+  </si>
+  <si>
+    <t>TOTECJ24</t>
+  </si>
+  <si>
+    <t>CARTCJ24</t>
+  </si>
+  <si>
+    <t>TOTECJ25</t>
+  </si>
+  <si>
+    <t>CARTCJ25</t>
+  </si>
+  <si>
+    <t>TOTECJ27</t>
+  </si>
+  <si>
+    <t>CARTCJ27</t>
+  </si>
+  <si>
+    <t>TOTECJ28</t>
+  </si>
+  <si>
+    <t>TOTECJ29</t>
+  </si>
+  <si>
+    <t>CARTCJ29</t>
+  </si>
+  <si>
+    <t>TOTECJ30</t>
+  </si>
+  <si>
+    <t>TOTECJ31</t>
+  </si>
+  <si>
+    <t>CARTCJ31</t>
+  </si>
+  <si>
+    <t>TOTECJ32</t>
+  </si>
+  <si>
+    <t>TOTECJ33</t>
+  </si>
+  <si>
+    <t>CARTCJ33</t>
+  </si>
+  <si>
+    <t>SBA2230914051722</t>
+  </si>
+  <si>
+    <t>SBA2230914051721</t>
+  </si>
+  <si>
+    <t>SBA1230914051719</t>
+  </si>
+  <si>
+    <t>SBA1230914051718</t>
   </si>
   <si>
     <t xml:space="preserve">
-SCB2230911075154</t>
+SBA1230914051717</t>
   </si>
   <si>
     <t xml:space="preserve">
-SCB2230911075153</t>
-  </si>
-  <si>
-    <t>TOTEXQ01</t>
-  </si>
-  <si>
-    <t>CARTXQ01</t>
-  </si>
-  <si>
-    <t>SEB3230911075217</t>
-  </si>
-  <si>
-    <t>SEB3230911075216</t>
-  </si>
-  <si>
-    <t>TOTEXQ02</t>
-  </si>
-  <si>
-    <t>CARTXQ02</t>
-  </si>
-  <si>
-    <t>SGW1230911075201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SGW1230911075202</t>
-  </si>
-  <si>
-    <t>TOTEXQ03</t>
-  </si>
-  <si>
-    <t>CARTXQ03</t>
-  </si>
-  <si>
-    <t>SBA4230911075146</t>
-  </si>
-  <si>
-    <t>SBA4230911075145</t>
-  </si>
-  <si>
-    <t>TOTEXQ04</t>
-  </si>
-  <si>
-    <t>CARTXQ04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA2230911075140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA2230911075139</t>
-  </si>
-  <si>
-    <t>TOTEXQ05</t>
-  </si>
-  <si>
-    <t>CARTXQ05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA2230911075138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA1230911075137</t>
-  </si>
-  <si>
-    <t>TOTEXQ06</t>
-  </si>
-  <si>
-    <t>CARTXQ06</t>
-  </si>
-  <si>
-    <t>SGC1230911075209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SGC1230911075208</t>
-  </si>
-  <si>
-    <t>TOTEXQ07</t>
-  </si>
-  <si>
-    <t>CARTXQ07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC2309060016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC2309060012</t>
-  </si>
-  <si>
-    <t>TOTEXQ08</t>
-  </si>
-  <si>
-    <t>TOTEXQ09</t>
-  </si>
-  <si>
-    <t>CARTXQ08</t>
-  </si>
-  <si>
-    <t>MBC23090600112</t>
-  </si>
-  <si>
-    <t>MBC23090600111</t>
-  </si>
-  <si>
-    <t>TOTEXQ10</t>
-  </si>
-  <si>
-    <t>TOTEXQ11</t>
-  </si>
-  <si>
-    <t>CARTXQ10</t>
-  </si>
-  <si>
-    <t>MEB5230823143830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MEB5230823143829</t>
-  </si>
-  <si>
-    <t>TOTEXQ12</t>
-  </si>
-  <si>
-    <t>TOTEXQ13</t>
-  </si>
-  <si>
-    <t>CARTXQ11</t>
-  </si>
-  <si>
-    <t>MGW230823006</t>
-  </si>
-  <si>
-    <t>MGW230823005</t>
-  </si>
-  <si>
-    <t>CARTXQ12</t>
-  </si>
-  <si>
-    <t>TOTEXQ14</t>
-  </si>
-  <si>
-    <t>TOTEXQ15</t>
-  </si>
-  <si>
-    <t>TOTEXQ16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MEB5230823143828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MEB4230823143827</t>
-  </si>
-  <si>
-    <t>TOTEXQ17</t>
-  </si>
-  <si>
-    <t>TOTEXQ18</t>
-  </si>
-  <si>
-    <t>CARTXQ13</t>
-  </si>
-  <si>
-    <t>CARTXQ09</t>
-  </si>
-  <si>
-    <t>TOTEXQ19</t>
-  </si>
-  <si>
-    <t>TOTEXQ20</t>
-  </si>
-  <si>
-    <t>TOTEXQ21</t>
-  </si>
-  <si>
-    <t>CARTXQ14</t>
-  </si>
-  <si>
-    <t>TOTEXQ22</t>
-  </si>
-  <si>
-    <t>TOTEXQ23</t>
-  </si>
-  <si>
-    <t>CARTXQ15</t>
-  </si>
-  <si>
-    <t>TOTEXQ24</t>
-  </si>
-  <si>
-    <t>CARTXQ16</t>
-  </si>
-  <si>
-    <t>TOTEXQ25</t>
-  </si>
-  <si>
-    <t>CARTXQ17</t>
-  </si>
-  <si>
-    <t>TOTEXQ26</t>
-  </si>
-  <si>
-    <t>CARTXQ18</t>
-  </si>
-  <si>
-    <t>CARTXQ19</t>
-  </si>
-  <si>
-    <t>TOTEXQ27</t>
-  </si>
-  <si>
-    <t>TOTEXQ28</t>
-  </si>
-  <si>
-    <t>TOTEXQ29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTXQ20 </t>
-  </si>
-  <si>
-    <t>TOTEXQ30</t>
-  </si>
-  <si>
-    <t>TOTEXQ31</t>
-  </si>
-  <si>
-    <t>CARTXQ21</t>
-  </si>
-  <si>
-    <t>TOTEXQ32</t>
-  </si>
-  <si>
-    <t>TOTEXQ33</t>
-  </si>
-  <si>
-    <t>CARTXQ22</t>
-  </si>
-  <si>
-    <t>TOTEXQ34</t>
-  </si>
-  <si>
-    <t>CARTXQ23</t>
-  </si>
-  <si>
-    <t>TOTEXQ35</t>
-  </si>
-  <si>
-    <t>CARTXQ24</t>
-  </si>
-  <si>
-    <t>TOTEXQ36</t>
-  </si>
-  <si>
-    <t>CARTXQ25</t>
-  </si>
-  <si>
-    <t>TOTEXQ37</t>
-  </si>
-  <si>
-    <t>TOTEXQ38</t>
-  </si>
-  <si>
-    <t>CARTXQ26</t>
-  </si>
-  <si>
-    <t>TOTEXQ39</t>
-  </si>
-  <si>
-    <t>TOTEXQ40</t>
-  </si>
-  <si>
-    <t>TOTEXQ41</t>
-  </si>
-  <si>
-    <t>TOTEXQ42</t>
-  </si>
-  <si>
-    <t>CARTXQ27</t>
-  </si>
-  <si>
-    <t>CARTXQ28</t>
-  </si>
-  <si>
-    <t>CARTXQ29</t>
-  </si>
-  <si>
-    <t>TOTEXQ43</t>
-  </si>
-  <si>
-    <t>TOTEXQ44</t>
-  </si>
-  <si>
-    <t>TOTEXQ45</t>
-  </si>
-  <si>
-    <t>TOTEXQ46</t>
-  </si>
-  <si>
-    <t>TOTEXQ47</t>
-  </si>
-  <si>
-    <t>TOTEXQ48</t>
-  </si>
-  <si>
-    <t>TOTEXQ49</t>
-  </si>
-  <si>
-    <t>CARTXQ30</t>
-  </si>
-  <si>
-    <t>TOTEXQ50</t>
-  </si>
-  <si>
-    <t>TOTEXQ51</t>
-  </si>
-  <si>
-    <t>TOTEXQ52</t>
-  </si>
-  <si>
-    <t>TOTEXQ53</t>
-  </si>
-  <si>
-    <t>CARTXQ31</t>
-  </si>
-  <si>
-    <t>CARTXQ32</t>
-  </si>
-  <si>
-    <t>TOTEXQ54</t>
-  </si>
-  <si>
-    <t>CARTXQ33</t>
-  </si>
-  <si>
-    <t>CARTXQ34</t>
-  </si>
-  <si>
-    <t>TOTEXQ55</t>
-  </si>
-  <si>
-    <t>TOTEXQ56</t>
-  </si>
-  <si>
-    <t>TOTEXQ57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MBC2308230018</t>
-  </si>
-  <si>
-    <t>MBC2308230017</t>
-  </si>
-  <si>
-    <t>MBCPK2323080124</t>
-  </si>
-  <si>
-    <t>MBCPK2323080125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SGC1230904112846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SGC1230904112844</t>
-  </si>
-  <si>
-    <t>SBA2230830100229</t>
-  </si>
-  <si>
-    <t>SBA2230830100230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBCR230321205837</t>
-  </si>
-  <si>
-    <t>SBCR230321205924</t>
-  </si>
-  <si>
-    <t>SGW5230823143758</t>
-  </si>
-  <si>
-    <t>SGW5230823143759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC25082300014</t>
-  </si>
-  <si>
-    <t>MGC31082300012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC31082300013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC31082300014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGW5230807155908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGW5230807155906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA2230830153356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA1230830153354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MBC2337001001</t>
-  </si>
-  <si>
-    <t>MBC2337001005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA1230830164931</t>
-  </si>
-  <si>
-    <t>SBA1230830164929</t>
-  </si>
-  <si>
-    <t>SBA1230830164933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA2230830164935</t>
-  </si>
-  <si>
-    <t>SBA2230830164937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC4230818110127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SEB1230830161040</t>
-  </si>
-  <si>
-    <t>SEB2230830161042</t>
-  </si>
-  <si>
-    <t>SEB2230830161045</t>
+SBA1230914051716</t>
+  </si>
+  <si>
+    <t>SBA1230914051054</t>
+  </si>
+  <si>
+    <t>SBA1230914051053</t>
+  </si>
+  <si>
+    <t>SBA1230914051052</t>
+  </si>
+  <si>
+    <t>SBA1230914051050</t>
+  </si>
+  <si>
+    <t>SCB2230914051738</t>
+  </si>
+  <si>
+    <t>SCB2230914051737</t>
+  </si>
+  <si>
+    <t>SCB2230914051736</t>
+  </si>
+  <si>
+    <t>SCB2230914051735</t>
+  </si>
+  <si>
+    <t>SCB1230914051734</t>
+  </si>
+  <si>
+    <t>SCB1230914051733</t>
+  </si>
+  <si>
+    <t>SGC1230914051751</t>
+  </si>
+  <si>
+    <t>SGC1230914051750</t>
+  </si>
+  <si>
+    <t>SGC1230914051749</t>
+  </si>
+  <si>
+    <t>SGC1230914051748</t>
+  </si>
+  <si>
+    <t>SGW1230914051744</t>
+  </si>
+  <si>
+    <t>SGW1230914051743</t>
+  </si>
+  <si>
+    <t>SEB3230914051759</t>
+  </si>
+  <si>
+    <t>SEB3230914051800</t>
+  </si>
+  <si>
+    <t>SGW1230914051742</t>
+  </si>
+  <si>
+    <t>SGW1230914051741</t>
+  </si>
+  <si>
+    <t>SEB2230914051757</t>
+  </si>
+  <si>
+    <t>SEB2230914051756</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,12 +870,6 @@
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF0451A5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -955,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,6 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -987,6 +964,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1013,15 +991,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1330,10 +1299,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1357,13 +1326,13 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1377,11 +1346,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>108</v>
+      <c r="A2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1405,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1433,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1456,106 +1425,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,7 +1537,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,106 +1558,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1722,106 +1691,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1833,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1846,122 +1815,117 @@
     <col min="5" max="5" width="20.36328125" customWidth="1"/>
     <col min="6" max="6" width="16.453125" customWidth="1"/>
     <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" customWidth="1"/>
-    <col min="14" max="14" width="9.08984375" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" s="19" t="s">
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="N2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1975,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310205EE-CAFF-40F5-B011-64E0293D21E5}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1993,110 +1957,110 @@
     <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,112 +2095,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,7 +2213,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2269,112 +2233,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,7 +2351,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2408,108 +2372,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2527,7 +2491,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2548,116 +2512,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,8 +2636,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2695,106 +2659,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2872,12 +2836,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>116</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2901,13 +2865,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>102</v>
+      <c r="L2" t="s">
+        <v>166</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2916,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2929,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2938,111 +2902,109 @@
     <col min="1" max="1" width="20.08984375" customWidth="1"/>
     <col min="2" max="2" width="22.36328125" customWidth="1"/>
     <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,8 +3019,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3083,106 +3045,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3195,22 +3157,20 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3234,14 +3194,14 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>51</v>
+      <c r="J1" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>52</v>
+      <c r="L1" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -3254,11 +3214,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>233</v>
+      <c r="A2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3282,13 +3242,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3311,7 +3271,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3326,10 +3286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3340,17 +3300,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>235</v>
+      <c r="A2" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3324,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3386,14 +3346,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>236</v>
+      <c r="A2" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +3367,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3432,9 +3392,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>237</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3456,23 +3416,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CBAF4-DCE9-420A-B78D-FEF677E49528}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3496,14 +3454,14 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>51</v>
+      <c r="J1" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>52</v>
+      <c r="L1" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -3516,11 +3474,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>239</v>
+      <c r="A2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3544,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3573,7 +3531,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3594,11 +3552,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>85</v>
+      <c r="A2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3614,14 +3572,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3629,10 +3587,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3645,7 +3603,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3716,10 +3674,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3743,13 +3701,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3771,24 +3729,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
-    <col min="13" max="14" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="23.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -3839,11 +3798,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>112</v>
+      <c r="A2" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3866,14 +3825,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>105</v>
+      <c r="J2" t="s">
+        <v>167</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>106</v>
+      <c r="L2" t="s">
+        <v>168</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3882,7 +3841,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3858,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3938,7 +3897,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3956,7 +3915,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +3929,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3992,106 +3951,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4107,7 +4066,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4126,7 +4085,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -4142,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4217EEF-7B33-4CD7-9C9F-E0AEA3F42183}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4217,7 +4176,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -4241,13 +4200,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4278,18 +4237,17 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
@@ -4305,140 +4263,140 @@
     <col min="22" max="22" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="J1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>63</v>
+      <c r="T1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="J2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q2" s="19" t="s">
+      <c r="O2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>64</v>
+      <c r="T2" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4413,7 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4537,13 +4495,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -4567,19 +4525,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4602,7 +4560,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4630,140 +4588,140 @@
     <col min="22" max="22" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="J1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="T1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="13" t="s">
+      <c r="J2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>64</v>
+      <c r="T2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4735,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4801,103 +4759,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="F2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>73</v>
+      <c r="P2" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4911,7 +4869,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4941,139 +4899,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="J1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>63</v>
+      <c r="T1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="N2" s="13" t="s">
+      <c r="J2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>64</v>
+      <c r="T2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5087,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC43BAB-E656-470C-A3F6-9EE11D009CA8}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5118,139 +5076,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="J1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>63</v>
+      <c r="T1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="N2" s="13" t="s">
+      <c r="J2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>64</v>
+      <c r="T2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5263,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5287,10 +5245,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5314,13 +5272,13 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -5334,11 +5292,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>95</v>
+      <c r="A2" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5361,14 +5319,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>109</v>
+      <c r="J2" t="s">
+        <v>169</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>110</v>
+      <c r="L2" t="s">
+        <v>170</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5390,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5459,12 +5417,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>120</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5487,14 +5445,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>113</v>
+      <c r="J2" t="s">
+        <v>171</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>114</v>
+      <c r="L2" t="s">
+        <v>172</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5516,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5566,13 +5524,13 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
@@ -5585,12 +5543,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>104</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5613,14 +5571,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>117</v>
+      <c r="J2" t="s">
+        <v>173</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>118</v>
+      <c r="L2" t="s">
+        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5642,8 +5600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5666,10 +5624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
@@ -5713,11 +5671,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>100</v>
+      <c r="A2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5740,14 +5698,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>121</v>
+      <c r="J2" t="s">
+        <v>175</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>122</v>
+      <c r="L2" t="s">
+        <v>176</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5769,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5793,106 +5751,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5904,8 +5862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5927,118 +5885,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="J2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9"/>
+      <c r="S2" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960763B-E4A9-4C87-9936-4BBAF043B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4622D96B-DD9E-441D-861F-50D056D6F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -458,18 +458,6 @@
     <t>CARTAH20</t>
   </si>
   <si>
-    <t>MGW4230821060046</t>
-  </si>
-  <si>
-    <t>MGW4230821060045</t>
-  </si>
-  <si>
-    <t>MGC23240800014</t>
-  </si>
-  <si>
-    <t>MGC23240800013</t>
-  </si>
-  <si>
     <t>EXPICK23824004</t>
   </si>
   <si>
@@ -506,18 +494,6 @@
     <t>TOTEBJ08</t>
   </si>
   <si>
-    <t>MCB1230831105323</t>
-  </si>
-  <si>
-    <t>MCB1230831105321</t>
-  </si>
-  <si>
-    <t>MCB1230831105314</t>
-  </si>
-  <si>
-    <t>MCB1230831105315</t>
-  </si>
-  <si>
     <t>TOTEBJ17</t>
   </si>
   <si>
@@ -563,9 +539,6 @@
     <t>EXPICK00623004</t>
   </si>
   <si>
-    <t>TOTCJ01</t>
-  </si>
-  <si>
     <t>CARTCJ01</t>
   </si>
   <si>
@@ -695,83 +668,18 @@
     <t>CARTCJ27</t>
   </si>
   <si>
-    <t>TOTECJ28</t>
-  </si>
-  <si>
-    <t>TOTECJ29</t>
-  </si>
-  <si>
-    <t>CARTCJ29</t>
-  </si>
-  <si>
-    <t>TOTECJ30</t>
-  </si>
-  <si>
-    <t>TOTECJ31</t>
-  </si>
-  <si>
-    <t>CARTCJ31</t>
-  </si>
-  <si>
-    <t>TOTECJ32</t>
-  </si>
-  <si>
-    <t>TOTECJ33</t>
-  </si>
-  <si>
-    <t>CARTCJ33</t>
-  </si>
-  <si>
-    <t>SBA2230914051722</t>
-  </si>
-  <si>
-    <t>SBA2230914051721</t>
-  </si>
-  <si>
     <t>SBA1230914051719</t>
   </si>
   <si>
     <t>SBA1230914051718</t>
   </si>
   <si>
-    <t xml:space="preserve">
-SBA1230914051717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBA1230914051716</t>
-  </si>
-  <si>
     <t>SBA1230914051054</t>
   </si>
   <si>
     <t>SBA1230914051053</t>
   </si>
   <si>
-    <t>SBA1230914051052</t>
-  </si>
-  <si>
-    <t>SBA1230914051050</t>
-  </si>
-  <si>
-    <t>SCB2230914051738</t>
-  </si>
-  <si>
-    <t>SCB2230914051737</t>
-  </si>
-  <si>
-    <t>SCB2230914051736</t>
-  </si>
-  <si>
-    <t>SCB2230914051735</t>
-  </si>
-  <si>
-    <t>SCB1230914051734</t>
-  </si>
-  <si>
-    <t>SCB1230914051733</t>
-  </si>
-  <si>
     <t>SGC1230914051751</t>
   </si>
   <si>
@@ -802,10 +710,100 @@
     <t>SGW1230914051741</t>
   </si>
   <si>
-    <t>SEB2230914051757</t>
-  </si>
-  <si>
-    <t>SEB2230914051756</t>
+    <t>SBA4230914051727</t>
+  </si>
+  <si>
+    <t>SBA4230914051728</t>
+  </si>
+  <si>
+    <t>TOTECJ36</t>
+  </si>
+  <si>
+    <t>TOTECJ37</t>
+  </si>
+  <si>
+    <t>CARTCJ36</t>
+  </si>
+  <si>
+    <t>TOTECJ40</t>
+  </si>
+  <si>
+    <t>SEB2230914130443</t>
+  </si>
+  <si>
+    <t>SEB2230914130442</t>
+  </si>
+  <si>
+    <t>TOTECJ41</t>
+  </si>
+  <si>
+    <t>CARTCJ40</t>
+  </si>
+  <si>
+    <t>TOTECJ43</t>
+  </si>
+  <si>
+    <t>TOTECJ42</t>
+  </si>
+  <si>
+    <t>CARTCJ42</t>
+  </si>
+  <si>
+    <t>MMTEST232409022</t>
+  </si>
+  <si>
+    <t>MMTEST232409021</t>
+  </si>
+  <si>
+    <t>MMTEST232409020</t>
+  </si>
+  <si>
+    <t>MMTEST232409019</t>
+  </si>
+  <si>
+    <t>MGWCS20231409006</t>
+  </si>
+  <si>
+    <t>MGWCS20231409005</t>
+  </si>
+  <si>
+    <t>MGC25092300016</t>
+  </si>
+  <si>
+    <t>MGC25092300015</t>
+  </si>
+  <si>
+    <t>SBA1230914130404</t>
+  </si>
+  <si>
+    <t>SBA1230914130403</t>
+  </si>
+  <si>
+    <t>SBA1230914130406</t>
+  </si>
+  <si>
+    <t>SBA1230914130405</t>
+  </si>
+  <si>
+    <t>TOTECJ01</t>
+  </si>
+  <si>
+    <t>SBC240914006</t>
+  </si>
+  <si>
+    <t>SBC240914005</t>
+  </si>
+  <si>
+    <t>SBC240914004</t>
+  </si>
+  <si>
+    <t>SBC240914003</t>
+  </si>
+  <si>
+    <t>SBC240914002</t>
+  </si>
+  <si>
+    <t>SBC240914001</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,10 +1345,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1374,13 +1372,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1403,7 +1401,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1477,10 +1475,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1504,16 +1502,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1536,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1610,10 +1608,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1637,16 +1635,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1802,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1875,10 +1873,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1902,22 +1900,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -2013,10 +2011,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2040,16 +2038,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2150,10 +2148,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2177,13 +2175,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2213,7 +2211,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,10 +2286,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2315,13 +2313,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2426,10 +2424,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2453,13 +2451,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2567,10 +2565,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2594,13 +2592,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2636,8 +2634,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2711,10 +2709,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2738,16 +2736,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2771,7 +2769,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2838,10 +2836,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2865,13 +2863,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2893,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2957,10 +2955,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2984,16 +2982,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3019,8 +3017,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3097,10 +3095,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3124,16 +3122,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3215,10 +3213,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3242,13 +3240,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3301,10 +3299,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3347,7 +3345,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3394,7 +3392,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3475,10 +3473,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3502,13 +3500,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3590,7 +3588,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3729,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3799,10 +3797,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3826,13 +3824,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -4333,10 +4331,10 @@
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -4360,25 +4358,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>15</v>
@@ -4390,10 +4388,10 @@
         <v>19</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>73</v>
@@ -5222,7 +5220,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5293,10 +5291,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5320,13 +5318,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5419,10 +5417,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5446,13 +5444,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5545,10 +5543,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5572,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5672,10 +5670,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5699,13 +5697,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5803,10 +5801,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5830,16 +5828,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5862,8 +5860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5943,10 +5941,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5970,22 +5968,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4622D96B-DD9E-441D-861F-50D056D6F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B208267-3547-4C1A-87F1-89022C0CDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -458,12 +458,6 @@
     <t>CARTAH20</t>
   </si>
   <si>
-    <t>EXPICK23824004</t>
-  </si>
-  <si>
-    <t>EXPICK23824003</t>
-  </si>
-  <si>
     <t>MCHS00101A04</t>
   </si>
   <si>
@@ -533,12 +527,6 @@
     <t>USSG230904113225</t>
   </si>
   <si>
-    <t>EXPICK00623003</t>
-  </si>
-  <si>
-    <t>EXPICK00623004</t>
-  </si>
-  <si>
     <t>CARTCJ01</t>
   </si>
   <si>
@@ -749,30 +737,6 @@
     <t>CARTCJ42</t>
   </si>
   <si>
-    <t>MMTEST232409022</t>
-  </si>
-  <si>
-    <t>MMTEST232409021</t>
-  </si>
-  <si>
-    <t>MMTEST232409020</t>
-  </si>
-  <si>
-    <t>MMTEST232409019</t>
-  </si>
-  <si>
-    <t>MGWCS20231409006</t>
-  </si>
-  <si>
-    <t>MGWCS20231409005</t>
-  </si>
-  <si>
-    <t>MGC25092300016</t>
-  </si>
-  <si>
-    <t>MGC25092300015</t>
-  </si>
-  <si>
     <t>SBA1230914130404</t>
   </si>
   <si>
@@ -794,16 +758,52 @@
     <t>SBC240914005</t>
   </si>
   <si>
-    <t>SBC240914004</t>
-  </si>
-  <si>
-    <t>SBC240914003</t>
-  </si>
-  <si>
     <t>SBC240914002</t>
   </si>
   <si>
     <t>SBC240914001</t>
+  </si>
+  <si>
+    <t>MGWCS20231509016</t>
+  </si>
+  <si>
+    <t>MGWCS20231509015</t>
+  </si>
+  <si>
+    <t>MGC15092300026</t>
+  </si>
+  <si>
+    <t>MGC15092300025</t>
+  </si>
+  <si>
+    <t>METEST20230915026</t>
+  </si>
+  <si>
+    <t>METEST20230915025</t>
+  </si>
+  <si>
+    <t>METEST20230915024</t>
+  </si>
+  <si>
+    <t>METEST20230915023</t>
+  </si>
+  <si>
+    <t>MBC202309150016</t>
+  </si>
+  <si>
+    <t>MBC202309150015</t>
+  </si>
+  <si>
+    <t>MBC202309150014</t>
+  </si>
+  <si>
+    <t>MBC202309150013</t>
+  </si>
+  <si>
+    <t>SB202309150006</t>
+  </si>
+  <si>
+    <t>SB202309150005</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1372,13 +1372,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1502,16 +1502,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1635,16 +1635,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1900,22 +1900,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1938,7 +1938,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2038,16 +2038,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2175,13 +2175,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2313,13 +2313,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2451,13 +2451,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2489,7 +2489,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2592,13 +2592,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2736,16 +2736,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2863,13 +2863,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2891,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2982,16 +2982,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3122,16 +3122,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3240,13 +3240,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3500,13 +3500,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3588,7 +3588,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3824,13 +3824,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -4358,25 +4358,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>15</v>
@@ -4388,10 +4388,10 @@
         <v>19</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>73</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5318,13 +5318,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5417,10 +5417,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5444,13 +5444,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5697,13 +5697,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5725,8 +5725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5828,16 +5828,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5968,22 +5968,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B208267-3547-4C1A-87F1-89022C0CDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF2FC9-99A3-433E-BF25-B03E19ABD3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -28,30 +28,31 @@
     <sheet name="Pick_MB_Corton_2slot" sheetId="63" r:id="rId13"/>
     <sheet name="Pick_MExport" sheetId="41" r:id="rId14"/>
     <sheet name="Pick_SB" sheetId="29" r:id="rId15"/>
-    <sheet name="Pick_SC" sheetId="32" r:id="rId16"/>
-    <sheet name="Pick_SGW" sheetId="31" r:id="rId17"/>
-    <sheet name="Pick_SGC" sheetId="30" r:id="rId18"/>
-    <sheet name="Pack_SBP" sheetId="33" r:id="rId19"/>
-    <sheet name="Pack_SCP" sheetId="62" r:id="rId20"/>
-    <sheet name="Pack_SEP" sheetId="36" r:id="rId21"/>
-    <sheet name="Pick_AltLoca" sheetId="48" r:id="rId22"/>
-    <sheet name="Can_Olpn" sheetId="47" r:id="rId23"/>
-    <sheet name="Can_Ord" sheetId="46" r:id="rId24"/>
-    <sheet name="P-Jour" sheetId="37" r:id="rId25"/>
-    <sheet name="Ship_Con" sheetId="49" r:id="rId26"/>
-    <sheet name="Fill_Kill" sheetId="64" r:id="rId27"/>
-    <sheet name="Par_EOD" sheetId="65" r:id="rId28"/>
-    <sheet name="11" sheetId="14" r:id="rId29"/>
-    <sheet name="12" sheetId="25" r:id="rId30"/>
-    <sheet name="13" sheetId="59" r:id="rId31"/>
-    <sheet name="1" sheetId="34" r:id="rId32"/>
-    <sheet name="DO_SB" sheetId="39" r:id="rId33"/>
-    <sheet name="PackWrap" sheetId="40" r:id="rId34"/>
-    <sheet name="Pack_GC" sheetId="42" r:id="rId35"/>
-    <sheet name="PackGcard" sheetId="52" r:id="rId36"/>
-    <sheet name="SinBagOD_OL" sheetId="58" r:id="rId37"/>
-    <sheet name="PackMGWarp" sheetId="53" r:id="rId38"/>
-    <sheet name="PackMGCorton" sheetId="61" r:id="rId39"/>
+    <sheet name="Sheet1" sheetId="66" r:id="rId16"/>
+    <sheet name="Pick_SC" sheetId="32" r:id="rId17"/>
+    <sheet name="Pick_SGW" sheetId="31" r:id="rId18"/>
+    <sheet name="Pick_SGC" sheetId="30" r:id="rId19"/>
+    <sheet name="Pack_SBP" sheetId="33" r:id="rId20"/>
+    <sheet name="Pack_SCP" sheetId="62" r:id="rId21"/>
+    <sheet name="Pack_SEP" sheetId="36" r:id="rId22"/>
+    <sheet name="Pick_AltLoca" sheetId="48" r:id="rId23"/>
+    <sheet name="Can_Olpn" sheetId="47" r:id="rId24"/>
+    <sheet name="Can_Ord" sheetId="46" r:id="rId25"/>
+    <sheet name="P-Jour" sheetId="37" r:id="rId26"/>
+    <sheet name="Ship_Con" sheetId="49" r:id="rId27"/>
+    <sheet name="Fill_Kill" sheetId="64" r:id="rId28"/>
+    <sheet name="Par_EOD" sheetId="65" r:id="rId29"/>
+    <sheet name="11" sheetId="14" r:id="rId30"/>
+    <sheet name="12" sheetId="25" r:id="rId31"/>
+    <sheet name="13" sheetId="59" r:id="rId32"/>
+    <sheet name="1" sheetId="34" r:id="rId33"/>
+    <sheet name="DO_SB" sheetId="39" r:id="rId34"/>
+    <sheet name="PackWrap" sheetId="40" r:id="rId35"/>
+    <sheet name="Pack_GC" sheetId="42" r:id="rId36"/>
+    <sheet name="PackGcard" sheetId="52" r:id="rId37"/>
+    <sheet name="SinBagOD_OL" sheetId="58" r:id="rId38"/>
+    <sheet name="PackMGWarp" sheetId="53" r:id="rId39"/>
+    <sheet name="PackMGCorton" sheetId="61" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="242">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -488,329 +489,323 @@
     <t>TOTEBJ08</t>
   </si>
   <si>
-    <t>TOTEBJ17</t>
-  </si>
-  <si>
-    <t>CARTBJ17</t>
-  </si>
-  <si>
-    <t>SBA1230905112945</t>
-  </si>
-  <si>
-    <t>SBA1230905112943</t>
-  </si>
-  <si>
-    <t>SB202304090019</t>
-  </si>
-  <si>
-    <t>EXP0109230002</t>
-  </si>
-  <si>
-    <t>MGWCS20230109002</t>
-  </si>
-  <si>
-    <t>SBC240824002</t>
-  </si>
-  <si>
-    <t>TOTEBJ18</t>
-  </si>
-  <si>
-    <t>CARTBJ18</t>
-  </si>
-  <si>
     <t>09/04/2023</t>
   </si>
   <si>
-    <t>USSG230904113223</t>
-  </si>
-  <si>
-    <t>USSG230904113225</t>
-  </si>
-  <si>
-    <t>CARTCJ01</t>
-  </si>
-  <si>
-    <t>TOTECJ02</t>
-  </si>
-  <si>
-    <t>CARTCJ02</t>
-  </si>
-  <si>
-    <t>TOTECJ03</t>
-  </si>
-  <si>
-    <t>CARTCJ03</t>
-  </si>
-  <si>
-    <t>TOTECJ04</t>
-  </si>
-  <si>
-    <t>CARTCJ04</t>
-  </si>
-  <si>
-    <t>TOTECJ05</t>
-  </si>
-  <si>
-    <t>CARTCJ05</t>
-  </si>
-  <si>
-    <t>TOTECJ06</t>
-  </si>
-  <si>
-    <t>CARTCJ06</t>
-  </si>
-  <si>
-    <t>TOTECJ07</t>
-  </si>
-  <si>
-    <t>CARTCJ07</t>
-  </si>
-  <si>
-    <t>TOTECJ08</t>
-  </si>
-  <si>
-    <t>TOTECJ09</t>
-  </si>
-  <si>
-    <t>CARTCJ09</t>
-  </si>
-  <si>
-    <t>CARTCJ10</t>
-  </si>
-  <si>
-    <t>TOTECJ10</t>
-  </si>
-  <si>
-    <t>TOTECJ11</t>
-  </si>
-  <si>
-    <t>TOTECJ12</t>
-  </si>
-  <si>
-    <t>TOTECJ13</t>
-  </si>
-  <si>
-    <t>TOTECJ14</t>
-  </si>
-  <si>
-    <t>TOTECJ15</t>
-  </si>
-  <si>
-    <t>CARTCJ15</t>
-  </si>
-  <si>
-    <t>TOTECJ16</t>
-  </si>
-  <si>
-    <t>TOTECJ17</t>
-  </si>
-  <si>
-    <t>CARTCJ17</t>
-  </si>
-  <si>
-    <t>TOTECJ18</t>
-  </si>
-  <si>
-    <t>TOTECJ19</t>
-  </si>
-  <si>
-    <t>TOTECJ20</t>
-  </si>
-  <si>
-    <t>CARTCJ18</t>
-  </si>
-  <si>
-    <t>CARTCJ19</t>
-  </si>
-  <si>
-    <t>TOTECJ21</t>
-  </si>
-  <si>
-    <t>TOTECJ22</t>
-  </si>
-  <si>
-    <t>CARTCJ22</t>
-  </si>
-  <si>
-    <t>TOTECJ23</t>
-  </si>
-  <si>
-    <t>CARTCJ23</t>
-  </si>
-  <si>
-    <t>TOTECJ24</t>
-  </si>
-  <si>
-    <t>CARTCJ24</t>
-  </si>
-  <si>
-    <t>TOTECJ25</t>
-  </si>
-  <si>
-    <t>CARTCJ25</t>
-  </si>
-  <si>
-    <t>TOTECJ27</t>
-  </si>
-  <si>
-    <t>CARTCJ27</t>
-  </si>
-  <si>
-    <t>SBA1230914051719</t>
-  </si>
-  <si>
-    <t>SBA1230914051718</t>
-  </si>
-  <si>
-    <t>SBA1230914051054</t>
-  </si>
-  <si>
-    <t>SBA1230914051053</t>
-  </si>
-  <si>
-    <t>SGC1230914051751</t>
-  </si>
-  <si>
-    <t>SGC1230914051750</t>
-  </si>
-  <si>
-    <t>SGC1230914051749</t>
-  </si>
-  <si>
-    <t>SGC1230914051748</t>
-  </si>
-  <si>
-    <t>SGW1230914051744</t>
-  </si>
-  <si>
-    <t>SGW1230914051743</t>
-  </si>
-  <si>
-    <t>SEB3230914051759</t>
-  </si>
-  <si>
-    <t>SEB3230914051800</t>
-  </si>
-  <si>
     <t>SGW1230914051742</t>
   </si>
   <si>
     <t>SGW1230914051741</t>
   </si>
   <si>
-    <t>SBA4230914051727</t>
-  </si>
-  <si>
-    <t>SBA4230914051728</t>
-  </si>
-  <si>
-    <t>TOTECJ36</t>
-  </si>
-  <si>
-    <t>TOTECJ37</t>
-  </si>
-  <si>
-    <t>CARTCJ36</t>
-  </si>
-  <si>
-    <t>TOTECJ40</t>
-  </si>
-  <si>
-    <t>SEB2230914130443</t>
-  </si>
-  <si>
-    <t>SEB2230914130442</t>
-  </si>
-  <si>
-    <t>TOTECJ41</t>
-  </si>
-  <si>
-    <t>CARTCJ40</t>
-  </si>
-  <si>
-    <t>TOTECJ43</t>
-  </si>
-  <si>
-    <t>TOTECJ42</t>
-  </si>
-  <si>
-    <t>CARTCJ42</t>
-  </si>
-  <si>
-    <t>SBA1230914130404</t>
-  </si>
-  <si>
-    <t>SBA1230914130403</t>
-  </si>
-  <si>
-    <t>SBA1230914130406</t>
-  </si>
-  <si>
-    <t>SBA1230914130405</t>
-  </si>
-  <si>
-    <t>TOTECJ01</t>
-  </si>
-  <si>
-    <t>SBC240914006</t>
-  </si>
-  <si>
-    <t>SBC240914005</t>
-  </si>
-  <si>
-    <t>SBC240914002</t>
-  </si>
-  <si>
-    <t>SBC240914001</t>
-  </si>
-  <si>
-    <t>MGWCS20231509016</t>
-  </si>
-  <si>
-    <t>MGWCS20231509015</t>
-  </si>
-  <si>
-    <t>MGC15092300026</t>
-  </si>
-  <si>
-    <t>MGC15092300025</t>
-  </si>
-  <si>
-    <t>METEST20230915026</t>
-  </si>
-  <si>
-    <t>METEST20230915025</t>
-  </si>
-  <si>
-    <t>METEST20230915024</t>
-  </si>
-  <si>
-    <t>METEST20230915023</t>
-  </si>
-  <si>
-    <t>MBC202309150016</t>
-  </si>
-  <si>
-    <t>MBC202309150015</t>
-  </si>
-  <si>
-    <t>MBC202309150014</t>
-  </si>
-  <si>
-    <t>MBC202309150013</t>
-  </si>
-  <si>
-    <t>SB202309150006</t>
-  </si>
-  <si>
-    <t>SB202309150005</t>
+    <t>TOTECJ82</t>
+  </si>
+  <si>
+    <t>CARTCJ82</t>
+  </si>
+  <si>
+    <t>SB202309150004</t>
+  </si>
+  <si>
+    <t>SB202309150003</t>
+  </si>
+  <si>
+    <t>TOTECJ83</t>
+  </si>
+  <si>
+    <t>CARTCJ84</t>
+  </si>
+  <si>
+    <t>SB202301909000</t>
+  </si>
+  <si>
+    <t>SB202309150001</t>
+  </si>
+  <si>
+    <t>SBA1230919175928</t>
+  </si>
+  <si>
+    <t>SBA1230919175930</t>
+  </si>
+  <si>
+    <t>SBA4230921063245</t>
+  </si>
+  <si>
+    <t>SBA4230926120643</t>
+  </si>
+  <si>
+    <t>TOTEEJ01</t>
+  </si>
+  <si>
+    <t>TOTEEJ02</t>
+  </si>
+  <si>
+    <t>CARTEJ01</t>
+  </si>
+  <si>
+    <t>SCB1230926120651</t>
+  </si>
+  <si>
+    <t>SCB1230926120653</t>
+  </si>
+  <si>
+    <t>TOTEEJ03</t>
+  </si>
+  <si>
+    <t>TOTEEJ04</t>
+  </si>
+  <si>
+    <t>CARTEJ04</t>
+  </si>
+  <si>
+    <t>SEB2230926120808</t>
+  </si>
+  <si>
+    <t>SEB2230926120806</t>
+  </si>
+  <si>
+    <t>TOTEEJ05</t>
+  </si>
+  <si>
+    <t>TOTEEJ06</t>
+  </si>
+  <si>
+    <t>CARTEJ05</t>
+  </si>
+  <si>
+    <t>SGC1230926120749</t>
+  </si>
+  <si>
+    <t>SGC1230926120747</t>
+  </si>
+  <si>
+    <t>TOTEEJ07</t>
+  </si>
+  <si>
+    <t>CARTEJ07</t>
+  </si>
+  <si>
+    <t>SGW1230926120731</t>
+  </si>
+  <si>
+    <t>SGW1230926120729</t>
+  </si>
+  <si>
+    <t>SCB1230926120655</t>
+  </si>
+  <si>
+    <t>SCB1230926120656</t>
+  </si>
+  <si>
+    <t>SCB1230926120700</t>
+  </si>
+  <si>
+    <t>SCB1230926120658</t>
+  </si>
+  <si>
+    <t>SBA1230926120623</t>
+  </si>
+  <si>
+    <t>SBA1230926120621</t>
+  </si>
+  <si>
+    <t>SEB2230926120802</t>
+  </si>
+  <si>
+    <t>SEB2230926120804</t>
+  </si>
+  <si>
+    <t>SGW1230926120723</t>
+  </si>
+  <si>
+    <t>SGW1230926120725</t>
+  </si>
+  <si>
+    <t>SGC1230926120745</t>
+  </si>
+  <si>
+    <t>SGC1230926120744</t>
+  </si>
+  <si>
+    <t>SBA2230926120625</t>
+  </si>
+  <si>
+    <t>SBA2230926120627</t>
+  </si>
+  <si>
+    <t>SBA1230926120617</t>
+  </si>
+  <si>
+    <t>SBA1230926120619</t>
+  </si>
+  <si>
+    <t>MBC2609230001</t>
+  </si>
+  <si>
+    <t>MBC2609230002</t>
+  </si>
+  <si>
+    <t>MBC2609230003</t>
+  </si>
+  <si>
+    <t>MBC2609230004</t>
+  </si>
+  <si>
+    <t>MGW2609230001</t>
+  </si>
+  <si>
+    <t>MGW2609230002</t>
+  </si>
+  <si>
+    <t>TOTEEJ11</t>
+  </si>
+  <si>
+    <t>CARTEJ11</t>
+  </si>
+  <si>
+    <t>TOTEEJ12</t>
+  </si>
+  <si>
+    <t>CARTEJ12</t>
+  </si>
+  <si>
+    <t>TOTEEJ13</t>
+  </si>
+  <si>
+    <t>CARTEJ13</t>
+  </si>
+  <si>
+    <t>TOTEEJ14</t>
+  </si>
+  <si>
+    <t>CARTEJ14</t>
+  </si>
+  <si>
+    <t>TOTEEJ15</t>
+  </si>
+  <si>
+    <t>CARTEJ15</t>
+  </si>
+  <si>
+    <t>TOTEEJ16</t>
+  </si>
+  <si>
+    <t>CARTEJ16</t>
+  </si>
+  <si>
+    <t>TOTEEJ17</t>
+  </si>
+  <si>
+    <t>CARTEJ17</t>
+  </si>
+  <si>
+    <t>TOTEEJ18</t>
+  </si>
+  <si>
+    <t>TOTEEJ19</t>
+  </si>
+  <si>
+    <t>CARTEJ18</t>
+  </si>
+  <si>
+    <t>MEXP260923001</t>
+  </si>
+  <si>
+    <t>MEXP260923002</t>
+  </si>
+  <si>
+    <t>MEXP260923003</t>
+  </si>
+  <si>
+    <t>MEXP260923004</t>
+  </si>
+  <si>
+    <t>TOTEEJ20</t>
+  </si>
+  <si>
+    <t>TOTEEJ21</t>
+  </si>
+  <si>
+    <t>TOTEEJ22</t>
+  </si>
+  <si>
+    <t>TOTEEJ23</t>
+  </si>
+  <si>
+    <t>CARTEJ23</t>
+  </si>
+  <si>
+    <t>MGC260923001</t>
+  </si>
+  <si>
+    <t>MGC260923002</t>
+  </si>
+  <si>
+    <t>TOTEEJ24</t>
+  </si>
+  <si>
+    <t>TOTEEJ25</t>
+  </si>
+  <si>
+    <t>CARTEJ25</t>
+  </si>
+  <si>
+    <t>TOTEEJ26</t>
+  </si>
+  <si>
+    <t>TOTEEJ27</t>
+  </si>
+  <si>
+    <t>CARTEJ27</t>
+  </si>
+  <si>
+    <t>TOTEEJ28</t>
+  </si>
+  <si>
+    <t>TOTEEJ29</t>
+  </si>
+  <si>
+    <t>TOTEEJ30</t>
+  </si>
+  <si>
+    <t>CARTEJ29</t>
+  </si>
+  <si>
+    <t>CARTEJ30</t>
+  </si>
+  <si>
+    <t>TOTEEJ31</t>
+  </si>
+  <si>
+    <t>TOTEEJ32</t>
+  </si>
+  <si>
+    <t>CARTEJ32</t>
+  </si>
+  <si>
+    <t>TOTEEJ33</t>
+  </si>
+  <si>
+    <t>CARTEJ33</t>
+  </si>
+  <si>
+    <t>TOTEJ34</t>
+  </si>
+  <si>
+    <t>CARTEJ34</t>
+  </si>
+  <si>
+    <t>TOTEEJ35</t>
+  </si>
+  <si>
+    <t>CARTEJ35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,8 +864,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF4F52B2"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -991,6 +998,16 @@
     <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,7 +1291,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,10 +1362,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1372,13 +1389,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1400,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1475,10 +1492,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1502,16 +1519,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1534,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,11 +1624,11 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>239</v>
+      <c r="A2" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1635,16 +1652,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1800,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,10 +1890,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1900,22 +1917,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="O2" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1938,7 +1955,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2011,10 +2028,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2038,16 +2055,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2070,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,10 +2165,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2175,13 +2192,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2207,11 +2224,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFAE7D6-1B99-4AA1-9BF3-EEBBF96E400F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2286,10 +2315,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2313,13 +2342,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2344,12 +2373,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2424,10 +2453,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2451,13 +2480,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2474,152 +2503,6 @@
       <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C5F170-6AAB-4B22-9C36-F5F88F84B350}">
-  <sheetPr>
-    <tabColor theme="2" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2628,14 +2511,280 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C5F170-6AAB-4B22-9C36-F5F88F84B350}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="13" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5545A-9E94-4E32-A7D1-3A4C5694A2F1}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2709,10 +2858,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2736,16 +2885,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2764,135 +2913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2955,10 +2981,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2982,16 +3008,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3010,15 +3036,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0619A8A-C0CB-4A8F-A774-3AF3A9888095}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3095,10 +3121,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3122,16 +3148,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3150,12 +3176,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F043CA74-F5BF-4AF9-BCE6-820929A80E90}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3213,10 +3239,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3240,13 +3266,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3264,12 +3290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1B5F10-9258-4BFB-9F3D-697091A59134}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3299,10 +3325,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3317,12 +3343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB67271-69D1-45CB-AEF6-BCD528FA0FA0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3345,7 +3371,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3360,12 +3386,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0D987-6C09-4C0E-8480-26E9839C876F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3392,7 +3418,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3410,12 +3436,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CBAF4-DCE9-420A-B78D-FEF677E49528}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3472,11 +3498,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>145</v>
+      <c r="A2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3500,13 +3526,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3524,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6142671-F044-41DC-AF2B-B0D11D2EFE2A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3565,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DFEB6-7C7B-4909-AED7-A143313EA8DF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3588,7 +3614,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3622,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="23.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF3D5F-AE36-46C0-871B-6FBE89306766}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3723,132 +3874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.81640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="23.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675B47F9-B2B7-4E57-8512-84FE127F209D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3922,7 +3948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A07C8-D5AA-4D1A-9CE3-DAC23D010ED0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -4056,7 +4082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F589DF-9FFD-44EB-BD56-091BE2CCCB58}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4095,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4217EEF-7B33-4CD7-9C9F-E0AEA3F42183}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4228,7 +4254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA145AB-854F-4238-8D6D-B03B35B83F99}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -4404,7 +4430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B9951-EAA0-4E0B-9ABB-FF67A77E4C4B}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4553,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B781D0-CACB-41EA-8F0D-BBB0FD59520E}">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -4728,7 +4754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABBCBFC-D7DD-4EDB-B73E-4CBA45016564}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4862,7 +4888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1A3998-BC30-49FE-94BC-7F6323B79C6A}">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -5039,7 +5065,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC43BAB-E656-470C-A3F6-9EE11D009CA8}">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -5215,139 +5368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5417,10 +5443,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5444,13 +5470,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5472,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5543,10 +5569,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5570,13 +5596,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5598,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5670,10 +5696,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5697,13 +5723,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5725,8 +5751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5800,11 +5826,11 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>237</v>
+      <c r="A2" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5828,16 +5854,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5860,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5940,11 +5966,11 @@
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>231</v>
+      <c r="A2" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5968,22 +5994,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF2FC9-99A3-433E-BF25-B03E19ABD3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE14E8-D41F-40DA-828C-4F034E3FFB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="244">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -492,320 +492,326 @@
     <t>09/04/2023</t>
   </si>
   <si>
-    <t>SGW1230914051742</t>
-  </si>
-  <si>
-    <t>SGW1230914051741</t>
-  </si>
-  <si>
-    <t>TOTECJ82</t>
-  </si>
-  <si>
-    <t>CARTCJ82</t>
-  </si>
-  <si>
-    <t>SB202309150004</t>
-  </si>
-  <si>
-    <t>SB202309150003</t>
-  </si>
-  <si>
-    <t>TOTECJ83</t>
-  </si>
-  <si>
-    <t>CARTCJ84</t>
-  </si>
-  <si>
-    <t>SB202301909000</t>
-  </si>
-  <si>
-    <t>SB202309150001</t>
-  </si>
-  <si>
-    <t>SBA1230919175928</t>
-  </si>
-  <si>
-    <t>SBA1230919175930</t>
-  </si>
-  <si>
-    <t>SBA4230921063245</t>
-  </si>
-  <si>
-    <t>SBA4230926120643</t>
-  </si>
-  <si>
-    <t>TOTEEJ01</t>
-  </si>
-  <si>
-    <t>TOTEEJ02</t>
-  </si>
-  <si>
-    <t>CARTEJ01</t>
-  </si>
-  <si>
-    <t>SCB1230926120651</t>
-  </si>
-  <si>
-    <t>SCB1230926120653</t>
-  </si>
-  <si>
-    <t>TOTEEJ03</t>
-  </si>
-  <si>
-    <t>TOTEEJ04</t>
-  </si>
-  <si>
-    <t>CARTEJ04</t>
+    <t>SB202309270003</t>
+  </si>
+  <si>
+    <t>SB202309270004</t>
+  </si>
+  <si>
+    <t>TOTEEJ81</t>
+  </si>
+  <si>
+    <t>CARTEJ81</t>
   </si>
   <si>
     <t>SEB2230926120808</t>
   </si>
   <si>
-    <t>SEB2230926120806</t>
-  </si>
-  <si>
-    <t>TOTEEJ05</t>
-  </si>
-  <si>
-    <t>TOTEEJ06</t>
-  </si>
-  <si>
-    <t>CARTEJ05</t>
-  </si>
-  <si>
-    <t>SGC1230926120749</t>
-  </si>
-  <si>
-    <t>SGC1230926120747</t>
-  </si>
-  <si>
-    <t>TOTEEJ07</t>
-  </si>
-  <si>
-    <t>CARTEJ07</t>
-  </si>
-  <si>
-    <t>SGW1230926120731</t>
-  </si>
-  <si>
-    <t>SGW1230926120729</t>
-  </si>
-  <si>
-    <t>SCB1230926120655</t>
-  </si>
-  <si>
-    <t>SCB1230926120656</t>
-  </si>
-  <si>
-    <t>SCB1230926120700</t>
-  </si>
-  <si>
-    <t>SCB1230926120658</t>
-  </si>
-  <si>
-    <t>SBA1230926120623</t>
-  </si>
-  <si>
-    <t>SBA1230926120621</t>
-  </si>
-  <si>
-    <t>SEB2230926120802</t>
-  </si>
-  <si>
-    <t>SEB2230926120804</t>
-  </si>
-  <si>
-    <t>SGW1230926120723</t>
-  </si>
-  <si>
-    <t>SGW1230926120725</t>
-  </si>
-  <si>
-    <t>SGC1230926120745</t>
-  </si>
-  <si>
-    <t>SGC1230926120744</t>
-  </si>
-  <si>
-    <t>SBA2230926120625</t>
-  </si>
-  <si>
-    <t>SBA2230926120627</t>
-  </si>
-  <si>
-    <t>SBA1230926120617</t>
-  </si>
-  <si>
-    <t>SBA1230926120619</t>
-  </si>
-  <si>
-    <t>MBC2609230001</t>
-  </si>
-  <si>
-    <t>MBC2609230002</t>
-  </si>
-  <si>
-    <t>MBC2609230003</t>
-  </si>
-  <si>
-    <t>MBC2609230004</t>
-  </si>
-  <si>
-    <t>MGW2609230001</t>
-  </si>
-  <si>
-    <t>MGW2609230002</t>
-  </si>
-  <si>
-    <t>TOTEEJ11</t>
-  </si>
-  <si>
-    <t>CARTEJ11</t>
-  </si>
-  <si>
-    <t>TOTEEJ12</t>
-  </si>
-  <si>
-    <t>CARTEJ12</t>
-  </si>
-  <si>
-    <t>TOTEEJ13</t>
-  </si>
-  <si>
-    <t>CARTEJ13</t>
-  </si>
-  <si>
-    <t>TOTEEJ14</t>
-  </si>
-  <si>
-    <t>CARTEJ14</t>
-  </si>
-  <si>
-    <t>TOTEEJ15</t>
-  </si>
-  <si>
-    <t>CARTEJ15</t>
-  </si>
-  <si>
-    <t>TOTEEJ16</t>
-  </si>
-  <si>
-    <t>CARTEJ16</t>
-  </si>
-  <si>
-    <t>TOTEEJ17</t>
-  </si>
-  <si>
-    <t>CARTEJ17</t>
-  </si>
-  <si>
-    <t>TOTEEJ18</t>
-  </si>
-  <si>
-    <t>TOTEEJ19</t>
-  </si>
-  <si>
-    <t>CARTEJ18</t>
-  </si>
-  <si>
-    <t>MEXP260923001</t>
-  </si>
-  <si>
-    <t>MEXP260923002</t>
-  </si>
-  <si>
-    <t>MEXP260923003</t>
-  </si>
-  <si>
-    <t>MEXP260923004</t>
-  </si>
-  <si>
-    <t>TOTEEJ20</t>
-  </si>
-  <si>
-    <t>TOTEEJ21</t>
-  </si>
-  <si>
-    <t>TOTEEJ22</t>
-  </si>
-  <si>
-    <t>TOTEEJ23</t>
-  </si>
-  <si>
-    <t>CARTEJ23</t>
-  </si>
-  <si>
-    <t>MGC260923001</t>
-  </si>
-  <si>
-    <t>MGC260923002</t>
-  </si>
-  <si>
-    <t>TOTEEJ24</t>
-  </si>
-  <si>
-    <t>TOTEEJ25</t>
-  </si>
-  <si>
-    <t>CARTEJ25</t>
-  </si>
-  <si>
-    <t>TOTEEJ26</t>
-  </si>
-  <si>
-    <t>TOTEEJ27</t>
-  </si>
-  <si>
-    <t>CARTEJ27</t>
-  </si>
-  <si>
-    <t>TOTEEJ28</t>
-  </si>
-  <si>
-    <t>TOTEEJ29</t>
-  </si>
-  <si>
-    <t>TOTEEJ30</t>
-  </si>
-  <si>
-    <t>CARTEJ29</t>
-  </si>
-  <si>
-    <t>CARTEJ30</t>
-  </si>
-  <si>
-    <t>TOTEEJ31</t>
-  </si>
-  <si>
-    <t>TOTEEJ32</t>
-  </si>
-  <si>
-    <t>CARTEJ32</t>
-  </si>
-  <si>
-    <t>TOTEEJ33</t>
-  </si>
-  <si>
-    <t>CARTEJ33</t>
-  </si>
-  <si>
-    <t>TOTEJ34</t>
-  </si>
-  <si>
-    <t>CARTEJ34</t>
-  </si>
-  <si>
-    <t>TOTEEJ35</t>
-  </si>
-  <si>
-    <t>CARTEJ35</t>
+    <t>METEST202309270001</t>
+  </si>
+  <si>
+    <t>SGC202327090021</t>
+  </si>
+  <si>
+    <t>SGC202327090022</t>
+  </si>
+  <si>
+    <t>SBA2230926120630</t>
+  </si>
+  <si>
+    <t>SBA2230926120628</t>
+  </si>
+  <si>
+    <t>TOTEEJ77</t>
+  </si>
+  <si>
+    <t>CARTEJ77</t>
+  </si>
+  <si>
+    <t>SBA3231005115614</t>
+  </si>
+  <si>
+    <t>SBA3231005115613</t>
+  </si>
+  <si>
+    <t>SBA3231005115612</t>
+  </si>
+  <si>
+    <t>SBA3231005115611</t>
+  </si>
+  <si>
+    <t>SBA1231005115604</t>
+  </si>
+  <si>
+    <t>SBA1231005115605</t>
+  </si>
+  <si>
+    <t>SBA2231005170108</t>
+  </si>
+  <si>
+    <t>SBA2231005170106</t>
+  </si>
+  <si>
+    <t>SBA4231005170121</t>
+  </si>
+  <si>
+    <t>SBA4231005170123</t>
+  </si>
+  <si>
+    <t>SCB2231005115625</t>
+  </si>
+  <si>
+    <t>SCB2231005115623</t>
+  </si>
+  <si>
+    <t>SCB1231005115622</t>
+  </si>
+  <si>
+    <t>SCB1231005115621</t>
+  </si>
+  <si>
+    <t>SCB1231005115619</t>
+  </si>
+  <si>
+    <t>SCB1231005115618</t>
+  </si>
+  <si>
+    <t>SGC1231005115638</t>
+  </si>
+  <si>
+    <t>SGC1231005115637</t>
+  </si>
+  <si>
+    <t>SGC1231005115634</t>
+  </si>
+  <si>
+    <t>SGC1231005115635</t>
+  </si>
+  <si>
+    <t>SGW1231005115631</t>
+  </si>
+  <si>
+    <t>SGW1231005115630</t>
+  </si>
+  <si>
+    <t>SGW1231005115629</t>
+  </si>
+  <si>
+    <t>SGW1231005115628</t>
+  </si>
+  <si>
+    <t>SEB2231005115644</t>
+  </si>
+  <si>
+    <t>SEB2231005115643</t>
+  </si>
+  <si>
+    <t>SEB1231005115641</t>
+  </si>
+  <si>
+    <t>SEB1231005115640</t>
+  </si>
+  <si>
+    <t>MCB1231005115658</t>
+  </si>
+  <si>
+    <t>MCB1231005115657</t>
+  </si>
+  <si>
+    <t>MCB1231005115651</t>
+  </si>
+  <si>
+    <t>MCB1231005115650</t>
+  </si>
+  <si>
+    <t>TOTEKJ01</t>
+  </si>
+  <si>
+    <t>CARTKJ01</t>
+  </si>
+  <si>
+    <t>TOTEKJ02</t>
+  </si>
+  <si>
+    <t>CARTKJ02</t>
+  </si>
+  <si>
+    <t>TOTEKJ03</t>
+  </si>
+  <si>
+    <t>CARTKJ03</t>
+  </si>
+  <si>
+    <t>TOTEKJ04</t>
+  </si>
+  <si>
+    <t>CARTKJ04</t>
+  </si>
+  <si>
+    <t>TOTEKJ05</t>
+  </si>
+  <si>
+    <t>CARTKJ05</t>
+  </si>
+  <si>
+    <t>TOTEKJ06</t>
+  </si>
+  <si>
+    <t>CARTKJ06</t>
+  </si>
+  <si>
+    <t>TOTEKJ07</t>
+  </si>
+  <si>
+    <t>CARTKJ07</t>
+  </si>
+  <si>
+    <t>TOTEKJ08</t>
+  </si>
+  <si>
+    <t>CARTKJ08</t>
+  </si>
+  <si>
+    <t>TOTEKJ09</t>
+  </si>
+  <si>
+    <t>TOTEKJ10</t>
+  </si>
+  <si>
+    <t>TOTEKJ11</t>
+  </si>
+  <si>
+    <t>TOTEKJ12</t>
+  </si>
+  <si>
+    <t>TOTEKJ13</t>
+  </si>
+  <si>
+    <t>CARTKJ13</t>
+  </si>
+  <si>
+    <t>TOTEKJ14</t>
+  </si>
+  <si>
+    <t>TOTEKJ15</t>
+  </si>
+  <si>
+    <t>CARTKJ15</t>
+  </si>
+  <si>
+    <t>TOTEKJ16</t>
+  </si>
+  <si>
+    <t>TOTEKJ17</t>
+  </si>
+  <si>
+    <t>CARTKJ17</t>
+  </si>
+  <si>
+    <t>TOTEKJ18</t>
+  </si>
+  <si>
+    <t>TOTEKJ19</t>
+  </si>
+  <si>
+    <t>TOTEKJ20</t>
+  </si>
+  <si>
+    <t>CARTKJ20</t>
+  </si>
+  <si>
+    <t>CARTKJ21</t>
+  </si>
+  <si>
+    <t>TOTEKJ21</t>
+  </si>
+  <si>
+    <t>TOTEKJ22</t>
+  </si>
+  <si>
+    <t>CARTKJ22</t>
+  </si>
+  <si>
+    <t>TOTEKJ23</t>
+  </si>
+  <si>
+    <t>CARTKJ23</t>
+  </si>
+  <si>
+    <t>TOTEKJ24</t>
+  </si>
+  <si>
+    <t>CARTKJ24</t>
+  </si>
+  <si>
+    <t>TOTEKJ25</t>
+  </si>
+  <si>
+    <t>CARTKJ25</t>
+  </si>
+  <si>
+    <t>TOTEKJ26</t>
+  </si>
+  <si>
+    <t>CARTKJ26</t>
+  </si>
+  <si>
+    <t>TOTEKJ27</t>
+  </si>
+  <si>
+    <t>TOTEKJ28</t>
+  </si>
+  <si>
+    <t>CARTKJ28</t>
+  </si>
+  <si>
+    <t>TOTEKJ29</t>
+  </si>
+  <si>
+    <t>TOTEKJ30</t>
+  </si>
+  <si>
+    <t>CARTKJ30</t>
+  </si>
+  <si>
+    <t>TOTEKJ31</t>
+  </si>
+  <si>
+    <t>TOTEKJ32</t>
+  </si>
+  <si>
+    <t>CARTKJ32</t>
+  </si>
+  <si>
+    <t>METEST20231009001</t>
+  </si>
+  <si>
+    <t>METEST20231009002</t>
+  </si>
+  <si>
+    <t>METEST20231009003</t>
+  </si>
+  <si>
+    <t>METEST20231009004</t>
+  </si>
+  <si>
+    <t>MGW202310090001</t>
+  </si>
+  <si>
+    <t>MGW202310090002</t>
+  </si>
+  <si>
+    <t>MGC202310090001</t>
+  </si>
+  <si>
+    <t>MGC202310090002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,12 +867,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF4F52B2"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -936,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -997,9 +997,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1290,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1362,10 +1359,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1389,13 +1386,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1417,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,10 +1489,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1519,16 +1516,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1552,7 +1549,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,11 +1621,11 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>189</v>
+      <c r="A2" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1652,16 +1649,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1684,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1890,10 +1887,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1917,22 +1914,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="L2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1954,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310205EE-CAFF-40F5-B011-64E0293D21E5}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2028,10 +2025,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2055,16 +2052,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2087,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2165,10 +2162,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2192,13 +2189,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2315,10 +2312,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2342,13 +2339,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2377,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2453,10 +2450,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2480,13 +2477,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2517,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2595,10 +2592,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2622,13 +2619,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2657,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2725,10 +2722,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2752,13 +2749,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2885,16 +2882,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2917,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2981,10 +2978,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3008,16 +3005,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3043,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3121,10 +3118,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3148,16 +3145,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3181,7 +3178,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3239,10 +3236,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3266,13 +3263,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3295,7 +3292,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3325,10 +3322,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3371,7 +3368,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3391,7 +3388,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3441,7 +3438,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3498,10 +3495,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3626,7 +3623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -3696,10 +3693,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3723,13 +3720,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5070,7 +5067,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5141,10 +5138,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5168,13 +5165,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5372,7 +5369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -5443,10 +5440,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5470,13 +5467,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5498,7 +5495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -5569,10 +5566,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5596,13 +5593,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5696,10 +5693,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5723,13 +5720,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5751,8 +5748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5826,11 +5823,11 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>212</v>
+      <c r="A2" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5854,16 +5851,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5886,8 +5883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5966,11 +5963,11 @@
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>193</v>
+      <c r="A2" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5994,22 +5991,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE14E8-D41F-40DA-828C-4F034E3FFB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA50422D-D8DF-450A-AD78-09109D58AF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="31" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -28,31 +28,30 @@
     <sheet name="Pick_MB_Corton_2slot" sheetId="63" r:id="rId13"/>
     <sheet name="Pick_MExport" sheetId="41" r:id="rId14"/>
     <sheet name="Pick_SB" sheetId="29" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="66" r:id="rId16"/>
-    <sheet name="Pick_SC" sheetId="32" r:id="rId17"/>
-    <sheet name="Pick_SGW" sheetId="31" r:id="rId18"/>
-    <sheet name="Pick_SGC" sheetId="30" r:id="rId19"/>
-    <sheet name="Pack_SBP" sheetId="33" r:id="rId20"/>
-    <sheet name="Pack_SCP" sheetId="62" r:id="rId21"/>
-    <sheet name="Pack_SEP" sheetId="36" r:id="rId22"/>
-    <sheet name="Pick_AltLoca" sheetId="48" r:id="rId23"/>
-    <sheet name="Can_Olpn" sheetId="47" r:id="rId24"/>
-    <sheet name="Can_Ord" sheetId="46" r:id="rId25"/>
-    <sheet name="P-Jour" sheetId="37" r:id="rId26"/>
-    <sheet name="Ship_Con" sheetId="49" r:id="rId27"/>
-    <sheet name="Fill_Kill" sheetId="64" r:id="rId28"/>
-    <sheet name="Par_EOD" sheetId="65" r:id="rId29"/>
-    <sheet name="11" sheetId="14" r:id="rId30"/>
-    <sheet name="12" sheetId="25" r:id="rId31"/>
-    <sheet name="13" sheetId="59" r:id="rId32"/>
-    <sheet name="1" sheetId="34" r:id="rId33"/>
-    <sheet name="DO_SB" sheetId="39" r:id="rId34"/>
-    <sheet name="PackWrap" sheetId="40" r:id="rId35"/>
-    <sheet name="Pack_GC" sheetId="42" r:id="rId36"/>
-    <sheet name="PackGcard" sheetId="52" r:id="rId37"/>
-    <sheet name="SinBagOD_OL" sheetId="58" r:id="rId38"/>
-    <sheet name="PackMGWarp" sheetId="53" r:id="rId39"/>
-    <sheet name="PackMGCorton" sheetId="61" r:id="rId40"/>
+    <sheet name="Pick_SC" sheetId="32" r:id="rId16"/>
+    <sheet name="Pick_SGW" sheetId="31" r:id="rId17"/>
+    <sheet name="Pick_SGC" sheetId="30" r:id="rId18"/>
+    <sheet name="Pack_SBP" sheetId="33" r:id="rId19"/>
+    <sheet name="Pack_SCP" sheetId="62" r:id="rId20"/>
+    <sheet name="Pack_SEP" sheetId="36" r:id="rId21"/>
+    <sheet name="Pick_AltLoca" sheetId="48" r:id="rId22"/>
+    <sheet name="Can_Olpn" sheetId="47" r:id="rId23"/>
+    <sheet name="Can_Ord" sheetId="46" r:id="rId24"/>
+    <sheet name="P-Jour" sheetId="37" r:id="rId25"/>
+    <sheet name="Ship_Con" sheetId="49" r:id="rId26"/>
+    <sheet name="Fill_Kill" sheetId="64" r:id="rId27"/>
+    <sheet name="Par_EOD" sheetId="65" r:id="rId28"/>
+    <sheet name="11" sheetId="14" r:id="rId29"/>
+    <sheet name="12" sheetId="25" r:id="rId30"/>
+    <sheet name="13" sheetId="59" r:id="rId31"/>
+    <sheet name="1" sheetId="34" r:id="rId32"/>
+    <sheet name="DO_SB" sheetId="39" r:id="rId33"/>
+    <sheet name="PackWrap" sheetId="40" r:id="rId34"/>
+    <sheet name="Pack_GC" sheetId="42" r:id="rId35"/>
+    <sheet name="PackGcard" sheetId="52" r:id="rId36"/>
+    <sheet name="SinBagOD_OL" sheetId="58" r:id="rId37"/>
+    <sheet name="PackMGWarp" sheetId="53" r:id="rId38"/>
+    <sheet name="PackMGCorton" sheetId="61" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="239">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -192,33 +191,9 @@
     <t>3/01/2022</t>
   </si>
   <si>
-    <t>CARTFA21</t>
-  </si>
-  <si>
-    <t>TOTEFA21</t>
-  </si>
-  <si>
-    <t>AAMGCTEST20</t>
-  </si>
-  <si>
-    <t>AAMGCTEST21</t>
-  </si>
-  <si>
     <t>BBMGCTEST15</t>
   </si>
   <si>
-    <t>TOTEFA34</t>
-  </si>
-  <si>
-    <t>TOTEFA35</t>
-  </si>
-  <si>
-    <t>TOTEFA36</t>
-  </si>
-  <si>
-    <t>CARTZA34</t>
-  </si>
-  <si>
     <t>ASMTESTDRPT0300</t>
   </si>
   <si>
@@ -237,12 +212,6 @@
     <t>test7112024012</t>
   </si>
   <si>
-    <t>TOTEGA21</t>
-  </si>
-  <si>
-    <t>CARTGA21</t>
-  </si>
-  <si>
     <t>TOTKEY4</t>
   </si>
   <si>
@@ -258,9 +227,6 @@
     <t>CartUserKey</t>
   </si>
   <si>
-    <t>SEPA2022100302</t>
-  </si>
-  <si>
     <t>CompleteSpecs1</t>
   </si>
   <si>
@@ -333,97 +299,19 @@
     <t>CARTAZ01</t>
   </si>
   <si>
-    <t>SBLSGD221212183259</t>
-  </si>
-  <si>
-    <t>SBDHEP221212183256</t>
-  </si>
-  <si>
-    <t>BMGC22120621</t>
-  </si>
-  <si>
-    <t>BMGC22120622</t>
-  </si>
-  <si>
-    <t>TOTEZA01</t>
-  </si>
-  <si>
-    <t>TOTEZA02</t>
-  </si>
-  <si>
-    <t>TOTEZA03</t>
-  </si>
-  <si>
-    <t>TOTEZA04</t>
-  </si>
-  <si>
     <t>CARTZA01</t>
   </si>
   <si>
-    <t>CARTZA02</t>
-  </si>
-  <si>
-    <t>MGWO221206215003</t>
-  </si>
-  <si>
-    <t>MGWO221206215040</t>
-  </si>
-  <si>
-    <t>TOTEZA11</t>
-  </si>
-  <si>
-    <t>TOTEZA12</t>
-  </si>
-  <si>
-    <t>TOTEZA13</t>
-  </si>
-  <si>
-    <t>TOTEZA14</t>
-  </si>
-  <si>
-    <t>CARTZA11</t>
-  </si>
-  <si>
-    <t>CARTZA12</t>
-  </si>
-  <si>
     <t>SBC221207000040</t>
   </si>
   <si>
     <t>SBC221207000041</t>
   </si>
   <si>
-    <t>TOTEZA28</t>
-  </si>
-  <si>
-    <t>TOTEZA29</t>
-  </si>
-  <si>
-    <t>CARTZA28</t>
-  </si>
-  <si>
-    <t>MGWO221206215305</t>
-  </si>
-  <si>
-    <t>MGWO221206215203</t>
-  </si>
-  <si>
-    <t>TOTEPL21</t>
-  </si>
-  <si>
-    <t>TOTEPL22</t>
-  </si>
-  <si>
-    <t>TOTEPL23</t>
-  </si>
-  <si>
-    <t>TOTEPL24</t>
-  </si>
-  <si>
-    <t>CARTPL15</t>
-  </si>
-  <si>
-    <t>CARTPL16</t>
+    <t>MCHS00103C03</t>
+  </si>
+  <si>
+    <t>MCHS00103C04</t>
   </si>
   <si>
     <t>CARTKEY1</t>
@@ -432,386 +320,483 @@
     <t>CARTKEY2</t>
   </si>
   <si>
-    <t>MCB5230724102225</t>
-  </si>
-  <si>
-    <t>MCB5230724102223</t>
-  </si>
-  <si>
-    <t>KILL0520230006</t>
-  </si>
-  <si>
-    <t>FILL20230002</t>
-  </si>
-  <si>
     <t>CarrierServer</t>
   </si>
   <si>
     <t>OnTrac</t>
   </si>
   <si>
-    <t>TOTEH19</t>
-  </si>
-  <si>
-    <t>TOTEAH20</t>
-  </si>
-  <si>
-    <t>CARTAH20</t>
-  </si>
-  <si>
-    <t>MCHS00101A04</t>
-  </si>
-  <si>
-    <t>MCHS00102A02</t>
-  </si>
-  <si>
-    <t>MCB1230901115904</t>
-  </si>
-  <si>
-    <t>MCB1230901115906</t>
-  </si>
-  <si>
-    <t>TOTEBJ05</t>
-  </si>
-  <si>
-    <t>TOTEBJ06</t>
-  </si>
-  <si>
-    <t>CARTBJ03</t>
-  </si>
-  <si>
-    <t>CARTBJ04</t>
-  </si>
-  <si>
-    <t>TOTEBJ07</t>
-  </si>
-  <si>
-    <t>TOTEBJ08</t>
-  </si>
-  <si>
-    <t>09/04/2023</t>
-  </si>
-  <si>
-    <t>SB202309270003</t>
-  </si>
-  <si>
-    <t>SB202309270004</t>
-  </si>
-  <si>
-    <t>TOTEEJ81</t>
-  </si>
-  <si>
-    <t>CARTEJ81</t>
-  </si>
-  <si>
-    <t>SEB2230926120808</t>
-  </si>
-  <si>
-    <t>METEST202309270001</t>
-  </si>
-  <si>
-    <t>SGC202327090021</t>
-  </si>
-  <si>
-    <t>SGC202327090022</t>
-  </si>
-  <si>
-    <t>SBA2230926120630</t>
-  </si>
-  <si>
-    <t>SBA2230926120628</t>
-  </si>
-  <si>
-    <t>TOTEEJ77</t>
-  </si>
-  <si>
-    <t>CARTEJ77</t>
-  </si>
-  <si>
-    <t>SBA3231005115614</t>
-  </si>
-  <si>
-    <t>SBA3231005115613</t>
-  </si>
-  <si>
-    <t>SBA3231005115612</t>
-  </si>
-  <si>
-    <t>SBA3231005115611</t>
-  </si>
-  <si>
-    <t>SBA1231005115604</t>
-  </si>
-  <si>
-    <t>SBA1231005115605</t>
-  </si>
-  <si>
-    <t>SBA2231005170108</t>
-  </si>
-  <si>
-    <t>SBA2231005170106</t>
-  </si>
-  <si>
-    <t>SBA4231005170121</t>
-  </si>
-  <si>
-    <t>SBA4231005170123</t>
-  </si>
-  <si>
-    <t>SCB2231005115625</t>
-  </si>
-  <si>
-    <t>SCB2231005115623</t>
-  </si>
-  <si>
-    <t>SCB1231005115622</t>
-  </si>
-  <si>
-    <t>SCB1231005115621</t>
-  </si>
-  <si>
-    <t>SCB1231005115619</t>
-  </si>
-  <si>
-    <t>SCB1231005115618</t>
-  </si>
-  <si>
-    <t>SGC1231005115638</t>
-  </si>
-  <si>
-    <t>SGC1231005115637</t>
-  </si>
-  <si>
-    <t>SGC1231005115634</t>
-  </si>
-  <si>
-    <t>SGC1231005115635</t>
-  </si>
-  <si>
-    <t>SGW1231005115631</t>
-  </si>
-  <si>
-    <t>SGW1231005115630</t>
-  </si>
-  <si>
-    <t>SGW1231005115629</t>
-  </si>
-  <si>
-    <t>SGW1231005115628</t>
-  </si>
-  <si>
-    <t>SEB2231005115644</t>
-  </si>
-  <si>
-    <t>SEB2231005115643</t>
-  </si>
-  <si>
-    <t>SEB1231005115641</t>
-  </si>
-  <si>
-    <t>SEB1231005115640</t>
-  </si>
-  <si>
-    <t>MCB1231005115658</t>
-  </si>
-  <si>
-    <t>MCB1231005115657</t>
-  </si>
-  <si>
-    <t>MCB1231005115651</t>
-  </si>
-  <si>
-    <t>MCB1231005115650</t>
-  </si>
-  <si>
-    <t>TOTEKJ01</t>
-  </si>
-  <si>
-    <t>CARTKJ01</t>
-  </si>
-  <si>
-    <t>TOTEKJ02</t>
-  </si>
-  <si>
-    <t>CARTKJ02</t>
-  </si>
-  <si>
-    <t>TOTEKJ03</t>
-  </si>
-  <si>
-    <t>CARTKJ03</t>
-  </si>
-  <si>
-    <t>TOTEKJ04</t>
-  </si>
-  <si>
-    <t>CARTKJ04</t>
-  </si>
-  <si>
-    <t>TOTEKJ05</t>
-  </si>
-  <si>
-    <t>CARTKJ05</t>
-  </si>
-  <si>
-    <t>TOTEKJ06</t>
-  </si>
-  <si>
-    <t>CARTKJ06</t>
-  </si>
-  <si>
-    <t>TOTEKJ07</t>
-  </si>
-  <si>
-    <t>CARTKJ07</t>
-  </si>
-  <si>
-    <t>TOTEKJ08</t>
-  </si>
-  <si>
-    <t>CARTKJ08</t>
-  </si>
-  <si>
-    <t>TOTEKJ09</t>
-  </si>
-  <si>
-    <t>TOTEKJ10</t>
-  </si>
-  <si>
-    <t>TOTEKJ11</t>
-  </si>
-  <si>
-    <t>TOTEKJ12</t>
-  </si>
-  <si>
-    <t>TOTEKJ13</t>
-  </si>
-  <si>
-    <t>CARTKJ13</t>
-  </si>
-  <si>
-    <t>TOTEKJ14</t>
-  </si>
-  <si>
-    <t>TOTEKJ15</t>
-  </si>
-  <si>
-    <t>CARTKJ15</t>
-  </si>
-  <si>
-    <t>TOTEKJ16</t>
-  </si>
-  <si>
-    <t>TOTEKJ17</t>
-  </si>
-  <si>
-    <t>CARTKJ17</t>
-  </si>
-  <si>
-    <t>TOTEKJ18</t>
-  </si>
-  <si>
-    <t>TOTEKJ19</t>
-  </si>
-  <si>
-    <t>TOTEKJ20</t>
-  </si>
-  <si>
-    <t>CARTKJ20</t>
-  </si>
-  <si>
-    <t>CARTKJ21</t>
-  </si>
-  <si>
-    <t>TOTEKJ21</t>
-  </si>
-  <si>
-    <t>TOTEKJ22</t>
-  </si>
-  <si>
-    <t>CARTKJ22</t>
-  </si>
-  <si>
-    <t>TOTEKJ23</t>
-  </si>
-  <si>
-    <t>CARTKJ23</t>
-  </si>
-  <si>
-    <t>TOTEKJ24</t>
-  </si>
-  <si>
-    <t>CARTKJ24</t>
-  </si>
-  <si>
-    <t>TOTEKJ25</t>
-  </si>
-  <si>
-    <t>CARTKJ25</t>
-  </si>
-  <si>
-    <t>TOTEKJ26</t>
-  </si>
-  <si>
-    <t>CARTKJ26</t>
-  </si>
-  <si>
-    <t>TOTEKJ27</t>
-  </si>
-  <si>
-    <t>TOTEKJ28</t>
-  </si>
-  <si>
-    <t>CARTKJ28</t>
-  </si>
-  <si>
-    <t>TOTEKJ29</t>
-  </si>
-  <si>
-    <t>TOTEKJ30</t>
-  </si>
-  <si>
-    <t>CARTKJ30</t>
-  </si>
-  <si>
-    <t>TOTEKJ31</t>
-  </si>
-  <si>
-    <t>TOTEKJ32</t>
-  </si>
-  <si>
-    <t>CARTKJ32</t>
-  </si>
-  <si>
-    <t>METEST20231009001</t>
-  </si>
-  <si>
-    <t>METEST20231009002</t>
-  </si>
-  <si>
-    <t>METEST20231009003</t>
-  </si>
-  <si>
-    <t>METEST20231009004</t>
-  </si>
-  <si>
-    <t>MGW202310090001</t>
-  </si>
-  <si>
-    <t>MGW202310090002</t>
-  </si>
-  <si>
-    <t>MGC202310090001</t>
-  </si>
-  <si>
-    <t>MGC202310090002</t>
+    <t>07/25/2023</t>
+  </si>
+  <si>
+    <t>TOTEXQ13</t>
+  </si>
+  <si>
+    <t>CARTXQ11</t>
+  </si>
+  <si>
+    <t>CARTXQ12</t>
+  </si>
+  <si>
+    <t>TOTEXQ15</t>
+  </si>
+  <si>
+    <t>TOTEXQ16</t>
+  </si>
+  <si>
+    <t>TOTEXQ17</t>
+  </si>
+  <si>
+    <t>TOTEXQ18</t>
+  </si>
+  <si>
+    <t>CARTXQ13</t>
+  </si>
+  <si>
+    <t>TOTEXQ19</t>
+  </si>
+  <si>
+    <t>TOTEXQ20</t>
+  </si>
+  <si>
+    <t>TOTEXQ21</t>
+  </si>
+  <si>
+    <t>CARTXQ14</t>
+  </si>
+  <si>
+    <t>TOTEXQ22</t>
+  </si>
+  <si>
+    <t>TOTEXQ23</t>
+  </si>
+  <si>
+    <t>CARTXQ15</t>
+  </si>
+  <si>
+    <t>TOTEXQ24</t>
+  </si>
+  <si>
+    <t>CARTXQ16</t>
+  </si>
+  <si>
+    <t>TOTEXQ25</t>
+  </si>
+  <si>
+    <t>CARTXQ17</t>
+  </si>
+  <si>
+    <t>TOTEXQ26</t>
+  </si>
+  <si>
+    <t>CARTXQ18</t>
+  </si>
+  <si>
+    <t>CARTXQ19</t>
+  </si>
+  <si>
+    <t>TOTEXQ27</t>
+  </si>
+  <si>
+    <t>TOTEXQ28</t>
+  </si>
+  <si>
+    <t>TOTEXQ29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTXQ20 </t>
+  </si>
+  <si>
+    <t>TOTEXQ30</t>
+  </si>
+  <si>
+    <t>TOTEXQ31</t>
+  </si>
+  <si>
+    <t>CARTXQ21</t>
+  </si>
+  <si>
+    <t>TOTEXQ32</t>
+  </si>
+  <si>
+    <t>TOTEXQ33</t>
+  </si>
+  <si>
+    <t>CARTXQ22</t>
+  </si>
+  <si>
+    <t>TOTEXQ34</t>
+  </si>
+  <si>
+    <t>CARTXQ23</t>
+  </si>
+  <si>
+    <t>TOTEXQ35</t>
+  </si>
+  <si>
+    <t>CARTXQ24</t>
+  </si>
+  <si>
+    <t>TOTEXQ36</t>
+  </si>
+  <si>
+    <t>CARTXQ25</t>
+  </si>
+  <si>
+    <t>TOTEXQ37</t>
+  </si>
+  <si>
+    <t>TOTEXQ38</t>
+  </si>
+  <si>
+    <t>CARTXQ26</t>
+  </si>
+  <si>
+    <t>TOTEXQ39</t>
+  </si>
+  <si>
+    <t>TOTEXQ40</t>
+  </si>
+  <si>
+    <t>TOTEXQ41</t>
+  </si>
+  <si>
+    <t>TOTEXQ42</t>
+  </si>
+  <si>
+    <t>CARTXQ27</t>
+  </si>
+  <si>
+    <t>CARTXQ28</t>
+  </si>
+  <si>
+    <t>CARTXQ29</t>
+  </si>
+  <si>
+    <t>TOTEXQ43</t>
+  </si>
+  <si>
+    <t>TOTEXQ44</t>
+  </si>
+  <si>
+    <t>TOTEXQ45</t>
+  </si>
+  <si>
+    <t>TOTEXQ46</t>
+  </si>
+  <si>
+    <t>TOTEXQ47</t>
+  </si>
+  <si>
+    <t>TOTEXQ48</t>
+  </si>
+  <si>
+    <t>TOTEXQ49</t>
+  </si>
+  <si>
+    <t>CARTXQ30</t>
+  </si>
+  <si>
+    <t>TOTEXQ50</t>
+  </si>
+  <si>
+    <t>TOTEXQ51</t>
+  </si>
+  <si>
+    <t>TOTEXQ52</t>
+  </si>
+  <si>
+    <t>TOTEXQ53</t>
+  </si>
+  <si>
+    <t>CARTXQ31</t>
+  </si>
+  <si>
+    <t>CARTXQ32</t>
+  </si>
+  <si>
+    <t>TOTEXQ54</t>
+  </si>
+  <si>
+    <t>CARTXQ33</t>
+  </si>
+  <si>
+    <t>CARTXQ34</t>
+  </si>
+  <si>
+    <t>TOTEXQ55</t>
+  </si>
+  <si>
+    <t>TOTEXQ56</t>
+  </si>
+  <si>
+    <t>TOTEXQ57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MGC4230818110127</t>
+  </si>
+  <si>
+    <t>SEB2230830161045</t>
+  </si>
+  <si>
+    <t>TOTEWD01</t>
+  </si>
+  <si>
+    <t>CARTWD01</t>
+  </si>
+  <si>
+    <t>TOTEWD02</t>
+  </si>
+  <si>
+    <t>CARTWD02</t>
+  </si>
+  <si>
+    <t>TOTEWD03</t>
+  </si>
+  <si>
+    <t>CARTWD03</t>
+  </si>
+  <si>
+    <t>TOTEWD04</t>
+  </si>
+  <si>
+    <t>CARTWD04</t>
+  </si>
+  <si>
+    <t>TOTEWD05</t>
+  </si>
+  <si>
+    <t>CARTWD05</t>
+  </si>
+  <si>
+    <t>TOTEWD06</t>
+  </si>
+  <si>
+    <t>CARTWD06</t>
+  </si>
+  <si>
+    <t>TOTEWD07</t>
+  </si>
+  <si>
+    <t>CARTWD07</t>
+  </si>
+  <si>
+    <t>TOTEWD08</t>
+  </si>
+  <si>
+    <t>CARTWD08</t>
+  </si>
+  <si>
+    <t>TOTEWD09</t>
+  </si>
+  <si>
+    <t>TOTEWD10</t>
+  </si>
+  <si>
+    <t>TOTEWD11</t>
+  </si>
+  <si>
+    <t>TOTEWD12</t>
+  </si>
+  <si>
+    <t>CARTWD09</t>
+  </si>
+  <si>
+    <t>TOTEWD13</t>
+  </si>
+  <si>
+    <t>TOTEWD14</t>
+  </si>
+  <si>
+    <t>CARTWD10</t>
+  </si>
+  <si>
+    <t>MGC202310130006</t>
+  </si>
+  <si>
+    <t>MGC202310130001</t>
+  </si>
+  <si>
+    <t>MGC202310130002</t>
+  </si>
+  <si>
+    <t>MGWCS20231310006</t>
+  </si>
+  <si>
+    <t>MGWCS20231310001</t>
+  </si>
+  <si>
+    <t>MGWCS20231310002</t>
+  </si>
+  <si>
+    <t>MGC202310130003</t>
+  </si>
+  <si>
+    <t>MGC202310130004</t>
+  </si>
+  <si>
+    <t>MGWCS20231310003</t>
+  </si>
+  <si>
+    <t>MGWCS20231310004</t>
+  </si>
+  <si>
+    <t>FILL202310130001</t>
+  </si>
+  <si>
+    <t>KILL202310130011</t>
+  </si>
+  <si>
+    <t>SB202310130014</t>
+  </si>
+  <si>
+    <t>SB202310130001</t>
+  </si>
+  <si>
+    <t>SB202310130002</t>
+  </si>
+  <si>
+    <t>SB202310130003</t>
+  </si>
+  <si>
+    <t>SB202310130004</t>
+  </si>
+  <si>
+    <t>SB202310130005</t>
+  </si>
+  <si>
+    <t>SB202310130008</t>
+  </si>
+  <si>
+    <t>SB202310130009</t>
+  </si>
+  <si>
+    <t>SB202310130010</t>
+  </si>
+  <si>
+    <t>'SB202310130011</t>
+  </si>
+  <si>
+    <t>'SB202310130012</t>
+  </si>
+  <si>
+    <t>'SB202310130013</t>
+  </si>
+  <si>
+    <t>EXPS202310130011</t>
+  </si>
+  <si>
+    <t>EXPS202310130012</t>
+  </si>
+  <si>
+    <t>SCB202310130018</t>
+  </si>
+  <si>
+    <t>SCB202310130017</t>
+  </si>
+  <si>
+    <t>SBC202310130010</t>
+  </si>
+  <si>
+    <t>SBC202310130001</t>
+  </si>
+  <si>
+    <t>SGW202310130008</t>
+  </si>
+  <si>
+    <t>SGW202310130007</t>
+  </si>
+  <si>
+    <t>EXPS202310130009</t>
+  </si>
+  <si>
+    <t>EXPS202310130008</t>
+  </si>
+  <si>
+    <t>MGWCS20231310005</t>
+  </si>
+  <si>
+    <t>MGC202310130005</t>
+  </si>
+  <si>
+    <t>MBTEST202310130010</t>
+  </si>
+  <si>
+    <t>MBTEST202310130009</t>
+  </si>
+  <si>
+    <t>MBTEST202310130008</t>
+  </si>
+  <si>
+    <t>MBTEST202310130007</t>
+  </si>
+  <si>
+    <t>MBTEST202310130005</t>
+  </si>
+  <si>
+    <t>MBTEST202310130006</t>
+  </si>
+  <si>
+    <t>EXPS202310130013</t>
+  </si>
+  <si>
+    <t>'EXPS202310130014</t>
+  </si>
+  <si>
+    <t>SB202310130015</t>
+  </si>
+  <si>
+    <t>SCB202310130015</t>
+  </si>
+  <si>
+    <t>SCB202310130016</t>
+  </si>
+  <si>
+    <t>SGW202310130005</t>
+  </si>
+  <si>
+    <t>SGW202310130006</t>
+  </si>
+  <si>
+    <t>SCB202310130014</t>
+  </si>
+  <si>
+    <t>SCB202310130013</t>
+  </si>
+  <si>
+    <t>SB202310130016</t>
+  </si>
+  <si>
+    <t>SB202310130017</t>
+  </si>
+  <si>
+    <t>SCB202310130012</t>
+  </si>
+  <si>
+    <t>SCB202310130011</t>
+  </si>
+  <si>
+    <t>SB202310130018</t>
+  </si>
+  <si>
+    <t>SB202310130019</t>
+  </si>
+  <si>
+    <t>SBC202310130007</t>
+  </si>
+  <si>
+    <t>SBC202310130008</t>
+  </si>
+  <si>
+    <t>SBC202310130006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,8 +855,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,12 +890,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -951,7 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -969,7 +953,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -998,13 +981,15 @@
     <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1311,10 +1296,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1338,13 +1323,13 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1358,11 +1343,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>160</v>
+      <c r="A2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1385,14 +1370,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>183</v>
+      <c r="J2" t="s">
+        <v>155</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>184</v>
+      <c r="L2" t="s">
+        <v>156</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1414,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,106 +1422,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1548,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1570,106 +1555,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1703,106 +1688,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1827,117 +1812,122 @@
     <col min="5" max="5" width="20.36328125" customWidth="1"/>
     <col min="6" max="6" width="16.453125" customWidth="1"/>
     <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="21" t="s">
+      <c r="N1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="J2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P2" s="21" t="s">
+      <c r="N2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1969,110 +1959,110 @@
     <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2084,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2107,112 +2097,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="10"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2221,23 +2211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFAE7D6-1B99-4AA1-9BF3-EEBBF96E400F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,112 +2235,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="10"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2370,12 +2348,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2396,110 +2374,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C5F170-6AAB-4B22-9C36-F5F88F84B350}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2508,280 +2632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C5F170-6AAB-4B22-9C36-F5F88F84B350}">
-  <sheetPr>
-    <tabColor theme="2" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="13" width="13.81640625" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5545A-9E94-4E32-A7D1-3A4C5694A2F1}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2803,106 +2661,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="L2" t="s">
+        <v>158</v>
+      </c>
       <c r="M2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2911,137 +3017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" t="s">
-        <v>231</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0619A8A-C0CB-4A8F-A774-3AF3A9888095}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3066,106 +3049,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F043CA74-F5BF-4AF9-BCE6-820929A80E90}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="21.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="B2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3174,125 +3273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F043CA74-F5BF-4AF9-BCE6-820929A80E90}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1B5F10-9258-4BFB-9F3D-697091A59134}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3307,10 +3292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3321,17 +3306,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>146</v>
+      <c r="A2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3340,12 +3325,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB67271-69D1-45CB-AEF6-BCD528FA0FA0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3367,14 +3352,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>144</v>
+      <c r="A2" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3383,12 +3368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0D987-6C09-4C0E-8480-26E9839C876F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3413,9 +3398,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>143</v>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3425,6 +3410,122 @@
       </c>
       <c r="D2" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CBAF4-DCE9-420A-B78D-FEF677E49528}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3434,130 +3535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CBAF4-DCE9-420A-B78D-FEF677E49528}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6142671-F044-41DC-AF2B-B0D11D2EFE2A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6142671-F044-41DC-AF2B-B0D11D2EFE2A}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
     <col min="3" max="3" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3572,15 +3560,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>122</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DFEB6-7C7B-4909-AED7-A143313EA8DF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3589,167 +3608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DFEB6-7C7B-4909-AED7-A143313EA8DF}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.81640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="23.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF3D5F-AE36-46C0-871B-6FBE89306766}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3820,10 +3683,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3847,13 +3710,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3871,7 +3734,131 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="14" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675B47F9-B2B7-4E57-8512-84FE127F209D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3879,7 +3866,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3918,7 +3905,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3936,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3945,12 +3932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A07C8-D5AA-4D1A-9CE3-DAC23D010ED0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3972,106 +3959,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4079,7 +4066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F589DF-9FFD-44EB-BD56-091BE2CCCB58}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4087,7 +4074,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4106,7 +4093,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -4118,12 +4105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4217EEF-7B33-4CD7-9C9F-E0AEA3F42183}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4197,7 +4184,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -4221,13 +4208,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4251,24 +4238,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA145AB-854F-4238-8D6D-B03B35B83F99}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
@@ -4284,140 +4272,140 @@
     <col min="22" max="22" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4427,21 +4415,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B9951-EAA0-4E0B-9ABB-FF67A77E4C4B}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
@@ -4516,13 +4505,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -4546,19 +4535,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4576,12 +4565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B781D0-CACB-41EA-8F0D-BBB0FD59520E}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4609,140 +4598,140 @@
     <col min="22" max="22" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4751,12 +4740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABBCBFC-D7DD-4EDB-B73E-4CBA45016564}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4780,103 +4769,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>82</v>
+      <c r="P2" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4885,12 +4874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1A3998-BC30-49FE-94BC-7F6323B79C6A}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4920,139 +4909,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5062,139 +5051,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC43BAB-E656-470C-A3F6-9EE11D009CA8}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5224,139 +5086,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="12" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="12" t="s">
+      <c r="J1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="15" t="s">
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5369,8 +5358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5439,11 +5428,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>168</v>
+      <c r="A2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5467,13 +5456,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5495,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5545,13 +5534,13 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
@@ -5565,11 +5554,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>172</v>
+      <c r="A2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5593,13 +5582,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>194</v>
+      <c r="L2" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5621,8 +5610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5645,10 +5634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
@@ -5693,10 +5682,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>178</v>
+        <v>211</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5719,14 +5708,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>195</v>
+      <c r="J2" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5748,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5772,106 +5761,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5884,7 +5873,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5906,118 +5895,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="10"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="10"/>
+      <c r="S2" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA50422D-D8DF-450A-AD78-09109D58AF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5391BF-9DED-45E1-915B-91CF048556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="31" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="240">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -396,33 +396,6 @@
   </si>
   <si>
     <t>TOTEXQ27</t>
-  </si>
-  <si>
-    <t>TOTEXQ28</t>
-  </si>
-  <si>
-    <t>TOTEXQ29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTXQ20 </t>
-  </si>
-  <si>
-    <t>TOTEXQ30</t>
-  </si>
-  <si>
-    <t>TOTEXQ31</t>
-  </si>
-  <si>
-    <t>CARTXQ21</t>
-  </si>
-  <si>
-    <t>TOTEXQ32</t>
-  </si>
-  <si>
-    <t>TOTEXQ33</t>
-  </si>
-  <si>
-    <t>CARTXQ22</t>
   </si>
   <si>
     <t>TOTEXQ34</t>
@@ -540,42 +513,6 @@
     <t>SEB2230830161045</t>
   </si>
   <si>
-    <t>TOTEWD01</t>
-  </si>
-  <si>
-    <t>CARTWD01</t>
-  </si>
-  <si>
-    <t>TOTEWD02</t>
-  </si>
-  <si>
-    <t>CARTWD02</t>
-  </si>
-  <si>
-    <t>TOTEWD03</t>
-  </si>
-  <si>
-    <t>CARTWD03</t>
-  </si>
-  <si>
-    <t>TOTEWD04</t>
-  </si>
-  <si>
-    <t>CARTWD04</t>
-  </si>
-  <si>
-    <t>TOTEWD05</t>
-  </si>
-  <si>
-    <t>CARTWD05</t>
-  </si>
-  <si>
-    <t>TOTEWD06</t>
-  </si>
-  <si>
-    <t>CARTWD06</t>
-  </si>
-  <si>
     <t>TOTEWD07</t>
   </si>
   <si>
@@ -612,18 +549,12 @@
     <t>CARTWD10</t>
   </si>
   <si>
-    <t>MGC202310130006</t>
-  </si>
-  <si>
     <t>MGC202310130001</t>
   </si>
   <si>
     <t>MGC202310130002</t>
   </si>
   <si>
-    <t>MGWCS20231310006</t>
-  </si>
-  <si>
     <t>MGWCS20231310001</t>
   </si>
   <si>
@@ -648,9 +579,6 @@
     <t>KILL202310130011</t>
   </si>
   <si>
-    <t>SB202310130014</t>
-  </si>
-  <si>
     <t>SB202310130001</t>
   </si>
   <si>
@@ -666,117 +594,12 @@
     <t>SB202310130005</t>
   </si>
   <si>
-    <t>SB202310130008</t>
-  </si>
-  <si>
-    <t>SB202310130009</t>
-  </si>
-  <si>
-    <t>SB202310130010</t>
-  </si>
-  <si>
-    <t>'SB202310130011</t>
-  </si>
-  <si>
-    <t>'SB202310130012</t>
-  </si>
-  <si>
-    <t>'SB202310130013</t>
-  </si>
-  <si>
-    <t>EXPS202310130011</t>
-  </si>
-  <si>
-    <t>EXPS202310130012</t>
-  </si>
-  <si>
-    <t>SCB202310130018</t>
-  </si>
-  <si>
-    <t>SCB202310130017</t>
-  </si>
-  <si>
-    <t>SBC202310130010</t>
-  </si>
-  <si>
-    <t>SBC202310130001</t>
-  </si>
-  <si>
-    <t>SGW202310130008</t>
-  </si>
-  <si>
-    <t>SGW202310130007</t>
-  </si>
-  <si>
-    <t>EXPS202310130009</t>
-  </si>
-  <si>
-    <t>EXPS202310130008</t>
-  </si>
-  <si>
-    <t>MGWCS20231310005</t>
-  </si>
-  <si>
-    <t>MGC202310130005</t>
-  </si>
-  <si>
-    <t>MBTEST202310130010</t>
-  </si>
-  <si>
-    <t>MBTEST202310130009</t>
-  </si>
-  <si>
     <t>MBTEST202310130008</t>
   </si>
   <si>
     <t>MBTEST202310130007</t>
   </si>
   <si>
-    <t>MBTEST202310130005</t>
-  </si>
-  <si>
-    <t>MBTEST202310130006</t>
-  </si>
-  <si>
-    <t>EXPS202310130013</t>
-  </si>
-  <si>
-    <t>'EXPS202310130014</t>
-  </si>
-  <si>
-    <t>SB202310130015</t>
-  </si>
-  <si>
-    <t>SCB202310130015</t>
-  </si>
-  <si>
-    <t>SCB202310130016</t>
-  </si>
-  <si>
-    <t>SGW202310130005</t>
-  </si>
-  <si>
-    <t>SGW202310130006</t>
-  </si>
-  <si>
-    <t>SCB202310130014</t>
-  </si>
-  <si>
-    <t>SCB202310130013</t>
-  </si>
-  <si>
-    <t>SB202310130016</t>
-  </si>
-  <si>
-    <t>SB202310130017</t>
-  </si>
-  <si>
-    <t>SCB202310130012</t>
-  </si>
-  <si>
-    <t>SCB202310130011</t>
-  </si>
-  <si>
     <t>SB202310130018</t>
   </si>
   <si>
@@ -790,6 +613,186 @@
   </si>
   <si>
     <t>SBC202310130006</t>
+  </si>
+  <si>
+    <t>SBA3231027183251</t>
+  </si>
+  <si>
+    <t>SBA3231027183252</t>
+  </si>
+  <si>
+    <t>TOTEZZ01</t>
+  </si>
+  <si>
+    <t>SBA3231027183253</t>
+  </si>
+  <si>
+    <t>SBA3231027183254</t>
+  </si>
+  <si>
+    <t>TOTEZZ02</t>
+  </si>
+  <si>
+    <t>SBA3231027183255</t>
+  </si>
+  <si>
+    <t>SBA3231027183256</t>
+  </si>
+  <si>
+    <t>TOTEZZ03</t>
+  </si>
+  <si>
+    <t>CARTZZ03</t>
+  </si>
+  <si>
+    <t>CARTZZ02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>CARTZZ01</t>
+  </si>
+  <si>
+    <t>SBA3231027184414</t>
+  </si>
+  <si>
+    <t>SBA3231027184413</t>
+  </si>
+  <si>
+    <t>SBA3231027184412</t>
+  </si>
+  <si>
+    <t>SBA3231027184411</t>
+  </si>
+  <si>
+    <t>SCB2231027184429</t>
+  </si>
+  <si>
+    <t>SCB2231027184430</t>
+  </si>
+  <si>
+    <t>SCB1231027184423</t>
+  </si>
+  <si>
+    <t>SCB1231027184424</t>
+  </si>
+  <si>
+    <t>SCB1231027184425</t>
+  </si>
+  <si>
+    <t>SCB1231027184426</t>
+  </si>
+  <si>
+    <t>SGC1231027184442</t>
+  </si>
+  <si>
+    <t>SGC1231027184443</t>
+  </si>
+  <si>
+    <t>SGC1231027184444</t>
+  </si>
+  <si>
+    <t>SGC1231027184445</t>
+  </si>
+  <si>
+    <t>SGW1231027210353</t>
+  </si>
+  <si>
+    <t>SGW1231027210352</t>
+  </si>
+  <si>
+    <t>SGW1231027210351</t>
+  </si>
+  <si>
+    <t>SGW1231027210350</t>
+  </si>
+  <si>
+    <t>SEB2231027210412</t>
+  </si>
+  <si>
+    <t>SEB2231027210411</t>
+  </si>
+  <si>
+    <t>SEB2231027210410</t>
+  </si>
+  <si>
+    <t>SEB2231027210409</t>
+  </si>
+  <si>
+    <t>EXPS202310270001</t>
+  </si>
+  <si>
+    <t>EXPS202310270002</t>
+  </si>
+  <si>
+    <t>EXPS202310270003</t>
+  </si>
+  <si>
+    <t>EXPS202310270004</t>
+  </si>
+  <si>
+    <t>MGC202310270003</t>
+  </si>
+  <si>
+    <t>MGC202310270004</t>
+  </si>
+  <si>
+    <t>MGW202301270001</t>
+  </si>
+  <si>
+    <t>MGW202301270002</t>
+  </si>
+  <si>
+    <t>MBC202310270001</t>
+  </si>
+  <si>
+    <t>MBC202310270002</t>
+  </si>
+  <si>
+    <t>MBC202310270003</t>
+  </si>
+  <si>
+    <t>MBC202310270004</t>
+  </si>
+  <si>
+    <t>SBA1231027210319</t>
+  </si>
+  <si>
+    <t>SBA1231027210318</t>
+  </si>
+  <si>
+    <t>TOTEZZ04</t>
+  </si>
+  <si>
+    <t>CARTZZ04</t>
+  </si>
+  <si>
+    <t>TOTEZZ05</t>
+  </si>
+  <si>
+    <t>CARTZZ05</t>
+  </si>
+  <si>
+    <t>TOTEZZ06</t>
+  </si>
+  <si>
+    <t>CARTZZ06</t>
+  </si>
+  <si>
+    <t>CARTXQ41</t>
+  </si>
+  <si>
+    <t>CARTXQ43</t>
+  </si>
+  <si>
+    <t>CARTXQ45</t>
+  </si>
+  <si>
+    <t>CARTXQ46</t>
   </si>
 </sst>
 </file>
@@ -862,7 +865,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,11 +993,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,10 +1359,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1371,13 +1386,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1387,6 +1402,19 @@
       </c>
       <c r="O2" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="11:30" x14ac:dyDescent="0.35">
+      <c r="K20" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="11:30" x14ac:dyDescent="0.35">
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="11:30" x14ac:dyDescent="0.35">
+      <c r="AD22" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1399,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,10 +1502,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1501,16 +1529,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1533,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,10 +1635,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1666,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1740,10 +1768,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1799,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1820,10 +1848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -1847,22 +1875,22 @@
       <c r="I1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
@@ -1877,10 +1905,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>5</v>
@@ -1941,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310205EE-CAFF-40F5-B011-64E0293D21E5}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2015,10 +2043,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2074,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2152,10 +2180,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>223</v>
+        <v>194</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2214,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2290,10 +2318,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2352,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2428,10 +2456,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2492,8 +2520,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2569,10 +2597,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2638,8 +2666,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2713,10 +2741,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2740,16 +2768,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2773,7 +2801,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2840,10 +2868,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2867,13 +2895,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2896,7 +2924,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2961,10 +2989,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2988,16 +3016,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3023,8 +3051,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3101,10 +3129,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3128,16 +3156,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3161,7 +3189,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3221,10 +3249,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3248,13 +3276,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3307,10 +3335,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -3353,7 +3381,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3400,7 +3428,7 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3483,10 +3511,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3510,13 +3538,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3562,10 +3590,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3710,13 +3738,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3739,7 +3767,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3807,10 +3835,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3834,13 +3862,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -4038,16 +4066,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4093,7 +4121,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -4208,13 +4236,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4342,10 +4370,10 @@
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>5</v>
@@ -4369,25 +4397,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>15</v>
@@ -4505,13 +4533,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -4535,19 +4563,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4668,10 +4696,10 @@
     </row>
     <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4695,16 +4723,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
@@ -4713,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -4820,10 +4848,10 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -4978,10 +5006,10 @@
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5005,25 +5033,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5055,7 +5083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC43BAB-E656-470C-A3F6-9EE11D009CA8}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5155,10 +5183,10 @@
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5182,25 +5210,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5231,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5303,10 +5331,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5330,13 +5358,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5358,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5429,10 +5457,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5456,13 +5484,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5484,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5554,11 +5582,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>210</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5582,13 +5610,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5610,8 +5638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5682,10 +5710,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5709,13 +5737,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5737,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5813,10 +5841,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5840,7 +5868,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>85</v>
@@ -5849,7 +5877,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -5872,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5953,10 +5981,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5980,22 +6008,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5391BF-9DED-45E1-915B-91CF048556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA9E1B-6155-4B37-8D60-777C0B1BBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="241">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -329,75 +329,15 @@
     <t>07/25/2023</t>
   </si>
   <si>
-    <t>TOTEXQ13</t>
-  </si>
-  <si>
-    <t>CARTXQ11</t>
-  </si>
-  <si>
     <t>CARTXQ12</t>
   </si>
   <si>
-    <t>TOTEXQ15</t>
-  </si>
-  <si>
-    <t>TOTEXQ16</t>
-  </si>
-  <si>
     <t>TOTEXQ17</t>
   </si>
   <si>
     <t>TOTEXQ18</t>
   </si>
   <si>
-    <t>CARTXQ13</t>
-  </si>
-  <si>
-    <t>TOTEXQ19</t>
-  </si>
-  <si>
-    <t>TOTEXQ20</t>
-  </si>
-  <si>
-    <t>TOTEXQ21</t>
-  </si>
-  <si>
-    <t>CARTXQ14</t>
-  </si>
-  <si>
-    <t>TOTEXQ22</t>
-  </si>
-  <si>
-    <t>TOTEXQ23</t>
-  </si>
-  <si>
-    <t>CARTXQ15</t>
-  </si>
-  <si>
-    <t>TOTEXQ24</t>
-  </si>
-  <si>
-    <t>CARTXQ16</t>
-  </si>
-  <si>
-    <t>TOTEXQ25</t>
-  </si>
-  <si>
-    <t>CARTXQ17</t>
-  </si>
-  <si>
-    <t>TOTEXQ26</t>
-  </si>
-  <si>
-    <t>CARTXQ18</t>
-  </si>
-  <si>
-    <t>CARTXQ19</t>
-  </si>
-  <si>
-    <t>TOTEXQ27</t>
-  </si>
-  <si>
     <t>TOTEXQ34</t>
   </si>
   <si>
@@ -506,10 +446,6 @@
     <t>TOTEXQ57</t>
   </si>
   <si>
-    <t xml:space="preserve">
-MGC4230818110127</t>
-  </si>
-  <si>
     <t>SEB2230830161045</t>
   </si>
   <si>
@@ -519,36 +455,9 @@
     <t>CARTWD07</t>
   </si>
   <si>
-    <t>TOTEWD08</t>
-  </si>
-  <si>
-    <t>CARTWD08</t>
-  </si>
-  <si>
-    <t>TOTEWD09</t>
-  </si>
-  <si>
-    <t>TOTEWD10</t>
-  </si>
-  <si>
-    <t>TOTEWD11</t>
-  </si>
-  <si>
-    <t>TOTEWD12</t>
-  </si>
-  <si>
     <t>CARTWD09</t>
   </si>
   <si>
-    <t>TOTEWD13</t>
-  </si>
-  <si>
-    <t>TOTEWD14</t>
-  </si>
-  <si>
-    <t>CARTWD10</t>
-  </si>
-  <si>
     <t>MGC202310130001</t>
   </si>
   <si>
@@ -579,21 +488,6 @@
     <t>KILL202310130011</t>
   </si>
   <si>
-    <t>SB202310130001</t>
-  </si>
-  <si>
-    <t>SB202310130002</t>
-  </si>
-  <si>
-    <t>SB202310130003</t>
-  </si>
-  <si>
-    <t>SB202310130004</t>
-  </si>
-  <si>
-    <t>SB202310130005</t>
-  </si>
-  <si>
     <t>MBTEST202310130008</t>
   </si>
   <si>
@@ -657,54 +551,12 @@
     <t>CARTZZ01</t>
   </si>
   <si>
-    <t>SBA3231027184414</t>
-  </si>
-  <si>
-    <t>SBA3231027184413</t>
-  </si>
-  <si>
-    <t>SBA3231027184412</t>
-  </si>
-  <si>
-    <t>SBA3231027184411</t>
-  </si>
-  <si>
     <t>SCB2231027184429</t>
   </si>
   <si>
     <t>SCB2231027184430</t>
   </si>
   <si>
-    <t>SCB1231027184423</t>
-  </si>
-  <si>
-    <t>SCB1231027184424</t>
-  </si>
-  <si>
-    <t>SCB1231027184425</t>
-  </si>
-  <si>
-    <t>SCB1231027184426</t>
-  </si>
-  <si>
-    <t>SGC1231027184442</t>
-  </si>
-  <si>
-    <t>SGC1231027184443</t>
-  </si>
-  <si>
-    <t>SGC1231027184444</t>
-  </si>
-  <si>
-    <t>SGC1231027184445</t>
-  </si>
-  <si>
-    <t>SGW1231027210353</t>
-  </si>
-  <si>
-    <t>SGW1231027210352</t>
-  </si>
-  <si>
     <t>SGW1231027210351</t>
   </si>
   <si>
@@ -717,30 +569,6 @@
     <t>SEB2231027210411</t>
   </si>
   <si>
-    <t>SEB2231027210410</t>
-  </si>
-  <si>
-    <t>SEB2231027210409</t>
-  </si>
-  <si>
-    <t>EXPS202310270001</t>
-  </si>
-  <si>
-    <t>EXPS202310270002</t>
-  </si>
-  <si>
-    <t>EXPS202310270003</t>
-  </si>
-  <si>
-    <t>EXPS202310270004</t>
-  </si>
-  <si>
-    <t>MGC202310270003</t>
-  </si>
-  <si>
-    <t>MGC202310270004</t>
-  </si>
-  <si>
     <t>MGW202301270001</t>
   </si>
   <si>
@@ -759,40 +587,214 @@
     <t>MBC202310270004</t>
   </si>
   <si>
-    <t>SBA1231027210319</t>
-  </si>
-  <si>
-    <t>SBA1231027210318</t>
-  </si>
-  <si>
     <t>TOTEZZ04</t>
   </si>
   <si>
     <t>CARTZZ04</t>
   </si>
   <si>
-    <t>TOTEZZ05</t>
-  </si>
-  <si>
-    <t>CARTZZ05</t>
-  </si>
-  <si>
     <t>TOTEZZ06</t>
   </si>
   <si>
     <t>CARTZZ06</t>
   </si>
   <si>
-    <t>CARTXQ41</t>
-  </si>
-  <si>
-    <t>CARTXQ43</t>
-  </si>
-  <si>
-    <t>CARTXQ45</t>
-  </si>
-  <si>
-    <t>CARTXQ46</t>
+    <t>SB202330010003</t>
+  </si>
+  <si>
+    <t>SB202330010004</t>
+  </si>
+  <si>
+    <t>TOTEVV01</t>
+  </si>
+  <si>
+    <t>TOTEVV02</t>
+  </si>
+  <si>
+    <t>CARTVV01</t>
+  </si>
+  <si>
+    <t>TOTEVV05</t>
+  </si>
+  <si>
+    <t>TOTEVV06</t>
+  </si>
+  <si>
+    <t>CARTVV06</t>
+  </si>
+  <si>
+    <t>EXP202330100015</t>
+  </si>
+  <si>
+    <t>EXP202330100016</t>
+  </si>
+  <si>
+    <t>TOTEVV13</t>
+  </si>
+  <si>
+    <t>TOTEVV14</t>
+  </si>
+  <si>
+    <t>TOTEVV15</t>
+  </si>
+  <si>
+    <t>CARTVV13</t>
+  </si>
+  <si>
+    <t>CARTVV14</t>
+  </si>
+  <si>
+    <t>TOTEVV16</t>
+  </si>
+  <si>
+    <t>CARTVV16</t>
+  </si>
+  <si>
+    <t>TOTEVV19</t>
+  </si>
+  <si>
+    <t>TOTEVV20</t>
+  </si>
+  <si>
+    <t>TOTEVV21</t>
+  </si>
+  <si>
+    <t>TOTEVV22</t>
+  </si>
+  <si>
+    <t>SG3010230001</t>
+  </si>
+  <si>
+    <t>SG3010230002</t>
+  </si>
+  <si>
+    <t>TOTEVV25</t>
+  </si>
+  <si>
+    <t>CARTVV25</t>
+  </si>
+  <si>
+    <t>TOTEVV26</t>
+  </si>
+  <si>
+    <t>TOTEVV27</t>
+  </si>
+  <si>
+    <t>CARTVV26</t>
+  </si>
+  <si>
+    <t>MEXP301023001</t>
+  </si>
+  <si>
+    <t>MEXP301023002</t>
+  </si>
+  <si>
+    <t>MGC301023001</t>
+  </si>
+  <si>
+    <t>MGC301023002</t>
+  </si>
+  <si>
+    <t>TOTEVV29</t>
+  </si>
+  <si>
+    <t>TOTEVV28</t>
+  </si>
+  <si>
+    <t>CARTVV28</t>
+  </si>
+  <si>
+    <t>MEXP301023003</t>
+  </si>
+  <si>
+    <t>MEXP301023004</t>
+  </si>
+  <si>
+    <t>TOTEVV30</t>
+  </si>
+  <si>
+    <t>TOTEVV31</t>
+  </si>
+  <si>
+    <t>CARTVV31</t>
+  </si>
+  <si>
+    <t>SG3010230003</t>
+  </si>
+  <si>
+    <t>SG3010230004</t>
+  </si>
+  <si>
+    <t>TOTEVV33</t>
+  </si>
+  <si>
+    <t>CARTVV33</t>
+  </si>
+  <si>
+    <t>SB20233010002</t>
+  </si>
+  <si>
+    <t>SB20233010003</t>
+  </si>
+  <si>
+    <t>TOTEVV34</t>
+  </si>
+  <si>
+    <t>CARTVV34</t>
+  </si>
+  <si>
+    <t>TOTEVV35</t>
+  </si>
+  <si>
+    <t>CARTVV35</t>
+  </si>
+  <si>
+    <t>SBC20233010003</t>
+  </si>
+  <si>
+    <t>SBC20233010006</t>
+  </si>
+  <si>
+    <t>TOTEVV36</t>
+  </si>
+  <si>
+    <t>CARTVV36</t>
+  </si>
+  <si>
+    <t>SB20233010004</t>
+  </si>
+  <si>
+    <t>SB20233010006</t>
+  </si>
+  <si>
+    <t>TOTEVV37</t>
+  </si>
+  <si>
+    <t>TOTEVV38</t>
+  </si>
+  <si>
+    <t>CARTVV38</t>
+  </si>
+  <si>
+    <t>SB202310300031</t>
+  </si>
+  <si>
+    <t>SB202310300032</t>
+  </si>
+  <si>
+    <t>SB2023301000T1</t>
+  </si>
+  <si>
+    <t>SB20233010001</t>
+  </si>
+  <si>
+    <t>SBC20233010004</t>
+  </si>
+  <si>
+    <t>SBC2023301007</t>
+  </si>
+  <si>
+    <t>MGC2510230040</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1359,10 +1361,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1386,13 +1388,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1406,7 +1408,7 @@
     </row>
     <row r="20" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K20" s="3" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="11:30" x14ac:dyDescent="0.35">
@@ -1414,7 +1416,7 @@
     </row>
     <row r="22" spans="11:30" x14ac:dyDescent="0.35">
       <c r="AD22" s="3" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1430,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1502,10 +1504,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1529,16 +1531,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1561,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1635,10 +1637,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1662,16 +1664,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1768,10 +1770,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1795,16 +1797,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1827,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1905,10 +1907,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>5</v>
@@ -1932,22 +1934,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>15</v>
@@ -1969,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310205EE-CAFF-40F5-B011-64E0293D21E5}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2043,10 +2045,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2070,16 +2072,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2102,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2180,10 +2182,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2207,13 +2209,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2242,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2318,10 +2320,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2345,13 +2347,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2380,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2456,10 +2458,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2483,13 +2485,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2520,8 +2522,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2597,10 +2599,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2624,13 +2626,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2666,8 +2668,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2741,10 +2743,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2768,16 +2770,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2868,10 +2870,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2895,13 +2897,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2989,10 +2991,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3016,16 +3018,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3051,8 +3053,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3129,10 +3131,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3156,16 +3158,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3189,7 +3191,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3249,10 +3251,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3276,13 +3278,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3305,7 +3307,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3335,10 +3337,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -3358,7 +3360,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3381,7 +3383,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3401,7 +3403,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3426,9 +3428,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3451,7 +3453,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3511,10 +3513,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3538,13 +3540,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3566,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6142671-F044-41DC-AF2B-B0D11D2EFE2A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3590,10 +3592,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3738,13 +3740,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3835,10 +3837,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3862,13 +3864,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -4066,16 +4068,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4121,7 +4123,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -4236,13 +4238,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4370,10 +4372,10 @@
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>5</v>
@@ -4397,25 +4399,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>15</v>
@@ -4533,13 +4535,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -4563,19 +4565,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4696,10 +4698,10 @@
     </row>
     <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4723,16 +4725,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
@@ -4741,7 +4743,7 @@
         <v>75</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -4848,10 +4850,10 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5006,10 +5008,10 @@
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5033,25 +5035,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5183,10 +5185,10 @@
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5210,25 +5212,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5331,10 +5333,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5358,13 +5360,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5386,8 +5388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5457,10 +5459,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5484,13 +5486,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5583,10 +5585,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5610,13 +5612,13 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5710,10 +5712,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5737,13 +5739,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5765,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5841,10 +5843,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5868,16 +5870,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -5901,7 +5903,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5981,10 +5983,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -6008,22 +6010,22 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA9E1B-6155-4B37-8D60-777C0B1BBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876A01E-C3C8-447C-B1AB-A3988D582633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="235">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -191,6 +191,12 @@
     <t>3/01/2022</t>
   </si>
   <si>
+    <t>AAMGCTEST20</t>
+  </si>
+  <si>
+    <t>AAMGCTEST21</t>
+  </si>
+  <si>
     <t>BBMGCTEST15</t>
   </si>
   <si>
@@ -290,18 +296,6 @@
     <t>Pack Station T1</t>
   </si>
   <si>
-    <t>TOTEAZ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTEAZ002	</t>
-  </si>
-  <si>
-    <t>CARTAZ01</t>
-  </si>
-  <si>
-    <t>CARTZA01</t>
-  </si>
-  <si>
     <t>SBC221207000040</t>
   </si>
   <si>
@@ -320,6 +314,12 @@
     <t>CARTKEY2</t>
   </si>
   <si>
+    <t>KILL0520230006</t>
+  </si>
+  <si>
+    <t>FILL20230002</t>
+  </si>
+  <si>
     <t>CarrierServer</t>
   </si>
   <si>
@@ -329,479 +329,469 @@
     <t>07/25/2023</t>
   </si>
   <si>
-    <t>CARTXQ12</t>
-  </si>
-  <si>
-    <t>TOTEXQ17</t>
-  </si>
-  <si>
-    <t>TOTEXQ18</t>
-  </si>
-  <si>
-    <t>TOTEXQ34</t>
-  </si>
-  <si>
-    <t>CARTXQ23</t>
-  </si>
-  <si>
-    <t>TOTEXQ35</t>
-  </si>
-  <si>
-    <t>CARTXQ24</t>
-  </si>
-  <si>
-    <t>TOTEXQ36</t>
-  </si>
-  <si>
-    <t>CARTXQ25</t>
-  </si>
-  <si>
-    <t>TOTEXQ37</t>
-  </si>
-  <si>
-    <t>TOTEXQ38</t>
-  </si>
-  <si>
-    <t>CARTXQ26</t>
-  </si>
-  <si>
-    <t>TOTEXQ39</t>
-  </si>
-  <si>
-    <t>TOTEXQ40</t>
-  </si>
-  <si>
-    <t>TOTEXQ41</t>
-  </si>
-  <si>
-    <t>TOTEXQ42</t>
-  </si>
-  <si>
-    <t>CARTXQ27</t>
-  </si>
-  <si>
-    <t>CARTXQ28</t>
-  </si>
-  <si>
-    <t>CARTXQ29</t>
-  </si>
-  <si>
-    <t>TOTEXQ43</t>
-  </si>
-  <si>
-    <t>TOTEXQ44</t>
-  </si>
-  <si>
-    <t>TOTEXQ45</t>
-  </si>
-  <si>
-    <t>TOTEXQ46</t>
-  </si>
-  <si>
-    <t>TOTEXQ47</t>
-  </si>
-  <si>
-    <t>TOTEXQ48</t>
-  </si>
-  <si>
-    <t>TOTEXQ49</t>
-  </si>
-  <si>
-    <t>CARTXQ30</t>
-  </si>
-  <si>
-    <t>TOTEXQ50</t>
-  </si>
-  <si>
-    <t>TOTEXQ51</t>
-  </si>
-  <si>
-    <t>TOTEXQ52</t>
-  </si>
-  <si>
-    <t>TOTEXQ53</t>
-  </si>
-  <si>
-    <t>CARTXQ31</t>
-  </si>
-  <si>
-    <t>CARTXQ32</t>
-  </si>
-  <si>
-    <t>TOTEXQ54</t>
-  </si>
-  <si>
-    <t>CARTXQ33</t>
-  </si>
-  <si>
-    <t>CARTXQ34</t>
-  </si>
-  <si>
-    <t>TOTEXQ55</t>
-  </si>
-  <si>
-    <t>TOTEXQ56</t>
-  </si>
-  <si>
-    <t>TOTEXQ57</t>
+    <t xml:space="preserve">
+MGC4230818110127</t>
   </si>
   <si>
     <t>SEB2230830161045</t>
   </si>
   <si>
-    <t>TOTEWD07</t>
-  </si>
-  <si>
-    <t>CARTWD07</t>
-  </si>
-  <si>
-    <t>CARTWD09</t>
-  </si>
-  <si>
-    <t>MGC202310130001</t>
-  </si>
-  <si>
-    <t>MGC202310130002</t>
-  </si>
-  <si>
-    <t>MGWCS20231310001</t>
-  </si>
-  <si>
-    <t>MGWCS20231310002</t>
-  </si>
-  <si>
-    <t>MGC202310130003</t>
-  </si>
-  <si>
-    <t>MGC202310130004</t>
-  </si>
-  <si>
-    <t>MGWCS20231310003</t>
-  </si>
-  <si>
-    <t>MGWCS20231310004</t>
-  </si>
-  <si>
-    <t>FILL202310130001</t>
-  </si>
-  <si>
-    <t>KILL202310130011</t>
-  </si>
-  <si>
-    <t>MBTEST202310130008</t>
-  </si>
-  <si>
-    <t>MBTEST202310130007</t>
-  </si>
-  <si>
-    <t>SB202310130018</t>
-  </si>
-  <si>
-    <t>SB202310130019</t>
-  </si>
-  <si>
-    <t>SBC202310130007</t>
-  </si>
-  <si>
-    <t>SBC202310130008</t>
-  </si>
-  <si>
-    <t>SBC202310130006</t>
-  </si>
-  <si>
-    <t>SBA3231027183251</t>
-  </si>
-  <si>
-    <t>SBA3231027183252</t>
-  </si>
-  <si>
-    <t>TOTEZZ01</t>
-  </si>
-  <si>
-    <t>SBA3231027183253</t>
-  </si>
-  <si>
-    <t>SBA3231027183254</t>
-  </si>
-  <si>
-    <t>TOTEZZ02</t>
-  </si>
-  <si>
-    <t>SBA3231027183255</t>
-  </si>
-  <si>
-    <t>SBA3231027183256</t>
-  </si>
-  <si>
-    <t>TOTEZZ03</t>
-  </si>
-  <si>
-    <t>CARTZZ03</t>
-  </si>
-  <si>
-    <t>CARTZZ02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm </t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>CARTZZ01</t>
-  </si>
-  <si>
-    <t>SCB2231027184429</t>
-  </si>
-  <si>
-    <t>SCB2231027184430</t>
-  </si>
-  <si>
-    <t>SGW1231027210351</t>
-  </si>
-  <si>
-    <t>SGW1231027210350</t>
-  </si>
-  <si>
-    <t>SEB2231027210412</t>
-  </si>
-  <si>
-    <t>SEB2231027210411</t>
-  </si>
-  <si>
-    <t>MGW202301270001</t>
-  </si>
-  <si>
-    <t>MGW202301270002</t>
-  </si>
-  <si>
-    <t>MBC202310270001</t>
-  </si>
-  <si>
-    <t>MBC202310270002</t>
-  </si>
-  <si>
-    <t>MBC202310270003</t>
-  </si>
-  <si>
-    <t>MBC202310270004</t>
-  </si>
-  <si>
-    <t>TOTEZZ04</t>
-  </si>
-  <si>
-    <t>CARTZZ04</t>
-  </si>
-  <si>
-    <t>TOTEZZ06</t>
-  </si>
-  <si>
-    <t>CARTZZ06</t>
-  </si>
-  <si>
-    <t>SB202330010003</t>
-  </si>
-  <si>
-    <t>SB202330010004</t>
-  </si>
-  <si>
-    <t>TOTEVV01</t>
-  </si>
-  <si>
-    <t>TOTEVV02</t>
-  </si>
-  <si>
-    <t>CARTVV01</t>
-  </si>
-  <si>
-    <t>TOTEVV05</t>
-  </si>
-  <si>
-    <t>TOTEVV06</t>
-  </si>
-  <si>
-    <t>CARTVV06</t>
-  </si>
-  <si>
-    <t>EXP202330100015</t>
-  </si>
-  <si>
-    <t>EXP202330100016</t>
-  </si>
-  <si>
-    <t>TOTEVV13</t>
-  </si>
-  <si>
-    <t>TOTEVV14</t>
-  </si>
-  <si>
-    <t>TOTEVV15</t>
-  </si>
-  <si>
-    <t>CARTVV13</t>
-  </si>
-  <si>
-    <t>CARTVV14</t>
-  </si>
-  <si>
-    <t>TOTEVV16</t>
-  </si>
-  <si>
-    <t>CARTVV16</t>
-  </si>
-  <si>
-    <t>TOTEVV19</t>
-  </si>
-  <si>
-    <t>TOTEVV20</t>
-  </si>
-  <si>
-    <t>TOTEVV21</t>
-  </si>
-  <si>
-    <t>TOTEVV22</t>
-  </si>
-  <si>
-    <t>SG3010230001</t>
-  </si>
-  <si>
-    <t>SG3010230002</t>
-  </si>
-  <si>
-    <t>TOTEVV25</t>
-  </si>
-  <si>
-    <t>CARTVV25</t>
-  </si>
-  <si>
-    <t>TOTEVV26</t>
-  </si>
-  <si>
-    <t>TOTEVV27</t>
-  </si>
-  <si>
-    <t>CARTVV26</t>
-  </si>
-  <si>
-    <t>MEXP301023001</t>
-  </si>
-  <si>
-    <t>MEXP301023002</t>
-  </si>
-  <si>
-    <t>MGC301023001</t>
-  </si>
-  <si>
-    <t>MGC301023002</t>
-  </si>
-  <si>
-    <t>TOTEVV29</t>
-  </si>
-  <si>
-    <t>TOTEVV28</t>
-  </si>
-  <si>
-    <t>CARTVV28</t>
-  </si>
-  <si>
-    <t>MEXP301023003</t>
-  </si>
-  <si>
-    <t>MEXP301023004</t>
-  </si>
-  <si>
-    <t>TOTEVV30</t>
-  </si>
-  <si>
-    <t>TOTEVV31</t>
-  </si>
-  <si>
-    <t>CARTVV31</t>
-  </si>
-  <si>
-    <t>SG3010230003</t>
-  </si>
-  <si>
-    <t>SG3010230004</t>
-  </si>
-  <si>
-    <t>TOTEVV33</t>
-  </si>
-  <si>
-    <t>CARTVV33</t>
-  </si>
-  <si>
-    <t>SB20233010002</t>
-  </si>
-  <si>
-    <t>SB20233010003</t>
-  </si>
-  <si>
-    <t>TOTEVV34</t>
-  </si>
-  <si>
-    <t>CARTVV34</t>
-  </si>
-  <si>
-    <t>TOTEVV35</t>
-  </si>
-  <si>
-    <t>CARTVV35</t>
-  </si>
-  <si>
-    <t>SBC20233010003</t>
-  </si>
-  <si>
-    <t>SBC20233010006</t>
-  </si>
-  <si>
-    <t>TOTEVV36</t>
-  </si>
-  <si>
-    <t>CARTVV36</t>
-  </si>
-  <si>
-    <t>SB20233010004</t>
-  </si>
-  <si>
-    <t>SB20233010006</t>
-  </si>
-  <si>
-    <t>TOTEVV37</t>
-  </si>
-  <si>
-    <t>TOTEVV38</t>
-  </si>
-  <si>
-    <t>CARTVV38</t>
-  </si>
-  <si>
-    <t>SB202310300031</t>
-  </si>
-  <si>
-    <t>SB202310300032</t>
-  </si>
-  <si>
-    <t>SB2023301000T1</t>
-  </si>
-  <si>
-    <t>SB20233010001</t>
-  </si>
-  <si>
-    <t>SBC20233010004</t>
-  </si>
-  <si>
-    <t>SBC2023301007</t>
-  </si>
-  <si>
-    <t>MGC2510230040</t>
+    <t>TOTEYV08</t>
+  </si>
+  <si>
+    <t>TOTEYV09</t>
+  </si>
+  <si>
+    <t>TOTEYV10</t>
+  </si>
+  <si>
+    <t>TOTEYV11</t>
+  </si>
+  <si>
+    <t>TOTEYV39</t>
+  </si>
+  <si>
+    <t>TOTEYV40</t>
+  </si>
+  <si>
+    <t>TOTEYV41</t>
+  </si>
+  <si>
+    <t>TOTEYV42</t>
+  </si>
+  <si>
+    <t>CARTYV27</t>
+  </si>
+  <si>
+    <t>CARTYV28</t>
+  </si>
+  <si>
+    <t>TOTEYE01</t>
+  </si>
+  <si>
+    <t>CARTYE01</t>
+  </si>
+  <si>
+    <t>TOTEYE02</t>
+  </si>
+  <si>
+    <t>CARTYE02</t>
+  </si>
+  <si>
+    <t>TOTEYE03</t>
+  </si>
+  <si>
+    <t>CARTYE03</t>
+  </si>
+  <si>
+    <t>TOTEYE04</t>
+  </si>
+  <si>
+    <t>CARTYE04</t>
+  </si>
+  <si>
+    <t>TOTEYE05</t>
+  </si>
+  <si>
+    <t>CARTYE05</t>
+  </si>
+  <si>
+    <t>TOTEYE06</t>
+  </si>
+  <si>
+    <t>CARTYE06</t>
+  </si>
+  <si>
+    <t>TOTEYE07</t>
+  </si>
+  <si>
+    <t>CARTYE07</t>
+  </si>
+  <si>
+    <t>TOTEYE13</t>
+  </si>
+  <si>
+    <t>CARTYE08</t>
+  </si>
+  <si>
+    <t>TOTEYE12</t>
+  </si>
+  <si>
+    <t>CARTYE09</t>
+  </si>
+  <si>
+    <t>TOTEYE14</t>
+  </si>
+  <si>
+    <t>CARTYE10</t>
+  </si>
+  <si>
+    <t>TOTEYE15</t>
+  </si>
+  <si>
+    <t>CARTYE11</t>
+  </si>
+  <si>
+    <t>TOTEYE16</t>
+  </si>
+  <si>
+    <t>TOTEYE17</t>
+  </si>
+  <si>
+    <t>TOTEYE18</t>
+  </si>
+  <si>
+    <t>CARTYE12</t>
+  </si>
+  <si>
+    <t>TOTEYE19</t>
+  </si>
+  <si>
+    <t>TOTEYE20</t>
+  </si>
+  <si>
+    <t>TOTEYE21</t>
+  </si>
+  <si>
+    <t>CARTYE13</t>
+  </si>
+  <si>
+    <t>CARTYE14</t>
+  </si>
+  <si>
+    <t>TOTEYE22</t>
+  </si>
+  <si>
+    <t>TOTEYE23</t>
+  </si>
+  <si>
+    <t>CARTYE15</t>
+  </si>
+  <si>
+    <t>CARTYE21</t>
+  </si>
+  <si>
+    <t>TOTEYE26</t>
+  </si>
+  <si>
+    <t>CARTYE18</t>
+  </si>
+  <si>
+    <t>TOTEYE27</t>
+  </si>
+  <si>
+    <t>CARTYE19</t>
+  </si>
+  <si>
+    <t>TOTEYE28</t>
+  </si>
+  <si>
+    <t>TOTEYE29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTYE20 </t>
+  </si>
+  <si>
+    <t>TOTEYE30</t>
+  </si>
+  <si>
+    <t>TOTEYE31</t>
+  </si>
+  <si>
+    <t>TOTEYE32</t>
+  </si>
+  <si>
+    <t>TOTEYE33</t>
+  </si>
+  <si>
+    <t>CARTYE22</t>
+  </si>
+  <si>
+    <t>TOTEYE34</t>
+  </si>
+  <si>
+    <t>CARTYE23</t>
+  </si>
+  <si>
+    <t>TOTEYE35</t>
+  </si>
+  <si>
+    <t>CARTYE24</t>
+  </si>
+  <si>
+    <t>TOTEYE36</t>
+  </si>
+  <si>
+    <t>TOTEYE37</t>
+  </si>
+  <si>
+    <t>CARTYE25</t>
+  </si>
+  <si>
+    <t>TOTEYE38</t>
+  </si>
+  <si>
+    <t>CARTYE26</t>
+  </si>
+  <si>
+    <t>TOTEYE43</t>
+  </si>
+  <si>
+    <t>TOTEYE44</t>
+  </si>
+  <si>
+    <t>TOTEYE45</t>
+  </si>
+  <si>
+    <t>CARTYE29</t>
+  </si>
+  <si>
+    <t>TOTEYE46</t>
+  </si>
+  <si>
+    <t>TOTEYE47</t>
+  </si>
+  <si>
+    <t>TOTEYE48</t>
+  </si>
+  <si>
+    <t>TOTEYE49</t>
+  </si>
+  <si>
+    <t>CARTYE30</t>
+  </si>
+  <si>
+    <t>TOTEYE001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTEYE002	</t>
+  </si>
+  <si>
+    <t>TOTEYE50</t>
+  </si>
+  <si>
+    <t>TOTEYE51</t>
+  </si>
+  <si>
+    <t>TOTEYE52</t>
+  </si>
+  <si>
+    <t>TOTEYE53</t>
+  </si>
+  <si>
+    <t>CARTYE31</t>
+  </si>
+  <si>
+    <t>CARTYE32</t>
+  </si>
+  <si>
+    <t>TOTEYE54</t>
+  </si>
+  <si>
+    <t>TOTEYE55</t>
+  </si>
+  <si>
+    <t>TOTEYE56</t>
+  </si>
+  <si>
+    <t>TOTEYE57</t>
+  </si>
+  <si>
+    <t>CARTYE33</t>
+  </si>
+  <si>
+    <t>CARTYE34</t>
+  </si>
+  <si>
+    <t>MGC202311100002</t>
+  </si>
+  <si>
+    <t>MGC202311100001</t>
+  </si>
+  <si>
+    <t>SB202311100002</t>
+  </si>
+  <si>
+    <t>SB202311100001</t>
+  </si>
+  <si>
+    <t>SB202311100004</t>
+  </si>
+  <si>
+    <t>SB202311100003</t>
+  </si>
+  <si>
+    <t>SB202311100006</t>
+  </si>
+  <si>
+    <t>SB202311100005</t>
+  </si>
+  <si>
+    <t>SBC202311100012</t>
+  </si>
+  <si>
+    <t>SBC202311100011</t>
+  </si>
+  <si>
+    <t>SGC20231110022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SGC20231110021</t>
+  </si>
+  <si>
+    <t>SGW202311100002</t>
+  </si>
+  <si>
+    <t>SGW202311100001</t>
+  </si>
+  <si>
+    <t>EXPS20231110002</t>
+  </si>
+  <si>
+    <t>EXPS20231110001</t>
+  </si>
+  <si>
+    <t>EXPM20231110012</t>
+  </si>
+  <si>
+    <t>EXPM20231110011</t>
+  </si>
+  <si>
+    <t>MGW202311100002</t>
+  </si>
+  <si>
+    <t>MGW202311100001</t>
+  </si>
+  <si>
+    <t>MBC202311100002</t>
+  </si>
+  <si>
+    <t>MBC202311100001</t>
+  </si>
+  <si>
+    <t>MBC202311100004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MBC202311100012</t>
+  </si>
+  <si>
+    <t>MBC202311100011</t>
+  </si>
+  <si>
+    <t>EXPM20231110016</t>
+  </si>
+  <si>
+    <t>EXPM20231110015</t>
+  </si>
+  <si>
+    <t>SB2023111000016</t>
+  </si>
+  <si>
+    <t>SB2023111000015</t>
+  </si>
+  <si>
+    <t>SB2023111000018</t>
+  </si>
+  <si>
+    <t>SB2023111000017</t>
+  </si>
+  <si>
+    <t>SGW202311100032</t>
+  </si>
+  <si>
+    <t>SGW202311100031</t>
+  </si>
+  <si>
+    <t>SGC20231110024</t>
+  </si>
+  <si>
+    <t>SGC20231110023</t>
+  </si>
+  <si>
+    <t>SGW202311100020</t>
+  </si>
+  <si>
+    <t>SGW202311100019</t>
+  </si>
+  <si>
+    <t>SBC202311100042</t>
+  </si>
+  <si>
+    <t>SBC202311100041</t>
+  </si>
+  <si>
+    <t>EXPS20231110022</t>
+  </si>
+  <si>
+    <t>EXPS20231110021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SBs202311100002</t>
+  </si>
+  <si>
+    <t>SBs202311100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EXPS20231110010</t>
+  </si>
+  <si>
+    <t>EXPS20231110009</t>
+  </si>
+  <si>
+    <t>MGW2023111000012</t>
+  </si>
+  <si>
+    <t>MGW2023111000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SBo202311100002</t>
+  </si>
+  <si>
+    <t>SBo202311100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MGWo202311100002</t>
+  </si>
+  <si>
+    <t>MGWo202311100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MBCo202311100002</t>
+  </si>
+  <si>
+    <t>MBCo202311100001</t>
+  </si>
+  <si>
+    <t>MGC202311140002</t>
+  </si>
+  <si>
+    <t>MGC202311140001</t>
+  </si>
+  <si>
+    <t>SB202311140001</t>
+  </si>
+  <si>
+    <t>SB202311140003</t>
+  </si>
+  <si>
+    <t>SB202311140002</t>
+  </si>
+  <si>
+    <t>MBC202311100003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,12 +839,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
@@ -867,7 +851,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,12 +879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -977,9 +955,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -989,23 +964,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,10 +1327,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1387,14 +1353,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>147</v>
+      <c r="J2" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>158</v>
+      <c r="L2" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1404,19 +1370,6 @@
       </c>
       <c r="O2" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="11:30" x14ac:dyDescent="0.35">
-      <c r="K20" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="11:30" x14ac:dyDescent="0.35">
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="11:30" x14ac:dyDescent="0.35">
-      <c r="AD22" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1429,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,11 +1456,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>206</v>
+      <c r="A2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1530,17 +1483,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" t="s">
-        <v>208</v>
+      <c r="J2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>209</v>
+      <c r="M2" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1564,7 +1517,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1636,11 +1589,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>168</v>
+      <c r="A2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1664,16 +1617,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1696,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1769,11 +1722,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>139</v>
+      <c r="A2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1797,16 +1750,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1830,7 +1783,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1850,114 +1803,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="19" t="s">
+      <c r="J2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="N2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1972,7 +1925,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2044,11 +1997,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>211</v>
+      <c r="A2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2072,16 +2025,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2104,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2181,11 +2134,11 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>220</v>
+      <c r="A2" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2209,13 +2162,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2244,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2319,11 +2272,11 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>226</v>
+      <c r="A2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2347,13 +2300,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2382,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405BFB3-437A-405F-8003-FFC978EB6E32}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2457,11 +2410,11 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>162</v>
+      <c r="A2" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2485,13 +2438,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2522,7 +2475,7 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2598,11 +2551,11 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>216</v>
+      <c r="A2" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2626,13 +2579,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2652,8 +2605,8 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2669,7 +2622,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,11 +2695,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>176</v>
+      <c r="A2" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2770,16 +2723,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2802,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4AC90-8C48-4DFB-88B4-E9754BC602E5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2869,11 +2822,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>149</v>
+      <c r="A2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2896,14 +2849,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>150</v>
+      <c r="J2" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>155</v>
+      <c r="L2" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2912,7 +2865,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2926,7 +2879,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2991,10 +2944,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>230</v>
+        <v>213</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3018,16 +2971,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3054,7 +3007,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3130,11 +3083,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>184</v>
+      <c r="A2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3158,16 +3111,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3191,7 +3144,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3231,13 +3184,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -3251,10 +3204,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>235</v>
+        <v>217</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3278,13 +3231,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3307,7 +3260,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3336,17 +3289,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>237</v>
+      <c r="A2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3313,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3382,14 +3335,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>184</v>
+      <c r="A2" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3356,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3428,9 +3381,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3493,13 +3446,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -3513,10 +3466,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>239</v>
+        <v>219</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3540,13 +3493,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3568,14 +3521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6142671-F044-41DC-AF2B-B0D11D2EFE2A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
     <col min="3" max="3" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3590,12 +3542,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>136</v>
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3628,7 +3580,7 @@
       <c r="A2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3642,7 +3594,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3713,10 +3665,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3740,13 +3692,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3769,7 +3721,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3836,11 +3788,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>152</v>
+      <c r="A2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3863,14 +3815,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>153</v>
+      <c r="J2" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>154</v>
+      <c r="L2" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3879,7 +3831,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3887,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3953,7 +3905,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3966,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A07C8-D5AA-4D1A-9CE3-DAC23D010ED0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4041,10 +3993,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -4068,16 +4020,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4104,7 +4056,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4123,7 +4075,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -4214,7 +4166,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -4238,13 +4190,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4275,14 +4227,14 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="3" max="3" width="24.1796875" customWidth="1"/>
     <col min="4" max="4" width="24.36328125" customWidth="1"/>
     <col min="5" max="5" width="22.7265625" customWidth="1"/>
@@ -4303,139 +4255,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>61</v>
       </c>
+      <c r="U1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="J2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="19" t="s">
+      <c r="O2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>62</v>
+      <c r="T2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4452,15 +4404,14 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
@@ -4535,13 +4486,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -4565,19 +4516,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4600,7 +4551,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4636,7 +4587,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>6</v>
@@ -4657,25 +4608,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>12</v>
@@ -4687,21 +4638,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>133</v>
+      <c r="A2" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4725,25 +4676,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -4755,13 +4706,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4775,7 +4726,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4850,10 +4801,10 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>141</v>
+        <v>223</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -4862,31 +4813,31 @@
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4895,7 +4846,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4860,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4946,7 +4897,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>6</v>
@@ -4967,25 +4918,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>12</v>
@@ -4997,21 +4948,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>131</v>
+        <v>225</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5035,25 +4986,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5065,13 +5016,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5037,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5123,7 +5074,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>6</v>
@@ -5144,25 +5095,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>12</v>
@@ -5174,21 +5125,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>227</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5212,25 +5163,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5242,13 +5193,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5261,8 +5212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5332,11 +5283,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>160</v>
+      <c r="A2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5359,14 +5310,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>171</v>
+      <c r="J2" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>172</v>
+      <c r="L2" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5388,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5457,12 +5408,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5485,14 +5436,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>198</v>
+      <c r="J2" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>199</v>
+      <c r="L2" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5514,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CBC80-D75E-405E-B324-B68D1565B17F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5584,11 +5535,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>162</v>
+      <c r="A2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5611,14 +5562,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>173</v>
+      <c r="J2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5640,8 +5591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB38FB-6C23-4F9F-BC08-414D419D2613}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5711,11 +5662,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>164</v>
+      <c r="A2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5739,13 +5690,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>126</v>
+      <c r="L2" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5767,8 +5718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5842,11 +5793,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>204</v>
+      <c r="A2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5869,17 +5820,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>200</v>
+      <c r="J2" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>202</v>
+      <c r="M2" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -5902,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489B589-85EF-4F1E-A926-79648D55BD3F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5962,7 +5913,7 @@
         <v>37</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>16</v>
@@ -5983,10 +5934,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -6009,23 +5960,23 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" t="s">
-        <v>195</v>
+      <c r="J2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
-        <v>127</v>
+      <c r="O2" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876A01E-C3C8-447C-B1AB-A3988D582633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67D361-510C-41AD-9201-3DF3BF88140C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>COLLATE_REPORT_DEFAULT</t>
   </si>
   <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
     <t>Pack Station Doc Printer 2</t>
   </si>
   <si>
@@ -785,6 +782,10 @@
   </si>
   <si>
     <t>MBC202311100003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MGC4230818110128</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,10 +1328,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1354,13 +1355,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1457,10 +1458,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1484,16 +1485,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1590,10 +1591,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1617,16 +1618,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1723,10 +1724,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1750,16 +1751,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1837,16 +1838,16 @@
         <v>30</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>12</v>
@@ -1860,10 +1861,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>5</v>
@@ -1887,22 +1888,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>15</v>
@@ -1998,10 +1999,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2025,16 +2026,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2135,10 +2136,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2162,13 +2163,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2273,10 +2274,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2300,13 +2301,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2411,10 +2412,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2438,13 +2439,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2552,10 +2553,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2579,13 +2580,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2621,8 +2622,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2696,10 +2697,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2723,16 +2724,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2823,10 +2824,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2850,13 +2851,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2865,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2944,10 +2945,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2971,16 +2972,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3084,10 +3085,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3111,16 +3112,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3144,7 +3145,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3184,13 +3185,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -3204,10 +3205,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3231,13 +3232,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3260,7 +3261,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3290,16 +3291,16 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>233</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3314,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3336,13 +3337,13 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3357,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3383,13 +3384,13 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -3406,7 +3407,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3446,13 +3447,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -3466,10 +3467,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3493,13 +3494,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3522,7 +3523,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3544,10 +3545,10 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3567,10 +3568,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3578,10 +3582,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3665,10 +3669,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3692,13 +3696,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3789,10 +3793,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3816,13 +3820,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3831,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3891,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3905,7 +3909,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3997,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -4020,16 +4024,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4075,10 +4079,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4170,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -4190,13 +4194,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4208,7 +4212,7 @@
         <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
         <v>34</v>
@@ -4262,7 +4266,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>6</v>
@@ -4283,25 +4287,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>12</v>
@@ -4313,21 +4317,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>5</v>
@@ -4351,25 +4355,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>15</v>
@@ -4381,13 +4385,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="V2" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +4470,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>16</v>
@@ -4486,13 +4490,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -4516,19 +4520,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4587,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>6</v>
@@ -4608,25 +4612,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>12</v>
@@ -4638,21 +4642,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4676,25 +4680,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -4706,13 +4710,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="V2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4801,10 +4805,10 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -4813,31 +4817,31 @@
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4846,7 +4850,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4901,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>6</v>
@@ -4918,25 +4922,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>12</v>
@@ -4948,21 +4952,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4986,25 +4990,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5016,13 +5020,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="V2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5074,7 +5078,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>6</v>
@@ -5095,25 +5099,25 @@
         <v>11</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>12</v>
@@ -5125,21 +5129,21 @@
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5163,25 +5167,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5193,13 +5197,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="V2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5284,10 +5288,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>185</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5311,13 +5315,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5410,10 +5414,10 @@
     </row>
     <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5437,13 +5441,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5536,10 +5540,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5563,13 +5567,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5663,10 +5667,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5690,13 +5694,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5794,10 +5798,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5821,16 +5825,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -5910,10 +5914,10 @@
         <v>30</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>16</v>
@@ -5934,10 +5938,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5961,22 +5965,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>15</v>

--- a/src/WMS_TestData_Secound.xlsx
+++ b/src/WMS_TestData_Secound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67D361-510C-41AD-9201-3DF3BF88140C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8B81C5-B3A3-4612-8138-A8B6BE8E7830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="836" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="243">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -311,40 +311,15 @@
     <t>CARTKEY2</t>
   </si>
   <si>
-    <t>KILL0520230006</t>
-  </si>
-  <si>
-    <t>FILL20230002</t>
-  </si>
-  <si>
     <t>CarrierServer</t>
   </si>
   <si>
     <t>OnTrac</t>
   </si>
   <si>
-    <t>07/25/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC4230818110127</t>
-  </si>
-  <si>
     <t>SEB2230830161045</t>
   </si>
   <si>
-    <t>TOTEYV08</t>
-  </si>
-  <si>
-    <t>TOTEYV09</t>
-  </si>
-  <si>
-    <t>TOTEYV10</t>
-  </si>
-  <si>
-    <t>TOTEYV11</t>
-  </si>
-  <si>
     <t>TOTEYV39</t>
   </si>
   <si>
@@ -363,153 +338,9 @@
     <t>CARTYV28</t>
   </si>
   <si>
-    <t>TOTEYE01</t>
-  </si>
-  <si>
     <t>CARTYE01</t>
   </si>
   <si>
-    <t>TOTEYE02</t>
-  </si>
-  <si>
-    <t>CARTYE02</t>
-  </si>
-  <si>
-    <t>TOTEYE03</t>
-  </si>
-  <si>
-    <t>CARTYE03</t>
-  </si>
-  <si>
-    <t>TOTEYE04</t>
-  </si>
-  <si>
-    <t>CARTYE04</t>
-  </si>
-  <si>
-    <t>TOTEYE05</t>
-  </si>
-  <si>
-    <t>CARTYE05</t>
-  </si>
-  <si>
-    <t>TOTEYE06</t>
-  </si>
-  <si>
-    <t>CARTYE06</t>
-  </si>
-  <si>
-    <t>TOTEYE07</t>
-  </si>
-  <si>
-    <t>CARTYE07</t>
-  </si>
-  <si>
-    <t>TOTEYE13</t>
-  </si>
-  <si>
-    <t>CARTYE08</t>
-  </si>
-  <si>
-    <t>TOTEYE12</t>
-  </si>
-  <si>
-    <t>CARTYE09</t>
-  </si>
-  <si>
-    <t>TOTEYE14</t>
-  </si>
-  <si>
-    <t>CARTYE10</t>
-  </si>
-  <si>
-    <t>TOTEYE15</t>
-  </si>
-  <si>
-    <t>CARTYE11</t>
-  </si>
-  <si>
-    <t>TOTEYE16</t>
-  </si>
-  <si>
-    <t>TOTEYE17</t>
-  </si>
-  <si>
-    <t>TOTEYE18</t>
-  </si>
-  <si>
-    <t>CARTYE12</t>
-  </si>
-  <si>
-    <t>TOTEYE19</t>
-  </si>
-  <si>
-    <t>TOTEYE20</t>
-  </si>
-  <si>
-    <t>TOTEYE21</t>
-  </si>
-  <si>
-    <t>CARTYE13</t>
-  </si>
-  <si>
-    <t>CARTYE14</t>
-  </si>
-  <si>
-    <t>TOTEYE22</t>
-  </si>
-  <si>
-    <t>TOTEYE23</t>
-  </si>
-  <si>
-    <t>CARTYE15</t>
-  </si>
-  <si>
-    <t>CARTYE21</t>
-  </si>
-  <si>
-    <t>TOTEYE26</t>
-  </si>
-  <si>
-    <t>CARTYE18</t>
-  </si>
-  <si>
-    <t>TOTEYE27</t>
-  </si>
-  <si>
-    <t>CARTYE19</t>
-  </si>
-  <si>
-    <t>TOTEYE28</t>
-  </si>
-  <si>
-    <t>TOTEYE29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTYE20 </t>
-  </si>
-  <si>
-    <t>TOTEYE30</t>
-  </si>
-  <si>
-    <t>TOTEYE31</t>
-  </si>
-  <si>
-    <t>TOTEYE32</t>
-  </si>
-  <si>
-    <t>TOTEYE33</t>
-  </si>
-  <si>
-    <t>CARTYE22</t>
-  </si>
-  <si>
-    <t>TOTEYE34</t>
-  </si>
-  <si>
-    <t>CARTYE23</t>
-  </si>
-  <si>
     <t>TOTEYE35</t>
   </si>
   <si>
@@ -598,145 +429,6 @@
   </si>
   <si>
     <t>CARTYE34</t>
-  </si>
-  <si>
-    <t>MGC202311100002</t>
-  </si>
-  <si>
-    <t>MGC202311100001</t>
-  </si>
-  <si>
-    <t>SB202311100002</t>
-  </si>
-  <si>
-    <t>SB202311100001</t>
-  </si>
-  <si>
-    <t>SB202311100004</t>
-  </si>
-  <si>
-    <t>SB202311100003</t>
-  </si>
-  <si>
-    <t>SB202311100006</t>
-  </si>
-  <si>
-    <t>SB202311100005</t>
-  </si>
-  <si>
-    <t>SBC202311100012</t>
-  </si>
-  <si>
-    <t>SBC202311100011</t>
-  </si>
-  <si>
-    <t>SGC20231110022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SGC20231110021</t>
-  </si>
-  <si>
-    <t>SGW202311100002</t>
-  </si>
-  <si>
-    <t>SGW202311100001</t>
-  </si>
-  <si>
-    <t>EXPS20231110002</t>
-  </si>
-  <si>
-    <t>EXPS20231110001</t>
-  </si>
-  <si>
-    <t>EXPM20231110012</t>
-  </si>
-  <si>
-    <t>EXPM20231110011</t>
-  </si>
-  <si>
-    <t>MGW202311100002</t>
-  </si>
-  <si>
-    <t>MGW202311100001</t>
-  </si>
-  <si>
-    <t>MBC202311100002</t>
-  </si>
-  <si>
-    <t>MBC202311100001</t>
-  </si>
-  <si>
-    <t>MBC202311100004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MBC202311100012</t>
-  </si>
-  <si>
-    <t>MBC202311100011</t>
-  </si>
-  <si>
-    <t>EXPM20231110016</t>
-  </si>
-  <si>
-    <t>EXPM20231110015</t>
-  </si>
-  <si>
-    <t>SB2023111000016</t>
-  </si>
-  <si>
-    <t>SB2023111000015</t>
-  </si>
-  <si>
-    <t>SB2023111000018</t>
-  </si>
-  <si>
-    <t>SB2023111000017</t>
-  </si>
-  <si>
-    <t>SGW202311100032</t>
-  </si>
-  <si>
-    <t>SGW202311100031</t>
-  </si>
-  <si>
-    <t>SGC20231110024</t>
-  </si>
-  <si>
-    <t>SGC20231110023</t>
-  </si>
-  <si>
-    <t>SGW202311100020</t>
-  </si>
-  <si>
-    <t>SGW202311100019</t>
-  </si>
-  <si>
-    <t>SBC202311100042</t>
-  </si>
-  <si>
-    <t>SBC202311100041</t>
-  </si>
-  <si>
-    <t>EXPS20231110022</t>
-  </si>
-  <si>
-    <t>EXPS20231110021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SBs202311100002</t>
-  </si>
-  <si>
-    <t>SBs202311100001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-EXPS20231110010</t>
-  </si>
-  <si>
-    <t>EXPS20231110009</t>
   </si>
   <si>
     <t>MGW2023111000012</t>
@@ -772,20 +464,346 @@
     <t>MGC202311140001</t>
   </si>
   <si>
-    <t>SB202311140001</t>
-  </si>
-  <si>
-    <t>SB202311140003</t>
-  </si>
-  <si>
-    <t>SB202311140002</t>
-  </si>
-  <si>
-    <t>MBC202311100003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MGC4230818110128</t>
+    <t>TOTEZA48</t>
+  </si>
+  <si>
+    <t>TOTEZA49</t>
+  </si>
+  <si>
+    <t>CARTZA49</t>
+  </si>
+  <si>
+    <t>TEST20240227003</t>
+  </si>
+  <si>
+    <t>TEST20240227004</t>
+  </si>
+  <si>
+    <t>KILL311023013</t>
+  </si>
+  <si>
+    <t>SBA1240320113526</t>
+  </si>
+  <si>
+    <t>03/18/2023</t>
+  </si>
+  <si>
+    <t>SBC240412020</t>
+  </si>
+  <si>
+    <t>SBC240412009</t>
+  </si>
+  <si>
+    <t>TOTEZY03</t>
+  </si>
+  <si>
+    <t>TOTEZY04</t>
+  </si>
+  <si>
+    <t>CARTZY03</t>
+  </si>
+  <si>
+    <t>TOTEZY07</t>
+  </si>
+  <si>
+    <t>CARTZY07</t>
+  </si>
+  <si>
+    <t>TOTEZY08</t>
+  </si>
+  <si>
+    <t>CARTZY08</t>
+  </si>
+  <si>
+    <t>TOTEZY09</t>
+  </si>
+  <si>
+    <t>CARTZY09</t>
+  </si>
+  <si>
+    <t>TOTEZY10</t>
+  </si>
+  <si>
+    <t>CARTZY10</t>
+  </si>
+  <si>
+    <t>TOTEZY11</t>
+  </si>
+  <si>
+    <t>CARTZY11</t>
+  </si>
+  <si>
+    <t>TOTEZY12</t>
+  </si>
+  <si>
+    <t>CARTZY12</t>
+  </si>
+  <si>
+    <t>TOTEZY13</t>
+  </si>
+  <si>
+    <t>CARTZY13</t>
+  </si>
+  <si>
+    <t>EXP0104120003</t>
+  </si>
+  <si>
+    <t>EXP0104120004</t>
+  </si>
+  <si>
+    <t>SB202412040001</t>
+  </si>
+  <si>
+    <t>SB202412040002</t>
+  </si>
+  <si>
+    <t>SB202412040003</t>
+  </si>
+  <si>
+    <t>SB202412040004</t>
+  </si>
+  <si>
+    <t>SB202412040005</t>
+  </si>
+  <si>
+    <t>SB202412040006</t>
+  </si>
+  <si>
+    <t>SBC240412001</t>
+  </si>
+  <si>
+    <t>SBC240412002</t>
+  </si>
+  <si>
+    <t>SBC240412003</t>
+  </si>
+  <si>
+    <t>SBC240412004</t>
+  </si>
+  <si>
+    <t>SB202412040007</t>
+  </si>
+  <si>
+    <t>SB202412040008</t>
+  </si>
+  <si>
+    <t>SGC202412040001</t>
+  </si>
+  <si>
+    <t>SGC202412040002</t>
+  </si>
+  <si>
+    <t>SGC202412040003</t>
+  </si>
+  <si>
+    <t>SGC202412040004</t>
+  </si>
+  <si>
+    <t>MBTAM20241204001</t>
+  </si>
+  <si>
+    <t>MBTAM20241204002</t>
+  </si>
+  <si>
+    <t>MGWCS20241204001</t>
+  </si>
+  <si>
+    <t>MGWCS20241204002</t>
+  </si>
+  <si>
+    <t>TOTEZY16</t>
+  </si>
+  <si>
+    <t>TOTEZY17</t>
+  </si>
+  <si>
+    <t>TOTEZY18</t>
+  </si>
+  <si>
+    <t>TOTEZY19</t>
+  </si>
+  <si>
+    <t>CARTZY19</t>
+  </si>
+  <si>
+    <t>TOTEZY24</t>
+  </si>
+  <si>
+    <t>TOTEZY25</t>
+  </si>
+  <si>
+    <t>TOTEZY26</t>
+  </si>
+  <si>
+    <t>CARTZY24</t>
+  </si>
+  <si>
+    <t>CARTZY25</t>
+  </si>
+  <si>
+    <t>TOTEZY29</t>
+  </si>
+  <si>
+    <t>CARTZY29</t>
+  </si>
+  <si>
+    <t>TOTEZY30</t>
+  </si>
+  <si>
+    <t>CARTZY30</t>
+  </si>
+  <si>
+    <t>TOTEZY31</t>
+  </si>
+  <si>
+    <t>CARTZY31</t>
+  </si>
+  <si>
+    <t>TOTEZY32</t>
+  </si>
+  <si>
+    <t>CARTZY32</t>
+  </si>
+  <si>
+    <t>SGW2404120020</t>
+  </si>
+  <si>
+    <t>SGW2404120019</t>
+  </si>
+  <si>
+    <t>SBC240412008</t>
+  </si>
+  <si>
+    <t>SBC240412007</t>
+  </si>
+  <si>
+    <t>TOTEZY90</t>
+  </si>
+  <si>
+    <t>TOTEZY91</t>
+  </si>
+  <si>
+    <t>CARTZY90</t>
+  </si>
+  <si>
+    <t>TOTEZY89</t>
+  </si>
+  <si>
+    <t>TOTEZY88</t>
+  </si>
+  <si>
+    <t>CARTZY89</t>
+  </si>
+  <si>
+    <t>EXP0104120007</t>
+  </si>
+  <si>
+    <t>EXP0104120008</t>
+  </si>
+  <si>
+    <t>MBTAM20241204006</t>
+  </si>
+  <si>
+    <t>TOTEZY80</t>
+  </si>
+  <si>
+    <t>TOTEZY81</t>
+  </si>
+  <si>
+    <t>CARTZY81</t>
+  </si>
+  <si>
+    <t>TOTEZY82</t>
+  </si>
+  <si>
+    <t>TOTEZY83</t>
+  </si>
+  <si>
+    <t>CARTZY82</t>
+  </si>
+  <si>
+    <t>MGC24041223003</t>
+  </si>
+  <si>
+    <t>MGC24041223004</t>
+  </si>
+  <si>
+    <t>METEST20240412005</t>
+  </si>
+  <si>
+    <t>METEST20240412006</t>
+  </si>
+  <si>
+    <t>TOTEZY79</t>
+  </si>
+  <si>
+    <t>TOTEZY78</t>
+  </si>
+  <si>
+    <t>CARTZY78</t>
+  </si>
+  <si>
+    <t>MBTAM20241204003</t>
+  </si>
+  <si>
+    <t>MBTAM20241204004</t>
+  </si>
+  <si>
+    <t>METEST20240412007</t>
+  </si>
+  <si>
+    <t>METEST20240412008</t>
+  </si>
+  <si>
+    <t>TOTEZY50</t>
+  </si>
+  <si>
+    <t>TOTEZY51</t>
+  </si>
+  <si>
+    <t>CARTZY51</t>
+  </si>
+  <si>
+    <t>SGW2404120015</t>
+  </si>
+  <si>
+    <t>SGW2404120016</t>
+  </si>
+  <si>
+    <t>SBA1240402104428</t>
+  </si>
+  <si>
+    <t>SBA1240402104426</t>
+  </si>
+  <si>
+    <t>CARTZY52</t>
+  </si>
+  <si>
+    <t>TOTEZY52</t>
+  </si>
+  <si>
+    <t>EXP0104120006</t>
+  </si>
+  <si>
+    <t>EXP0104120005</t>
+  </si>
+  <si>
+    <t>MGC24041223002</t>
+  </si>
+  <si>
+    <t>MBTAM20241204009</t>
+  </si>
+  <si>
+    <t>MBTAM20241204008</t>
+  </si>
+  <si>
+    <t>MBTAM20241204007</t>
+  </si>
+  <si>
+    <t>TOTEZY53</t>
+  </si>
+  <si>
+    <t>CARTZY53</t>
   </si>
 </sst>
 </file>
@@ -852,7 +870,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +901,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -911,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -946,24 +982,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -973,6 +993,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,7 +1323,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,11 +1393,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>178</v>
+      <c r="A2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1354,14 +1420,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>96</v>
+      <c r="J2" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>97</v>
+      <c r="L2" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1383,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA74E28-0803-4C67-B62C-8B4A8D7FBE8D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1457,11 +1523,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>176</v>
+      <c r="A2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1484,17 +1550,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
+      <c r="J2" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>115</v>
+      <c r="M2" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1518,7 +1584,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1590,11 +1656,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>196</v>
+      <c r="A2" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1617,17 +1683,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>118</v>
+      <c r="J2" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>117</v>
+      <c r="M2" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1723,11 +1789,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>233</v>
+      <c r="A2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1750,17 +1816,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>120</v>
+      <c r="J2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>121</v>
+      <c r="M2" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -1783,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690916E-810E-42F7-B938-357EB5B462BB}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1804,114 +1870,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="J2" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1925,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310205EE-CAFF-40F5-B011-64E0293D21E5}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1971,19 +2037,19 @@
       <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="8" t="s">
@@ -1998,11 +2064,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>201</v>
+      <c r="A2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2022,20 +2088,20 @@
       <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>129</v>
+      <c r="M2" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2058,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2135,11 +2201,11 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>203</v>
+      <c r="A2" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2162,14 +2228,14 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>124</v>
+      <c r="J2" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>130</v>
+      <c r="L2" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2198,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,11 +2339,11 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>205</v>
+      <c r="A2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2300,14 +2366,14 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>96</v>
+      <c r="J2" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>97</v>
+      <c r="L2" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2337,7 +2403,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2411,11 +2477,11 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>207</v>
+      <c r="A2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2438,14 +2504,14 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>131</v>
+      <c r="J2" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>132</v>
+      <c r="L2" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2474,27 +2540,28 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="13" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -2552,11 +2619,11 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>209</v>
+      <c r="A2" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2579,14 +2646,14 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>133</v>
+      <c r="J2" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>134</v>
+      <c r="L2" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -2604,10 +2671,6 @@
         <v>19</v>
       </c>
       <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,7 +2685,7 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2696,11 +2759,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>210</v>
+      <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2724,16 +2787,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -2757,7 +2820,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2823,11 +2886,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>180</v>
+      <c r="A2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2850,14 +2913,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>98</v>
+      <c r="J2" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>99</v>
+      <c r="L2" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2880,7 +2943,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2944,11 +3007,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>213</v>
+      <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -2971,17 +3034,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="22" t="s">
         <v>139</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>130</v>
+      <c r="M2" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3008,7 +3071,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3084,11 +3147,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>214</v>
+      <c r="A2" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -3111,17 +3174,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>141</v>
+      <c r="J2" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>142</v>
+      <c r="M2" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -3145,7 +3208,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3204,11 +3267,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>217</v>
+      <c r="A2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3232,13 +3295,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>144</v>
+      <c r="L2" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3261,7 +3324,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3290,11 +3353,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>232</v>
+      <c r="A2" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -3314,7 +3377,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3336,8 +3399,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>230</v>
+      <c r="A2" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>48</v>
@@ -3357,7 +3420,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3382,12 +3445,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>234</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -3406,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CBAF4-DCE9-420A-B78D-FEF677E49528}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3466,11 +3529,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>219</v>
+      <c r="A2" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3493,14 +3556,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>143</v>
+      <c r="J2" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>144</v>
+      <c r="L2" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3523,7 +3586,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3544,11 +3607,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>80</v>
+      <c r="A2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3564,7 +3627,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3574,7 +3637,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3582,10 +3645,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3696,13 +3759,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -3725,7 +3788,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3792,11 +3855,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>182</v>
+      <c r="A2" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3819,14 +3882,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>100</v>
+      <c r="J2" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>101</v>
+      <c r="L2" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -4024,16 +4087,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4079,7 +4142,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
@@ -4194,13 +4257,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4259,138 +4322,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="J2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="O2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4520,19 +4583,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -4652,11 +4715,11 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>229</v>
+      <c r="A2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4680,25 +4743,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -4805,10 +4868,10 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>223</v>
+        <v>121</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -4832,16 +4895,16 @@
         <v>70</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -4963,10 +5026,10 @@
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>225</v>
+        <v>123</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4990,25 +5053,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5140,10 +5203,10 @@
     </row>
     <row r="2" spans="1:22" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>125</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -5167,25 +5230,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>15</v>
@@ -5217,7 +5280,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5287,11 +5350,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>184</v>
+      <c r="A2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5314,14 +5377,14 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>102</v>
+      <c r="J2" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>103</v>
+      <c r="L2" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5344,7 +5407,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5412,12 +5475,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>186</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5440,14 +5503,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
+      <c r="J2" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>105</v>
+      <c r="L2" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5539,11 +5602,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>188</v>
+      <c r="A2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5566,14 +5629,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>106</v>
+      <c r="J2" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>107</v>
+      <c r="L2" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5596,7 +5659,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5666,11 +5729,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>190</v>
+      <c r="A2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5693,14 +5756,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>108</v>
+      <c r="J2" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>109</v>
+      <c r="L2" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5722,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5797,11 +5860,11 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>191</v>
+      <c r="A2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5824,17 +5887,17 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>110</v>
+      <c r="J2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>111</v>
+      <c r="M2" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -5858,7 +5921,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5937,11 +6000,11 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>194</v>
+      <c r="A2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -5964,23 +6027,23 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>112</v>
+      <c r="J2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>113</v>
+      <c r="O2" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>15</v>
